--- a/AAII_Financials/Quarterly/ONTO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ONTO_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
   <si>
     <t>ONTO</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,143 +665,168 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43918</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43736</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43645</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43554</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43463</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43372</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43099</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>139900</v>
+      </c>
+      <c r="E8" s="3">
+        <v>98100</v>
+      </c>
+      <c r="F8" s="3">
         <v>73100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>67600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>67100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>77000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>76600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>88600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>82300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>78200</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>77300</v>
+      </c>
+      <c r="E9" s="3">
+        <v>70700</v>
+      </c>
+      <c r="F9" s="3">
         <v>34400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>32400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>33300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>35000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>33000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>37700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>34800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>34200</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>62600</v>
+      </c>
+      <c r="E10" s="3">
+        <v>27400</v>
+      </c>
+      <c r="F10" s="3">
         <v>38700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>35200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>33800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>42000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>43600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>50900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>47500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>44000</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -813,37 +838,45 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>20900</v>
+      </c>
+      <c r="E12" s="3">
+        <v>7500</v>
+      </c>
+      <c r="F12" s="3">
         <v>13800</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>14100</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>13000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>12800</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>12700</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>12500</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>10200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>10100</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -871,66 +904,84 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="F14" s="3">
         <v>2400</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>900</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="H14" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>10</v>
+      <c r="J14" s="3">
+        <v>0</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>300</v>
+        <v>13700</v>
       </c>
       <c r="E15" s="3">
-        <v>300</v>
+        <v>9600</v>
       </c>
       <c r="F15" s="3">
         <v>300</v>
       </c>
       <c r="G15" s="3">
+        <v>300</v>
+      </c>
+      <c r="H15" s="3">
+        <v>300</v>
+      </c>
+      <c r="I15" s="3">
         <v>100</v>
       </c>
-      <c r="H15" s="3">
-        <v>0</v>
-      </c>
-      <c r="I15" s="3" t="s">
+      <c r="J15" s="3">
+        <v>0</v>
+      </c>
+      <c r="K15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J15" s="3" t="s">
+      <c r="L15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K15" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -939,66 +990,80 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>145200</v>
+      </c>
+      <c r="E17" s="3">
+        <v>116100</v>
+      </c>
+      <c r="F17" s="3">
         <v>67200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>63900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>63800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>66100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>62300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>67800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>61700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>59000</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-18000</v>
+      </c>
+      <c r="F18" s="3">
         <v>5900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>3700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>3300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>10900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>14300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>20800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>20600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>19200</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1010,86 +1075,100 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>300</v>
+        <v>1300</v>
       </c>
       <c r="E20" s="3">
-        <v>800</v>
+        <v>3200</v>
       </c>
       <c r="F20" s="3">
         <v>300</v>
       </c>
       <c r="G20" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="H20" s="3">
         <v>300</v>
       </c>
       <c r="I20" s="3">
+        <v>900</v>
+      </c>
+      <c r="J20" s="3">
+        <v>300</v>
+      </c>
+      <c r="K20" s="3">
         <v>-200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>12800</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="F21" s="3">
         <v>8800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>7200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>6000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>13600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>16200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>22200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>22600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>21100</v>
       </c>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>0</v>
-      </c>
-      <c r="E22" s="3">
-        <v>0</v>
+      <c r="D22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="F22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H22" s="3">
         <v>100</v>
       </c>
       <c r="I22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J22" s="3">
         <v>100</v>
@@ -1097,66 +1176,84 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>100</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-14800</v>
+      </c>
+      <c r="F23" s="3">
         <v>6200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>4600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>3500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>11600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>14500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>20600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>20800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>19400</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>400</v>
+      </c>
+      <c r="E24" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="F24" s="3">
         <v>1900</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>500</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>-400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>2900</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>2900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>4400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>5700</v>
       </c>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1184,66 +1281,84 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-9200</v>
+      </c>
+      <c r="F26" s="3">
         <v>4200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>3900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>3000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>12000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>11600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>17700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>16400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>13700</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-9200</v>
+      </c>
+      <c r="F27" s="3">
         <v>4200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>3900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>3000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>12000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>11600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>17700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>16400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>13700</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1271,8 +1386,14 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1297,11 +1418,17 @@
       <c r="J29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K29" s="3">
+      <c r="K29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M29" s="3">
         <v>-2900</v>
       </c>
     </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1329,8 +1456,14 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1358,66 +1491,84 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-300</v>
+        <v>-1300</v>
       </c>
       <c r="E32" s="3">
-        <v>-800</v>
+        <v>-3200</v>
       </c>
       <c r="F32" s="3">
         <v>-300</v>
       </c>
       <c r="G32" s="3">
-        <v>-900</v>
+        <v>-800</v>
       </c>
       <c r="H32" s="3">
         <v>-300</v>
       </c>
       <c r="I32" s="3">
+        <v>-900</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K32" s="3">
         <v>200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-9200</v>
+      </c>
+      <c r="F33" s="3">
         <v>4200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>3900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>3000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>12000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>11600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>17700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>16400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>10800</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1445,71 +1596,89 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-9200</v>
+      </c>
+      <c r="F35" s="3">
         <v>4200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>3900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>3000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>12000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>11600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>17700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>16400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>10800</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43918</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43736</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43645</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43554</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43463</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43372</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43099</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1521,8 +1690,10 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1534,182 +1705,220 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>101300</v>
+      </c>
+      <c r="E41" s="3">
+        <v>130700</v>
+      </c>
+      <c r="F41" s="3">
         <v>51000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>94000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>95200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>111000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>96100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>86200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>65900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>34900</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>190600</v>
+      </c>
+      <c r="E42" s="3">
+        <v>189600</v>
+      </c>
+      <c r="F42" s="3">
         <v>93100</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>50900</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>52900</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>40800</v>
       </c>
-      <c r="H42" s="3">
+      <c r="J42" s="3">
         <v>76800</v>
       </c>
-      <c r="I42" s="3">
+      <c r="K42" s="3">
         <v>62500</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>58000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>82100</v>
       </c>
     </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>149200</v>
+      </c>
+      <c r="E43" s="3">
+        <v>123700</v>
+      </c>
+      <c r="F43" s="3">
         <v>57000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>51600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>45300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>50900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>50300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>54600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>59000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>62500</v>
       </c>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>160500</v>
+      </c>
+      <c r="E44" s="3">
+        <v>176100</v>
+      </c>
+      <c r="F44" s="3">
         <v>69800</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>67600</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>63800</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>62100</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>60700</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>56100</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>54600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>54400</v>
       </c>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>26800</v>
+      </c>
+      <c r="E45" s="3">
+        <v>21600</v>
+      </c>
+      <c r="F45" s="3">
         <v>7400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>8000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>7200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>6100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>7100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>9900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>6900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>6200</v>
       </c>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>628500</v>
+      </c>
+      <c r="E46" s="3">
+        <v>641700</v>
+      </c>
+      <c r="F46" s="3">
         <v>278300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>272200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>264400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>270900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>291100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>269300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>244400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>240100</v>
       </c>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1737,66 +1946,84 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>119400</v>
+      </c>
+      <c r="E48" s="3">
+        <v>122000</v>
+      </c>
+      <c r="F48" s="3">
         <v>62400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>63500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>62100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>47900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>43100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>43100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>43800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>44800</v>
       </c>
     </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>665800</v>
+      </c>
+      <c r="E49" s="3">
+        <v>679100</v>
+      </c>
+      <c r="F49" s="3">
         <v>51400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>52100</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>52900</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>53700</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>14700</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>14700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>13800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>12400</v>
       </c>
     </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1824,8 +2051,14 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1853,37 +2086,49 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E52" s="3">
+        <v>5800</v>
+      </c>
+      <c r="F52" s="3">
         <v>4100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>3300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>2900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>3200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>7500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>7700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>10000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>12300</v>
       </c>
     </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1911,37 +2156,49 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1416400</v>
+      </c>
+      <c r="E54" s="3">
+        <v>1448600</v>
+      </c>
+      <c r="F54" s="3">
         <v>396200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>391100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>382300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>375600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>356500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>334800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>312000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>309700</v>
       </c>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1953,8 +2210,10 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1966,37 +2225,45 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>32200</v>
+      </c>
+      <c r="E57" s="3">
+        <v>27700</v>
+      </c>
+      <c r="F57" s="3">
         <v>17500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>19500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>18900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>16500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>20900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>19000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>18500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>13900</v>
       </c>
     </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2024,66 +2291,84 @@
       <c r="K58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>62100</v>
+      </c>
+      <c r="E59" s="3">
+        <v>58000</v>
+      </c>
+      <c r="F59" s="3">
         <v>32300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>31500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>31500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>43200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>38200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>34100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>29400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>30200</v>
       </c>
     </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>94300</v>
+      </c>
+      <c r="E60" s="3">
+        <v>85700</v>
+      </c>
+      <c r="F60" s="3">
         <v>49800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>51000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>50400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>59800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>59100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>53000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>47900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>44100</v>
       </c>
     </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2111,37 +2396,49 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>96300</v>
+      </c>
+      <c r="E62" s="3">
+        <v>98800</v>
+      </c>
+      <c r="F62" s="3">
         <v>10600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>11200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>11500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>3000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>3300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>3300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>3400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2169,8 +2466,14 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2198,8 +2501,14 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2227,37 +2536,49 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>190600</v>
+      </c>
+      <c r="E66" s="3">
+        <v>184600</v>
+      </c>
+      <c r="F66" s="3">
         <v>60500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>62100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>61900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>62800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>62400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>56300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>51300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>47300</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2269,8 +2590,10 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2298,8 +2621,14 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2327,8 +2656,14 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2356,8 +2691,14 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2385,37 +2726,49 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-9300</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="F72" s="3">
         <v>78500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>74300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>70400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>67400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>55400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>43800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>26100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>9100</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2443,8 +2796,14 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2472,8 +2831,14 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2501,37 +2866,49 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1225800</v>
+      </c>
+      <c r="E76" s="3">
+        <v>1264000</v>
+      </c>
+      <c r="F76" s="3">
         <v>335800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>329000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>320400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>312900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>294100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>278500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>260700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>262400</v>
       </c>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2559,71 +2936,89 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43918</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43736</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43645</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43554</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43463</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43372</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43099</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-9200</v>
+      </c>
+      <c r="F81" s="3">
         <v>4200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>3900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>3000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>12000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>11600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>17700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>16400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>10800</v>
       </c>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2635,37 +3030,45 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>16800</v>
+      </c>
+      <c r="E83" s="3">
+        <v>8700</v>
+      </c>
+      <c r="F83" s="3">
         <v>2700</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>2700</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>2400</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>1900</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>1600</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>1600</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>1700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2693,8 +3096,14 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2722,8 +3131,14 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2751,8 +3166,14 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2780,8 +3201,14 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2809,37 +3236,49 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>8900</v>
+      </c>
+      <c r="E89" s="3">
+        <v>19300</v>
+      </c>
+      <c r="F89" s="3">
         <v>1200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-1400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>19900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>24400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>26300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>32700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2851,37 +3290,45 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E91" s="3">
+        <v>3100</v>
+      </c>
+      <c r="F91" s="3">
         <v>-1600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-4200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-4100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-4500</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-1200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-1300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-2900</v>
       </c>
     </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2909,8 +3356,14 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2938,37 +3391,49 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E94" s="3">
+        <v>65000</v>
+      </c>
+      <c r="F94" s="3">
         <v>-43700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-1200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-16000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-4700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-15300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-5800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>21600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>11100</v>
       </c>
     </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2980,8 +3445,10 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3009,8 +3476,14 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3038,8 +3511,14 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3067,8 +3546,14 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3096,91 +3581,115 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-35000</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="F100" s="3">
         <v>-200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>1500</v>
-      </c>
-      <c r="F100" s="3">
-        <v>700</v>
-      </c>
-      <c r="G100" s="3">
-        <v>-500</v>
       </c>
       <c r="H100" s="3">
         <v>700</v>
       </c>
       <c r="I100" s="3">
+        <v>-500</v>
+      </c>
+      <c r="J100" s="3">
+        <v>700</v>
+      </c>
+      <c r="K100" s="3">
         <v>-100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-22900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-25400</v>
       </c>
     </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E101" s="3">
+        <v>200</v>
+      </c>
+      <c r="F101" s="3">
         <v>-300</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
         <v>300</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>100</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>100</v>
       </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
         <v>-400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-29400</v>
+      </c>
+      <c r="E102" s="3">
+        <v>78200</v>
+      </c>
+      <c r="F102" s="3">
         <v>-43000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-1200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-15700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>14800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>9900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>20300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>31000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-9100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ONTO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ONTO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
   <si>
     <t>ONTO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,168 +665,181 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44009</v>
+      </c>
+      <c r="E7" s="2">
         <v>43918</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43736</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43645</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43554</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43463</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43372</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43099</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>134900</v>
+      </c>
+      <c r="E8" s="3">
         <v>139900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>98100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>73100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>67600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>67100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>77000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>76600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>88600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>82300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>78200</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>63400</v>
+      </c>
+      <c r="E9" s="3">
         <v>77300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>70700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>34400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>32400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>33300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>35000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>33000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>37700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>34800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>34200</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>71500</v>
+      </c>
+      <c r="E10" s="3">
         <v>62600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>27400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>38700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>35200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>33800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>42000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>43600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>50900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>47500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>44000</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -840,43 +853,47 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>22200</v>
+      </c>
+      <c r="E12" s="3">
         <v>20900</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>7500</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>13800</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>14100</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>13000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>12800</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>12700</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>12500</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>10200</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>10100</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -910,34 +927,37 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="3">
         <v>-3300</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>2400</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>900</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3" t="s">
+      <c r="J14" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>10</v>
@@ -945,8 +965,11 @@
       <c r="M14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -954,10 +977,10 @@
         <v>13700</v>
       </c>
       <c r="E15" s="3">
+        <v>13700</v>
+      </c>
+      <c r="F15" s="3">
         <v>9600</v>
-      </c>
-      <c r="F15" s="3">
-        <v>300</v>
       </c>
       <c r="G15" s="3">
         <v>300</v>
@@ -966,22 +989,25 @@
         <v>300</v>
       </c>
       <c r="I15" s="3">
+        <v>300</v>
+      </c>
+      <c r="J15" s="3">
         <v>100</v>
       </c>
-      <c r="J15" s="3">
-        <v>0</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>10</v>
+      <c r="K15" s="3">
+        <v>0</v>
       </c>
       <c r="L15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M15" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -992,78 +1018,85 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>127000</v>
+      </c>
+      <c r="E17" s="3">
         <v>145200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>116100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>67200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>63900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>63800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>66100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>62300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>67800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>61700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>59000</v>
       </c>
     </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>7900</v>
+      </c>
+      <c r="E18" s="3">
         <v>-5300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-18000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>5900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>3700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>3300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>10900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>14300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>20800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>20600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>19200</v>
       </c>
     </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1077,78 +1110,85 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E20" s="3">
         <v>1300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>3200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>800</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>24300</v>
+      </c>
+      <c r="E21" s="3">
         <v>12800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-6100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>8800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>7200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>6000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>13600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>16200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>22200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>22600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>21100</v>
       </c>
     </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1158,14 +1198,14 @@
       <c r="E22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F22" s="3">
-        <v>0</v>
+      <c r="F22" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="G22" s="3">
         <v>0</v>
       </c>
       <c r="H22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I22" s="3">
         <v>100</v>
@@ -1174,86 +1214,95 @@
         <v>100</v>
       </c>
       <c r="K22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
         <v>100</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>7400</v>
+      </c>
+      <c r="E23" s="3">
         <v>-4000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-14800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>6200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>4600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>3500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>11600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>14500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>20600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>20800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>19400</v>
       </c>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
         <v>400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-5600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>1900</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>600</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>500</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-400</v>
-      </c>
-      <c r="J24" s="3">
-        <v>2900</v>
       </c>
       <c r="K24" s="3">
         <v>2900</v>
       </c>
       <c r="L24" s="3">
+        <v>2900</v>
+      </c>
+      <c r="M24" s="3">
         <v>4400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>5700</v>
       </c>
     </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1287,78 +1336,87 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>7400</v>
+      </c>
+      <c r="E26" s="3">
         <v>-4400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-9200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>4200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>3900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>3000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>12000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>11600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>17700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>16400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>13700</v>
       </c>
     </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>7400</v>
+      </c>
+      <c r="E27" s="3">
         <v>-4400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-9200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>4200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>3900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>3000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>12000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>11600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>17700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>16400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>13700</v>
       </c>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1392,8 +1450,11 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1424,11 +1485,14 @@
       <c r="L29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M29" s="3">
+      <c r="M29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N29" s="3">
         <v>-2900</v>
       </c>
     </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1462,8 +1526,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1497,78 +1564,87 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>500</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-3200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-800</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>7400</v>
+      </c>
+      <c r="E33" s="3">
         <v>-4400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-9200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>4200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>3900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>3000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>12000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>11600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>17700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>16400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>10800</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1602,83 +1678,92 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>7400</v>
+      </c>
+      <c r="E35" s="3">
         <v>-4400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-9200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>4200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>3900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>3000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>12000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>11600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>17700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>16400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>10800</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44009</v>
+      </c>
+      <c r="E38" s="2">
         <v>43918</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43736</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43645</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43554</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43463</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43372</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43099</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1692,8 +1777,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1707,218 +1793,237 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>129400</v>
+      </c>
+      <c r="E41" s="3">
         <v>101300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>130700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>51000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>94000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>95200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>111000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>96100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>86200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>65900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>34900</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>182700</v>
+      </c>
+      <c r="E42" s="3">
         <v>190600</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>189600</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>93100</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>50900</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>52900</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>40800</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>76800</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>62500</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>58000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>82100</v>
       </c>
     </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>137500</v>
+      </c>
+      <c r="E43" s="3">
         <v>149200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>123700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>57000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>51600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>45300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>50900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>50300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>54600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>59000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>62500</v>
       </c>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>171800</v>
+      </c>
+      <c r="E44" s="3">
         <v>160500</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>176100</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>69800</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>67600</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>63800</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>62100</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>60700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>56100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>54600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>54400</v>
       </c>
     </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>23500</v>
+      </c>
+      <c r="E45" s="3">
         <v>26800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>21600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>7400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>8000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>7200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>6100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>7100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>9900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>6900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>6200</v>
       </c>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>644900</v>
+      </c>
+      <c r="E46" s="3">
         <v>628500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>641700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>278300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>272200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>264400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>270900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>291100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>269300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>244400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>240100</v>
       </c>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1952,78 +2057,87 @@
       <c r="M47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>116800</v>
+      </c>
+      <c r="E48" s="3">
         <v>119400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>122000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>62400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>63500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>62100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>47900</v>
-      </c>
-      <c r="J48" s="3">
-        <v>43100</v>
       </c>
       <c r="K48" s="3">
         <v>43100</v>
       </c>
       <c r="L48" s="3">
+        <v>43100</v>
+      </c>
+      <c r="M48" s="3">
         <v>43800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>44800</v>
       </c>
     </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>652200</v>
+      </c>
+      <c r="E49" s="3">
         <v>665800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>679100</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>51400</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>52100</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>52900</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>53700</v>
-      </c>
-      <c r="J49" s="3">
-        <v>14700</v>
       </c>
       <c r="K49" s="3">
         <v>14700</v>
       </c>
       <c r="L49" s="3">
+        <v>14700</v>
+      </c>
+      <c r="M49" s="3">
         <v>13800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>12400</v>
       </c>
     </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2057,8 +2171,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2092,43 +2209,49 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E52" s="3">
         <v>2700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>5800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>4100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>3300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>2900</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>3200</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>7500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>7700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>10000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>12300</v>
       </c>
     </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2162,43 +2285,49 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1416800</v>
+      </c>
+      <c r="E54" s="3">
         <v>1416400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1448600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>396200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>391100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>382300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>375600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>356500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>334800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>312000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>309700</v>
       </c>
     </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2212,8 +2341,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2227,43 +2357,47 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>34300</v>
+      </c>
+      <c r="E57" s="3">
         <v>32200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>27700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>17500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>19500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>18900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>16500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>20900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>19000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>18500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>13900</v>
       </c>
     </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2297,78 +2431,87 @@
       <c r="M58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>64400</v>
+      </c>
+      <c r="E59" s="3">
         <v>62100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>58000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>32300</v>
-      </c>
-      <c r="G59" s="3">
-        <v>31500</v>
       </c>
       <c r="H59" s="3">
         <v>31500</v>
       </c>
       <c r="I59" s="3">
+        <v>31500</v>
+      </c>
+      <c r="J59" s="3">
         <v>43200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>38200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>34100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>29400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>30200</v>
       </c>
     </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>98700</v>
+      </c>
+      <c r="E60" s="3">
         <v>94300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>85700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>49800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>51000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>50400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>59800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>59100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>53000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>47900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>44100</v>
       </c>
     </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2402,43 +2545,49 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>96800</v>
+      </c>
+      <c r="E62" s="3">
         <v>96300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>98800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>10600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>11200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>11500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>3000</v>
-      </c>
-      <c r="J62" s="3">
-        <v>3300</v>
       </c>
       <c r="K62" s="3">
         <v>3300</v>
       </c>
       <c r="L62" s="3">
+        <v>3300</v>
+      </c>
+      <c r="M62" s="3">
         <v>3400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2472,8 +2621,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2507,8 +2659,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2542,43 +2697,49 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>195600</v>
+      </c>
+      <c r="E66" s="3">
         <v>190600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>184600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>60500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>62100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>61900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>62800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>62400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>56300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>51300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>47300</v>
       </c>
     </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2592,8 +2753,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2627,8 +2789,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2662,8 +2827,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2697,8 +2865,11 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2732,43 +2903,49 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-9300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-4900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>78500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>74300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>70400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>67400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>55400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>43800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>26100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>9100</v>
       </c>
     </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2802,8 +2979,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2837,8 +3017,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2872,43 +3055,49 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1221200</v>
+      </c>
+      <c r="E76" s="3">
         <v>1225800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1264000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>335800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>329000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>320400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>312900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>294100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>278500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>260700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>262400</v>
       </c>
     </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2942,83 +3131,92 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44009</v>
+      </c>
+      <c r="E80" s="2">
         <v>43918</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43736</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43645</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43554</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43463</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43372</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43099</v>
       </c>
     </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>7400</v>
+      </c>
+      <c r="E81" s="3">
         <v>-4400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-9200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>4200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>3900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>3000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>12000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>11600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>17700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>16400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>10800</v>
       </c>
     </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3032,8 +3230,9 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3041,34 +3240,37 @@
         <v>16800</v>
       </c>
       <c r="E83" s="3">
+        <v>16800</v>
+      </c>
+      <c r="F83" s="3">
         <v>8700</v>
-      </c>
-      <c r="F83" s="3">
-        <v>2700</v>
       </c>
       <c r="G83" s="3">
         <v>2700</v>
       </c>
       <c r="H83" s="3">
+        <v>2700</v>
+      </c>
+      <c r="I83" s="3">
         <v>2400</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>1900</v>
-      </c>
-      <c r="J83" s="3">
-        <v>1600</v>
       </c>
       <c r="K83" s="3">
         <v>1600</v>
       </c>
       <c r="L83" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="M83" s="3">
         <v>1700</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3102,8 +3304,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3137,8 +3342,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3172,8 +3380,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3207,8 +3418,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3242,43 +3456,49 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>38000</v>
+      </c>
+      <c r="E89" s="3">
         <v>8900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>19300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>1200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-1400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>19900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>24400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>26300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>32700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3292,43 +3512,47 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>3100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-4200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-4100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-4500</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-1200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-2900</v>
       </c>
     </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3362,8 +3586,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3397,43 +3624,49 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>9900</v>
+      </c>
+      <c r="E94" s="3">
         <v>-2600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>65000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-43700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-1200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-16000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-4700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-15300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-5800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>21600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>11100</v>
       </c>
     </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3447,8 +3680,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3482,8 +3716,11 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3517,8 +3754,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3552,8 +3792,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3587,109 +3830,121 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-20500</v>
+      </c>
+      <c r="E100" s="3">
         <v>-35000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-6200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>1500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-22900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-25400</v>
       </c>
     </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>700</v>
+      </c>
+      <c r="E101" s="3">
         <v>-600</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>200</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-300</v>
       </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
       <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
         <v>300</v>
-      </c>
-      <c r="I101" s="3">
-        <v>100</v>
       </c>
       <c r="J101" s="3">
         <v>100</v>
       </c>
       <c r="K101" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
         <v>-400</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>28100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-29400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>78200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-43000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-1200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-15700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>14800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>9900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>20300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>31000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-9100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ONTO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ONTO_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,181 +665,194 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44100</v>
+      </c>
+      <c r="E7" s="2">
         <v>44009</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43918</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43736</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43645</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43554</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43463</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43372</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43099</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>126500</v>
+      </c>
+      <c r="E8" s="3">
         <v>134900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>139900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>98100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>73100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>67600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>67100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>77000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>76600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>88600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>82300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>78200</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>57600</v>
+      </c>
+      <c r="E9" s="3">
         <v>63400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>77300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>70700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>34400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>32400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>33300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>35000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>33000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>37700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>34800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>34200</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>68900</v>
+      </c>
+      <c r="E10" s="3">
         <v>71500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>62600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>27400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>38700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>35200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>33800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>42000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>43600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>50900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>47500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>44000</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -854,46 +867,50 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>22200</v>
+        <v>9800</v>
       </c>
       <c r="E12" s="3">
-        <v>20900</v>
+        <v>10300</v>
       </c>
       <c r="F12" s="3">
+        <v>9700</v>
+      </c>
+      <c r="G12" s="3">
         <v>7500</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>13800</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>14100</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>13000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>12800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>12700</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>12500</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>10200</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>10100</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -930,37 +947,40 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>10</v>
+      <c r="D14" s="3">
+        <v>24300</v>
+      </c>
+      <c r="E14" s="3">
+        <v>27200</v>
       </c>
       <c r="F14" s="3">
+        <v>29800</v>
+      </c>
+      <c r="G14" s="3">
         <v>-3300</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>2400</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>900</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3" t="s">
+      <c r="K14" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>10</v>
@@ -968,22 +988,25 @@
       <c r="N14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>13700</v>
+        <v>13600</v>
       </c>
       <c r="E15" s="3">
         <v>13700</v>
       </c>
       <c r="F15" s="3">
+        <v>13700</v>
+      </c>
+      <c r="G15" s="3">
         <v>9600</v>
-      </c>
-      <c r="G15" s="3">
-        <v>300</v>
       </c>
       <c r="H15" s="3">
         <v>300</v>
@@ -992,22 +1015,25 @@
         <v>300</v>
       </c>
       <c r="J15" s="3">
+        <v>300</v>
+      </c>
+      <c r="K15" s="3">
         <v>100</v>
       </c>
-      <c r="K15" s="3">
-        <v>0</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>10</v>
+      <c r="L15" s="3">
+        <v>0</v>
       </c>
       <c r="M15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N15" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1019,84 +1045,91 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>117200</v>
+      </c>
+      <c r="E17" s="3">
         <v>127000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>145200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>116100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>67200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>63900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>63800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>66100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>62300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>67800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>61700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>59000</v>
       </c>
     </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>9300</v>
+      </c>
+      <c r="E18" s="3">
         <v>7900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-5300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-18000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>5900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>3700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>3300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>10900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>14300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>20800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>20600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>19200</v>
       </c>
     </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1111,84 +1144,91 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E20" s="3">
         <v>-500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>1300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>3200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>800</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>26200</v>
+      </c>
+      <c r="E21" s="3">
         <v>24300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>12800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-6100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>8800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>7200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>6000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>13600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>16200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>22200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>22600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>21100</v>
       </c>
     </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1201,14 +1241,14 @@
       <c r="F22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G22" s="3">
-        <v>0</v>
+      <c r="G22" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="H22" s="3">
         <v>0</v>
       </c>
       <c r="I22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J22" s="3">
         <v>100</v>
@@ -1217,92 +1257,101 @@
         <v>100</v>
       </c>
       <c r="L22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
         <v>100</v>
       </c>
-      <c r="N22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>8900</v>
+      </c>
+      <c r="E23" s="3">
         <v>7400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-4000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-14800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>6200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>4600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>3500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>11600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>14500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>20600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>20800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>19400</v>
       </c>
     </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
         <v>400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-5600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>1900</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>600</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-400</v>
-      </c>
-      <c r="K24" s="3">
-        <v>2900</v>
       </c>
       <c r="L24" s="3">
         <v>2900</v>
       </c>
       <c r="M24" s="3">
+        <v>2900</v>
+      </c>
+      <c r="N24" s="3">
         <v>4400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>5700</v>
       </c>
     </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1339,84 +1388,93 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>8100</v>
+      </c>
+      <c r="E26" s="3">
         <v>7400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-4400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-9200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>4200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>3900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>3000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>12000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>11600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>17700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>16400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>13700</v>
       </c>
     </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>8100</v>
+      </c>
+      <c r="E27" s="3">
         <v>7400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-4400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-9200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>4200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>3900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>3000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>12000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>11600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>17700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>16400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>13700</v>
       </c>
     </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1453,8 +1511,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1488,11 +1549,14 @@
       <c r="M29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N29" s="3">
+      <c r="N29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O29" s="3">
         <v>-2900</v>
       </c>
     </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1529,8 +1593,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1567,84 +1634,93 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>400</v>
+      </c>
+      <c r="E32" s="3">
         <v>500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-1300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-3200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-800</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>8100</v>
+      </c>
+      <c r="E33" s="3">
         <v>7400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-4400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-9200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>4200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>3900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>3000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>12000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>11600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>17700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>16400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>10800</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1681,89 +1757,98 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>8100</v>
+      </c>
+      <c r="E35" s="3">
         <v>7400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-4400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-9200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>4200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>3900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>3000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>12000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>11600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>17700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>16400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>10800</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44100</v>
+      </c>
+      <c r="E38" s="2">
         <v>44009</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43918</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43736</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43645</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43554</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43463</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43372</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43099</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1778,8 +1863,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1794,236 +1880,255 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>101600</v>
+      </c>
+      <c r="E41" s="3">
         <v>129400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>101300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>130700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>51000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>94000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>95200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>111000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>96100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>86200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>65900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>34900</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>238800</v>
+      </c>
+      <c r="E42" s="3">
         <v>182700</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>190600</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>189600</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>93100</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>50900</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>52900</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>40800</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>76800</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>62500</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>58000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>82100</v>
       </c>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>131400</v>
+      </c>
+      <c r="E43" s="3">
         <v>137500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>149200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>123700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>57000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>51600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>45300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>50900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>50300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>54600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>59000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>62500</v>
       </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>185000</v>
+      </c>
+      <c r="E44" s="3">
         <v>171800</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>160500</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>176100</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>69800</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>67600</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>63800</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>62100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>60700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>56100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>54600</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>54400</v>
       </c>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>19900</v>
+      </c>
+      <c r="E45" s="3">
         <v>23500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>26800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>21600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>7400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>8000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>7200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>6100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>7100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>9900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>6900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>6200</v>
       </c>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>676700</v>
+      </c>
+      <c r="E46" s="3">
         <v>644900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>628500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>641700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>278300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>272200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>264400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>270900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>291100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>269300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>244400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>240100</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2060,84 +2165,93 @@
       <c r="N47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>112800</v>
+      </c>
+      <c r="E48" s="3">
         <v>116800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>119400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>122000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>62400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>63500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>62100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>47900</v>
-      </c>
-      <c r="K48" s="3">
-        <v>43100</v>
       </c>
       <c r="L48" s="3">
         <v>43100</v>
       </c>
       <c r="M48" s="3">
+        <v>43100</v>
+      </c>
+      <c r="N48" s="3">
         <v>43800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>44800</v>
       </c>
     </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>638500</v>
+      </c>
+      <c r="E49" s="3">
         <v>652200</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>665800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>679100</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>51400</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>52100</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>52900</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>53700</v>
-      </c>
-      <c r="K49" s="3">
-        <v>14700</v>
       </c>
       <c r="L49" s="3">
         <v>14700</v>
       </c>
       <c r="M49" s="3">
+        <v>14700</v>
+      </c>
+      <c r="N49" s="3">
         <v>13800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>12400</v>
       </c>
     </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2174,8 +2288,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2212,46 +2329,52 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E52" s="3">
         <v>2800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>2700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>5800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>4100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>3300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>2900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>3200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>7500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>7700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>10000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>12300</v>
       </c>
     </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2288,46 +2411,52 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1430700</v>
+      </c>
+      <c r="E54" s="3">
         <v>1416800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1416400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1448600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>396200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>391100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>382300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>375600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>356500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>334800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>312000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>309700</v>
       </c>
     </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2342,8 +2471,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2358,46 +2488,50 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>37500</v>
+      </c>
+      <c r="E57" s="3">
         <v>34300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>32200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>27700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>17500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>19500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>18900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>16500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>20900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>19000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>18500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>13900</v>
       </c>
     </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2434,84 +2568,93 @@
       <c r="N58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>59700</v>
+      </c>
+      <c r="E59" s="3">
         <v>64400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>62100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>58000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>32300</v>
-      </c>
-      <c r="H59" s="3">
-        <v>31500</v>
       </c>
       <c r="I59" s="3">
         <v>31500</v>
       </c>
       <c r="J59" s="3">
+        <v>31500</v>
+      </c>
+      <c r="K59" s="3">
         <v>43200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>38200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>34100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>29400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>30200</v>
       </c>
     </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>97200</v>
+      </c>
+      <c r="E60" s="3">
         <v>98700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>94300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>85700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>49800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>51000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>50400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>59800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>59100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>53000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>47900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>44100</v>
       </c>
     </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2548,46 +2691,52 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>95800</v>
+      </c>
+      <c r="E62" s="3">
         <v>96800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>96300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>98800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>10600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>11200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>11500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>3000</v>
-      </c>
-      <c r="K62" s="3">
-        <v>3300</v>
       </c>
       <c r="L62" s="3">
         <v>3300</v>
       </c>
       <c r="M62" s="3">
+        <v>3300</v>
+      </c>
+      <c r="N62" s="3">
         <v>3400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2624,8 +2773,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2662,8 +2814,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2700,46 +2855,52 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>193000</v>
+      </c>
+      <c r="E66" s="3">
         <v>195600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>190600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>184600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>60500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>62100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>61900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>62800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>62400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>56300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>51300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>47300</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2754,8 +2915,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2792,8 +2954,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2830,8 +2995,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2868,8 +3036,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2906,46 +3077,52 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-1800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-9300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-4900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>78500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>74300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>70400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>67400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>55400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>43800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>26100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>9100</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2982,8 +3159,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3020,8 +3200,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3058,46 +3241,52 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1237700</v>
+      </c>
+      <c r="E76" s="3">
         <v>1221200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1225800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1264000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>335800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>329000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>320400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>312900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>294100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>278500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>260700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>262400</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3134,89 +3323,98 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44100</v>
+      </c>
+      <c r="E80" s="2">
         <v>44009</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43918</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43736</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43645</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43554</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43463</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43372</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43099</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>8100</v>
+      </c>
+      <c r="E81" s="3">
         <v>7400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-4400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-9200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>4200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>3900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>3000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>12000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>11600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>17700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>16400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>10800</v>
       </c>
     </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3231,46 +3429,50 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>16800</v>
+        <v>17200</v>
       </c>
       <c r="E83" s="3">
         <v>16800</v>
       </c>
       <c r="F83" s="3">
+        <v>16800</v>
+      </c>
+      <c r="G83" s="3">
         <v>8700</v>
-      </c>
-      <c r="G83" s="3">
-        <v>2700</v>
       </c>
       <c r="H83" s="3">
         <v>2700</v>
       </c>
       <c r="I83" s="3">
+        <v>2700</v>
+      </c>
+      <c r="J83" s="3">
         <v>2400</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>1900</v>
-      </c>
-      <c r="K83" s="3">
-        <v>1600</v>
       </c>
       <c r="L83" s="3">
         <v>1600</v>
       </c>
       <c r="M83" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="N83" s="3">
         <v>1700</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3307,8 +3509,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3345,8 +3550,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3383,8 +3591,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3421,8 +3632,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3459,46 +3673,52 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>26000</v>
+      </c>
+      <c r="E89" s="3">
         <v>38000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>8900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>19300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>1200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-1400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>19900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>24400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>26300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>32700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3513,46 +3733,50 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>3100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-4200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-4100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-4500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-2900</v>
       </c>
     </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3589,8 +3813,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3627,46 +3854,52 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-57100</v>
+      </c>
+      <c r="E94" s="3">
         <v>9900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-2600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>65000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-43700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-1200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-16000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-4700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-15300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-5800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>21600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>11100</v>
       </c>
     </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3681,8 +3914,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3719,8 +3953,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3757,8 +3994,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3795,8 +4035,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3833,118 +4076,130 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E100" s="3">
         <v>-20500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-35000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-6200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>1500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-22900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-25400</v>
       </c>
     </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>900</v>
+      </c>
+      <c r="E101" s="3">
         <v>700</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-600</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>200</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-300</v>
       </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
       <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
         <v>300</v>
-      </c>
-      <c r="J101" s="3">
-        <v>100</v>
       </c>
       <c r="K101" s="3">
         <v>100</v>
       </c>
       <c r="L101" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
         <v>-400</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-27800</v>
+      </c>
+      <c r="E102" s="3">
         <v>28100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-29400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>78200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-43000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-1200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-15700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>14800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>9900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>20300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>31000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-9100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ONTO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ONTO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
   <si>
     <t>ONTO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,194 +665,206 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44191</v>
+      </c>
+      <c r="E7" s="2">
         <v>44100</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44009</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43918</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43736</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43645</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43554</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43463</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43372</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43099</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>155100</v>
+      </c>
+      <c r="E8" s="3">
         <v>126500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>134900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>139900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>98100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>73100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>67600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>67100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>77000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>76600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>88600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>82300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>78200</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>79800</v>
+      </c>
+      <c r="E9" s="3">
         <v>57600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>63400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>77300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>70700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>34400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>32400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>33300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>35000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>33000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>37700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>34800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>34200</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>75300</v>
+      </c>
+      <c r="E10" s="3">
         <v>68900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>71500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>62600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>27400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>38700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>35200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>33800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>42000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>43600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>50900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>47500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>44000</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -868,49 +880,53 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>21800</v>
+      </c>
+      <c r="E12" s="3">
         <v>9800</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>10300</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>9700</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>7500</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>13800</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>14100</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>13000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>12800</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>12700</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>12500</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>10200</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>10100</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -950,40 +966,43 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="3">
         <v>24300</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>27200</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>29800</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>-3300</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>2400</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>900</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3" t="s">
+      <c r="L14" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>10</v>
@@ -991,25 +1010,28 @@
       <c r="O14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>12700</v>
+      </c>
+      <c r="E15" s="3">
         <v>13600</v>
-      </c>
-      <c r="E15" s="3">
-        <v>13700</v>
       </c>
       <c r="F15" s="3">
         <v>13700</v>
       </c>
       <c r="G15" s="3">
+        <v>13700</v>
+      </c>
+      <c r="H15" s="3">
         <v>9600</v>
-      </c>
-      <c r="H15" s="3">
-        <v>300</v>
       </c>
       <c r="I15" s="3">
         <v>300</v>
@@ -1018,22 +1040,25 @@
         <v>300</v>
       </c>
       <c r="K15" s="3">
+        <v>300</v>
+      </c>
+      <c r="L15" s="3">
         <v>100</v>
       </c>
-      <c r="L15" s="3">
-        <v>0</v>
-      </c>
-      <c r="M15" s="3" t="s">
-        <v>10</v>
+      <c r="M15" s="3">
+        <v>0</v>
       </c>
       <c r="N15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O15" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1046,90 +1071,97 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>140400</v>
+      </c>
+      <c r="E17" s="3">
         <v>117200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>127000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>145200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>116100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>67200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>63900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>63800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>66100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>62300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>67800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>61700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>59000</v>
       </c>
     </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>14700</v>
+      </c>
+      <c r="E18" s="3">
         <v>9300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>7900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-5300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-18000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>5900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>3700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>3300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>10900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>14300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>20800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>20600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>19200</v>
       </c>
     </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1145,90 +1177,97 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E20" s="3">
         <v>-400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>3200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>31200</v>
+      </c>
+      <c r="E21" s="3">
         <v>26200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>24300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>12800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-6100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>8800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>7200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>6000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>13600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>16200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>22200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>22600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>21100</v>
       </c>
     </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1244,14 +1283,14 @@
       <c r="G22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H22" s="3">
-        <v>0</v>
+      <c r="H22" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="I22" s="3">
         <v>0</v>
       </c>
       <c r="J22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K22" s="3">
         <v>100</v>
@@ -1260,98 +1299,107 @@
         <v>100</v>
       </c>
       <c r="M22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3">
         <v>100</v>
       </c>
-      <c r="O22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>14500</v>
+      </c>
+      <c r="E23" s="3">
         <v>8900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>7400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-4000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-14800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>6200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>4600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>3500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>11600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>14500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>20600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>20800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>19400</v>
       </c>
     </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="E24" s="3">
         <v>800</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
       <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
         <v>400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-5600</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>1900</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-400</v>
-      </c>
-      <c r="L24" s="3">
-        <v>2900</v>
       </c>
       <c r="M24" s="3">
         <v>2900</v>
       </c>
       <c r="N24" s="3">
+        <v>2900</v>
+      </c>
+      <c r="O24" s="3">
         <v>4400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>5700</v>
       </c>
     </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1391,90 +1439,99 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>19900</v>
+      </c>
+      <c r="E26" s="3">
         <v>8100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>7400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-4400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-9200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>4200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>3900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>3000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>12000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>11600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>17700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>16400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>13700</v>
       </c>
     </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>19900</v>
+      </c>
+      <c r="E27" s="3">
         <v>8100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>7400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-4400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-9200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>4200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>3900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>3000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>12000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>11600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>17700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>16400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>13700</v>
       </c>
     </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1514,8 +1571,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1552,11 +1612,14 @@
       <c r="N29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O29" s="3">
+      <c r="O29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P29" s="3">
         <v>-2900</v>
       </c>
     </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1596,8 +1659,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1637,90 +1703,99 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>200</v>
+      </c>
+      <c r="E32" s="3">
         <v>400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-3200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>19900</v>
+      </c>
+      <c r="E33" s="3">
         <v>8100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>7400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-4400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-9200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>4200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>3900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>3000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>12000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>11600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>17700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>16400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>10800</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1760,95 +1835,104 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>19900</v>
+      </c>
+      <c r="E35" s="3">
         <v>8100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>7400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-4400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-9200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>4200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>3900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>3000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>12000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>11600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>17700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>16400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>10800</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44191</v>
+      </c>
+      <c r="E38" s="2">
         <v>44100</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44009</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43918</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43736</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43645</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43554</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43463</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43372</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43099</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1864,8 +1948,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1881,254 +1966,273 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>136700</v>
+      </c>
+      <c r="E41" s="3">
         <v>101600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>129400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>101300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>130700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>51000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>94000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>95200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>111000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>96100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>86200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>65900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>34900</v>
       </c>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>237000</v>
+      </c>
+      <c r="E42" s="3">
         <v>238800</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>182700</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>190600</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>189600</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>93100</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>50900</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>52900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>40800</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>76800</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>62500</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>58000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>82100</v>
       </c>
     </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>149300</v>
+      </c>
+      <c r="E43" s="3">
         <v>131400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>137500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>149200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>123700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>57000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>51600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>45300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>50900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>50300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>54600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>59000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>62500</v>
       </c>
     </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>191200</v>
+      </c>
+      <c r="E44" s="3">
         <v>185000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>171800</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>160500</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>176100</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>69800</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>67600</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>63800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>62100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>60700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>56100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>54600</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>54400</v>
       </c>
     </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>17500</v>
+      </c>
+      <c r="E45" s="3">
         <v>19900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>23500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>26800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>21600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>7400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>8000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>7200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>6100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>7100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>9900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>6900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>6200</v>
       </c>
     </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>731700</v>
+      </c>
+      <c r="E46" s="3">
         <v>676700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>644900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>628500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>641700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>278300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>272200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>264400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>270900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>291100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>269300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>244400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>240100</v>
       </c>
     </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2168,90 +2272,99 @@
       <c r="O47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>107600</v>
+      </c>
+      <c r="E48" s="3">
         <v>112800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>116800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>119400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>122000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>62400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>63500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>62100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>47900</v>
-      </c>
-      <c r="L48" s="3">
-        <v>43100</v>
       </c>
       <c r="M48" s="3">
         <v>43100</v>
       </c>
       <c r="N48" s="3">
+        <v>43100</v>
+      </c>
+      <c r="O48" s="3">
         <v>43800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>44800</v>
       </c>
     </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>625000</v>
+      </c>
+      <c r="E49" s="3">
         <v>638500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>652200</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>665800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>679100</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>51400</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>52100</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>52900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>53700</v>
-      </c>
-      <c r="L49" s="3">
-        <v>14700</v>
       </c>
       <c r="M49" s="3">
         <v>14700</v>
       </c>
       <c r="N49" s="3">
+        <v>14700</v>
+      </c>
+      <c r="O49" s="3">
         <v>13800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>12400</v>
       </c>
     </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2291,8 +2404,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2332,49 +2448,55 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E52" s="3">
         <v>2700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>2800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>2700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>5800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>4100</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>3300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>2900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>3200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>7500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>7700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>10000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>12300</v>
       </c>
     </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2414,49 +2536,55 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1468200</v>
+      </c>
+      <c r="E54" s="3">
         <v>1430700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1416800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1416400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1448600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>396200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>391100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>382300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>375600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>356500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>334800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>312000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>309700</v>
       </c>
     </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2472,8 +2600,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2489,49 +2618,53 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>40200</v>
+      </c>
+      <c r="E57" s="3">
         <v>37500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>34300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>32200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>27700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>17500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>19500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>18900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>16500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>20900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>19000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>18500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>13900</v>
       </c>
     </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2571,90 +2704,99 @@
       <c r="O58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>79900</v>
+      </c>
+      <c r="E59" s="3">
         <v>59700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>64400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>62100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>58000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>32300</v>
-      </c>
-      <c r="I59" s="3">
-        <v>31500</v>
       </c>
       <c r="J59" s="3">
         <v>31500</v>
       </c>
       <c r="K59" s="3">
+        <v>31500</v>
+      </c>
+      <c r="L59" s="3">
         <v>43200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>38200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>34100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>29400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>30200</v>
       </c>
     </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>120100</v>
+      </c>
+      <c r="E60" s="3">
         <v>97200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>98700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>94300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>85700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>49800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>51000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>50400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>59800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>59100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>53000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>47900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>44100</v>
       </c>
     </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2694,49 +2836,55 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>83300</v>
+      </c>
+      <c r="E62" s="3">
         <v>95800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>96800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>96300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>98800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>10600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>11200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>11500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>3000</v>
-      </c>
-      <c r="L62" s="3">
-        <v>3300</v>
       </c>
       <c r="M62" s="3">
         <v>3300</v>
       </c>
       <c r="N62" s="3">
+        <v>3300</v>
+      </c>
+      <c r="O62" s="3">
         <v>3400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2776,8 +2924,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2817,8 +2968,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2858,49 +3012,55 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>203400</v>
+      </c>
+      <c r="E66" s="3">
         <v>193000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>195600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>190600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>184600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>60500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>62100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>61900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>62800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>62400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>56300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>51300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>47300</v>
       </c>
     </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2916,8 +3076,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2957,8 +3118,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2998,8 +3162,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3039,8 +3206,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3080,49 +3250,55 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>26200</v>
+      </c>
+      <c r="E72" s="3">
         <v>6200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-1800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-9300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-4900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>78500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>74300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>70400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>67400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>55400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>43800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>26100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>9100</v>
       </c>
     </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3162,8 +3338,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3203,8 +3382,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3244,49 +3426,55 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1264700</v>
+      </c>
+      <c r="E76" s="3">
         <v>1237700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1221200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1225800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1264000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>335800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>329000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>320400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>312900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>294100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>278500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>260700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>262400</v>
       </c>
     </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3326,95 +3514,104 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44191</v>
+      </c>
+      <c r="E80" s="2">
         <v>44100</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44009</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43918</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43736</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43645</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43554</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43463</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43372</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43099</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>19900</v>
+      </c>
+      <c r="E81" s="3">
         <v>8100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>7400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-4400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-9200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>4200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>3900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>3000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>12000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>11600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>17700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>16400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>10800</v>
       </c>
     </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3430,49 +3627,53 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>16700</v>
+      </c>
+      <c r="E83" s="3">
         <v>17200</v>
-      </c>
-      <c r="E83" s="3">
-        <v>16800</v>
       </c>
       <c r="F83" s="3">
         <v>16800</v>
       </c>
       <c r="G83" s="3">
+        <v>16800</v>
+      </c>
+      <c r="H83" s="3">
         <v>8700</v>
-      </c>
-      <c r="H83" s="3">
-        <v>2700</v>
       </c>
       <c r="I83" s="3">
         <v>2700</v>
       </c>
       <c r="J83" s="3">
+        <v>2700</v>
+      </c>
+      <c r="K83" s="3">
         <v>2400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1900</v>
-      </c>
-      <c r="L83" s="3">
-        <v>1600</v>
       </c>
       <c r="M83" s="3">
         <v>1600</v>
       </c>
       <c r="N83" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="O83" s="3">
         <v>1700</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3512,8 +3713,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3553,8 +3757,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3594,8 +3801,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3635,8 +3845,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3676,49 +3889,55 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>33100</v>
+      </c>
+      <c r="E89" s="3">
         <v>26000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>38000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>8900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>19300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>1200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-1400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>19900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>24400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>26300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>32700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3734,49 +3953,53 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-800</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>3100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1600</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-4200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-4100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-4500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-1300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-2900</v>
       </c>
     </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3816,8 +4039,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3857,49 +4083,55 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-57100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>9900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-2600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>65000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-43700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-1200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-16000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-4700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-15300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-5800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>21600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>11100</v>
       </c>
     </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3915,8 +4147,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3956,8 +4189,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3997,8 +4233,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4038,8 +4277,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4079,127 +4321,139 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E100" s="3">
         <v>2400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-20500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-35000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-6200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>1500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-22900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-25400</v>
       </c>
     </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E101" s="3">
         <v>900</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>700</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-600</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>200</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-300</v>
       </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
       <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3">
         <v>300</v>
-      </c>
-      <c r="K101" s="3">
-        <v>100</v>
       </c>
       <c r="L101" s="3">
         <v>100</v>
       </c>
       <c r="M101" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3">
         <v>-400</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>35100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-27800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>28100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-29400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>78200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-43000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-1200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-15700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>14800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>9900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>20300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>31000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-9100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ONTO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ONTO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="92">
   <si>
     <t>ONTO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,206 +665,219 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44282</v>
+      </c>
+      <c r="E7" s="2">
         <v>44191</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44100</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44009</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43918</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43736</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43645</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43554</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43463</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43372</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43099</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>169300</v>
+      </c>
+      <c r="E8" s="3">
         <v>155100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>126500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>134900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>139900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>98100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>73100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>67600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>67100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>77000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>76600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>88600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>82300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>78200</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>78800</v>
+      </c>
+      <c r="E9" s="3">
         <v>79800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>57600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>63400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>77300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>70700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>34400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>32400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>33300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>35000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>33000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>37700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>34800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>34200</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>90500</v>
+      </c>
+      <c r="E10" s="3">
         <v>75300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>68900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>71500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>62600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>27400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>38700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>35200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>33800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>42000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>43600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>50900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>47500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>44000</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -881,52 +894,56 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>22000</v>
+      </c>
+      <c r="E12" s="3">
         <v>21800</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>9800</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>10300</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>9700</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>7500</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>13800</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>14100</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>13000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>12800</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>12700</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>12500</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>10200</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>10100</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -969,43 +986,46 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="3">
         <v>24300</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>27200</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>29800</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>-3300</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>2400</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>900</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3" t="s">
+      <c r="M14" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>10</v>
@@ -1013,28 +1033,31 @@
       <c r="P14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>12400</v>
+      </c>
+      <c r="E15" s="3">
         <v>12700</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>13600</v>
-      </c>
-      <c r="F15" s="3">
-        <v>13700</v>
       </c>
       <c r="G15" s="3">
         <v>13700</v>
       </c>
       <c r="H15" s="3">
+        <v>13700</v>
+      </c>
+      <c r="I15" s="3">
         <v>9600</v>
-      </c>
-      <c r="I15" s="3">
-        <v>300</v>
       </c>
       <c r="J15" s="3">
         <v>300</v>
@@ -1043,22 +1066,25 @@
         <v>300</v>
       </c>
       <c r="L15" s="3">
+        <v>300</v>
+      </c>
+      <c r="M15" s="3">
         <v>100</v>
       </c>
-      <c r="M15" s="3">
-        <v>0</v>
-      </c>
-      <c r="N15" s="3" t="s">
-        <v>10</v>
+      <c r="N15" s="3">
+        <v>0</v>
       </c>
       <c r="O15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P15" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1098,103 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>141800</v>
+      </c>
+      <c r="E17" s="3">
         <v>140400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>117200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>127000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>145200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>116100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>67200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>63900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>63800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>66100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>62300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>67800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>61700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>59000</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>27500</v>
+      </c>
+      <c r="E18" s="3">
         <v>14700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>9300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>7900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-5300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-18000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>5900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>3700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>3300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>10900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>14300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>20800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>20600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>19200</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,96 +1211,103 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E20" s="3">
         <v>-200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>1300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>3200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>42600</v>
+      </c>
+      <c r="E21" s="3">
         <v>31200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>26200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>24300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>12800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-6100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>8800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>7200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>6000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>13600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>16200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>22200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>22600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>21100</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1286,14 +1326,14 @@
       <c r="H22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I22" s="3">
-        <v>0</v>
+      <c r="I22" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="J22" s="3">
         <v>0</v>
       </c>
       <c r="K22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L22" s="3">
         <v>100</v>
@@ -1302,104 +1342,113 @@
         <v>100</v>
       </c>
       <c r="N22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3">
         <v>100</v>
       </c>
-      <c r="P22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>26600</v>
+      </c>
+      <c r="E23" s="3">
         <v>14500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>8900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>7400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-4000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-14800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>6200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>4600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>3500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>11600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>14500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>20600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>20800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>19400</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E24" s="3">
         <v>-5400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>800</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
       <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
         <v>400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-5600</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-400</v>
-      </c>
-      <c r="M24" s="3">
-        <v>2900</v>
       </c>
       <c r="N24" s="3">
         <v>2900</v>
       </c>
       <c r="O24" s="3">
+        <v>2900</v>
+      </c>
+      <c r="P24" s="3">
         <v>4400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>5700</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1491,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>24100</v>
+      </c>
+      <c r="E26" s="3">
         <v>19900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>8100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>7400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-4400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-9200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>4200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>3900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>3000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>12000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>11600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>17700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>16400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>13700</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>24100</v>
+      </c>
+      <c r="E27" s="3">
         <v>19900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>8100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>7400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-4400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-9200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>4200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>3900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>3000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>12000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>11600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>17700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>16400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>13700</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,31 +1632,34 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>10</v>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>10</v>
@@ -1615,11 +1676,14 @@
       <c r="O29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P29" s="3">
+      <c r="P29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q29" s="3">
         <v>-2900</v>
       </c>
     </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1726,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,96 +1773,105 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>900</v>
+      </c>
+      <c r="E32" s="3">
         <v>200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-1300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-3200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>24100</v>
+      </c>
+      <c r="E33" s="3">
         <v>19900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>8100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>7400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-4400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-9200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>4200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>3900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>3000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>12000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>11600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>17700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>16400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>10800</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1914,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>24100</v>
+      </c>
+      <c r="E35" s="3">
         <v>19900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>8100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>7400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-4400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-9200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>4200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>3900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>3000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>12000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>11600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>17700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>16400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>10800</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44282</v>
+      </c>
+      <c r="E38" s="2">
         <v>44191</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44100</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44009</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43918</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43736</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43645</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43554</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43463</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43372</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43099</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2034,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,272 +2053,291 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>126500</v>
+      </c>
+      <c r="E41" s="3">
         <v>136700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>101600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>129400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>101300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>130700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>51000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>94000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>95200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>111000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>96100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>86200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>65900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>34900</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>266500</v>
+      </c>
+      <c r="E42" s="3">
         <v>237000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>238800</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>182700</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>190600</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>189600</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>93100</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>50900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>52900</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>40800</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>76800</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>62500</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>58000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>82100</v>
       </c>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>141900</v>
+      </c>
+      <c r="E43" s="3">
         <v>149300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>131400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>137500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>149200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>123700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>57000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>51600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>45300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>50900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>50300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>54600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>59000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>62500</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>200900</v>
+      </c>
+      <c r="E44" s="3">
         <v>191200</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>185000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>171800</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>160500</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>176100</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>69800</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>67600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>63800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>62100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>60700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>56100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>54600</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>54400</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>19200</v>
+      </c>
+      <c r="E45" s="3">
         <v>17500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>19900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>23500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>26800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>21600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>7400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>8000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>7200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>6100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>7100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>9900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>6900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>6200</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>754800</v>
+      </c>
+      <c r="E46" s="3">
         <v>731700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>676700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>644900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>628500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>641700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>278300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>272200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>264400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>270900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>291100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>269300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>244400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>240100</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2275,96 +2380,105 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>109600</v>
+      </c>
+      <c r="E48" s="3">
         <v>107600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>112800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>116800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>119400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>122000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>62400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>63500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>62100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>47900</v>
-      </c>
-      <c r="M48" s="3">
-        <v>43100</v>
       </c>
       <c r="N48" s="3">
         <v>43100</v>
       </c>
       <c r="O48" s="3">
+        <v>43100</v>
+      </c>
+      <c r="P48" s="3">
         <v>43800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>44800</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>632100</v>
+      </c>
+      <c r="E49" s="3">
         <v>625000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>638500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>652200</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>665800</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>679100</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>51400</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>52100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>52900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>53700</v>
-      </c>
-      <c r="M49" s="3">
-        <v>14700</v>
       </c>
       <c r="N49" s="3">
         <v>14700</v>
       </c>
       <c r="O49" s="3">
+        <v>14700</v>
+      </c>
+      <c r="P49" s="3">
         <v>13800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>12400</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2521,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,52 +2568,58 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>7200</v>
+      </c>
+      <c r="E52" s="3">
         <v>3900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>2700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>2800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>2700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>5800</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>4100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>3300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>2900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>3200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>7500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>7700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>10000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>12300</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2662,58 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1503700</v>
+      </c>
+      <c r="E54" s="3">
         <v>1468200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1430700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1416800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1416400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1448600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>396200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>391100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>382300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>375600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>356500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>334800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>312000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>309700</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2730,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,52 +2749,56 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>45600</v>
+      </c>
+      <c r="E57" s="3">
         <v>40200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>37500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>34300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>32200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>27700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>17500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>19500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>18900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>16500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>20900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>19000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>18500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>13900</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2707,96 +2841,105 @@
       <c r="P58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>80800</v>
+      </c>
+      <c r="E59" s="3">
         <v>79900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>59700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>64400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>62100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>58000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>32300</v>
-      </c>
-      <c r="J59" s="3">
-        <v>31500</v>
       </c>
       <c r="K59" s="3">
         <v>31500</v>
       </c>
       <c r="L59" s="3">
+        <v>31500</v>
+      </c>
+      <c r="M59" s="3">
         <v>43200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>38200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>34100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>29400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>30200</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>126400</v>
+      </c>
+      <c r="E60" s="3">
         <v>120100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>97200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>98700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>94300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>85700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>49800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>51000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>50400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>59800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>59100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>53000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>47900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>44100</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2839,52 +2982,58 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>85000</v>
+      </c>
+      <c r="E62" s="3">
         <v>83300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>95800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>96800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>96300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>98800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>10600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>11200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>11500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>3000</v>
-      </c>
-      <c r="M62" s="3">
-        <v>3300</v>
       </c>
       <c r="N62" s="3">
         <v>3300</v>
       </c>
       <c r="O62" s="3">
+        <v>3300</v>
+      </c>
+      <c r="P62" s="3">
         <v>3400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3076,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3123,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3170,58 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>211400</v>
+      </c>
+      <c r="E66" s="3">
         <v>203400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>193000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>195600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>190600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>184600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>60500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>62100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>61900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>62800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>62400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>56300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>51300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>47300</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3238,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3283,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3330,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3377,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3424,58 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>50300</v>
+      </c>
+      <c r="E72" s="3">
         <v>26200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>6200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-1800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-9300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-4900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>78500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>74300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>70400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>67400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>55400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>43800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>26100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>9100</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3518,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3565,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3612,58 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1292300</v>
+      </c>
+      <c r="E76" s="3">
         <v>1264700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1237700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1221200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1225800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1264000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>335800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>329000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>320400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>312900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>294100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>278500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>260700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>262400</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3706,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44282</v>
+      </c>
+      <c r="E80" s="2">
         <v>44191</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44100</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44009</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43918</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43736</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43645</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43554</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43463</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43372</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43099</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>24100</v>
+      </c>
+      <c r="E81" s="3">
         <v>19900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>8100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>7400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-4400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-9200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>4200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>3900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>3000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>12000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>11600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>17700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>16400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>10800</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,52 +3826,56 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>16000</v>
+      </c>
+      <c r="E83" s="3">
         <v>16700</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>17200</v>
-      </c>
-      <c r="F83" s="3">
-        <v>16800</v>
       </c>
       <c r="G83" s="3">
         <v>16800</v>
       </c>
       <c r="H83" s="3">
+        <v>16800</v>
+      </c>
+      <c r="I83" s="3">
         <v>8700</v>
-      </c>
-      <c r="I83" s="3">
-        <v>2700</v>
       </c>
       <c r="J83" s="3">
         <v>2700</v>
       </c>
       <c r="K83" s="3">
+        <v>2700</v>
+      </c>
+      <c r="L83" s="3">
         <v>2400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>1900</v>
-      </c>
-      <c r="M83" s="3">
-        <v>1600</v>
       </c>
       <c r="N83" s="3">
         <v>1600</v>
       </c>
       <c r="O83" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="P83" s="3">
         <v>1700</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +3918,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +3965,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4012,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4059,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4106,58 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>51000</v>
+      </c>
+      <c r="E89" s="3">
         <v>33100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>26000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>38000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>8900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>19300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-1400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>19900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>24400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>26300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>32700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,52 +4174,56 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="E91" s="3">
         <v>-400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>3100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-1600</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-4200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-4100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-4500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-1300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-2900</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4266,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,52 +4313,58 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-60300</v>
+      </c>
+      <c r="E94" s="3">
         <v>1100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-57100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>9900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-2600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>65000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-43700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-1200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-16000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-4700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-15300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-5800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>21600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>11100</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4381,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4426,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4473,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4520,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,136 +4567,148 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>600</v>
+      </c>
+      <c r="E100" s="3">
         <v>-600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>2400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-20500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-35000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-6200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>1500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-22900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-25400</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E101" s="3">
         <v>1400</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>900</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>700</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-600</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>200</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-300</v>
       </c>
-      <c r="J101" s="3">
-        <v>0</v>
-      </c>
       <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
         <v>300</v>
-      </c>
-      <c r="L101" s="3">
-        <v>100</v>
       </c>
       <c r="M101" s="3">
         <v>100</v>
       </c>
       <c r="N101" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
         <v>-400</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-10300</v>
+      </c>
+      <c r="E102" s="3">
         <v>35100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-27800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>28100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-29400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>78200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-43000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-1200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-15700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>14800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>9900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>20300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>31000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-9100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ONTO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ONTO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="92">
   <si>
     <t>ONTO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,219 +665,232 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44373</v>
+      </c>
+      <c r="E7" s="2">
         <v>44282</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44191</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44100</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44009</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43918</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43736</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43645</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43554</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43463</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43372</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43099</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>193400</v>
+      </c>
+      <c r="E8" s="3">
         <v>169300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>155100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>126500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>134900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>139900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>98100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>73100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>67600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>67100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>77000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>76600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>88600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>82300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>78200</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>87900</v>
+      </c>
+      <c r="E9" s="3">
         <v>78800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>79800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>57600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>63400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>77300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>70700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>34400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>32400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>33300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>35000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>33000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>37700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>34800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>34200</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>105500</v>
+      </c>
+      <c r="E10" s="3">
         <v>90500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>75300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>68900</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>71500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>62600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>27400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>38700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>35200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>33800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>42000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>43600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>50900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>47500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>44000</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -895,55 +908,59 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>25500</v>
+      </c>
+      <c r="E12" s="3">
         <v>22000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>21800</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>9800</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>10300</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>9700</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>7500</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>13800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>14100</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>13000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>12800</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>12700</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>12500</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>10200</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>10100</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -989,8 +1006,11 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1000,35 +1020,35 @@
       <c r="E14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="3">
         <v>24300</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>27200</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>29800</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>-3300</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>2400</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>900</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3" t="s">
+      <c r="N14" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>10</v>
@@ -1036,31 +1056,34 @@
       <c r="Q14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>12300</v>
+      </c>
+      <c r="E15" s="3">
         <v>12400</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>12700</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>13600</v>
-      </c>
-      <c r="G15" s="3">
-        <v>13700</v>
       </c>
       <c r="H15" s="3">
         <v>13700</v>
       </c>
       <c r="I15" s="3">
+        <v>13700</v>
+      </c>
+      <c r="J15" s="3">
         <v>9600</v>
-      </c>
-      <c r="J15" s="3">
-        <v>300</v>
       </c>
       <c r="K15" s="3">
         <v>300</v>
@@ -1069,22 +1092,25 @@
         <v>300</v>
       </c>
       <c r="M15" s="3">
+        <v>300</v>
+      </c>
+      <c r="N15" s="3">
         <v>100</v>
       </c>
-      <c r="N15" s="3">
-        <v>0</v>
-      </c>
-      <c r="O15" s="3" t="s">
-        <v>10</v>
+      <c r="O15" s="3">
+        <v>0</v>
       </c>
       <c r="P15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q15" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,102 +1125,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>157400</v>
+      </c>
+      <c r="E17" s="3">
         <v>141800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>140400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>117200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>127000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>145200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>116100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>67200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>63900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>63800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>66100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>62300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>67800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>61700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>59000</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>36000</v>
+      </c>
+      <c r="E18" s="3">
         <v>27500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>14700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>9300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>7900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-5300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-18000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>5900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>3700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>3300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>10900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>14300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>20800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>20600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>19200</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1212,102 +1245,109 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
         <v>-900</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>1300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>3200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>52100</v>
+      </c>
+      <c r="E21" s="3">
         <v>42600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>31200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>26200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>24300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>12800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-6100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>8800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>7200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>6000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>13600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>16200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>22200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>22600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>21100</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1329,14 +1369,14 @@
       <c r="I22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J22" s="3">
-        <v>0</v>
+      <c r="J22" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
       </c>
       <c r="L22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M22" s="3">
         <v>100</v>
@@ -1345,110 +1385,119 @@
         <v>100</v>
       </c>
       <c r="O22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3">
         <v>100</v>
       </c>
-      <c r="Q22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>36000</v>
+      </c>
+      <c r="E23" s="3">
         <v>26600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>14500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>8900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>7400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-4000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-14800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>6200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>4600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>3500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>11600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>14500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>20600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>20800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>19400</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>900</v>
+      </c>
+      <c r="E24" s="3">
         <v>2500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-5400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>800</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
       <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
         <v>400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-5600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>1900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-400</v>
-      </c>
-      <c r="N24" s="3">
-        <v>2900</v>
       </c>
       <c r="O24" s="3">
         <v>2900</v>
       </c>
       <c r="P24" s="3">
+        <v>2900</v>
+      </c>
+      <c r="Q24" s="3">
         <v>4400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>5700</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1494,102 +1543,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>35100</v>
+      </c>
+      <c r="E26" s="3">
         <v>24100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>19900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>8100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>7400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-4400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-9200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>4200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>3900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>3000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>12000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>11600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>17700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>16400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>13700</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>35100</v>
+      </c>
+      <c r="E27" s="3">
         <v>24100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>19900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>8100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>7400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-4400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-9200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>4200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>3900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>3000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>12000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>11600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>17700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>16400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>13700</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1635,8 +1693,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1661,8 +1722,8 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>10</v>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>10</v>
@@ -1679,11 +1740,14 @@
       <c r="P29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="Q29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="R29" s="3">
         <v>-2900</v>
       </c>
     </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1793,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,102 +1843,111 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
         <v>900</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-1300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-3200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>35100</v>
+      </c>
+      <c r="E33" s="3">
         <v>24100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>19900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>8100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>7400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-4400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-9200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>4200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>3900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>3000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>12000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>11600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>17700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>16400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>10800</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,107 +1993,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>35100</v>
+      </c>
+      <c r="E35" s="3">
         <v>24100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>19900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>8100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>7400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-4400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-9200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>4200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>3900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>3000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>12000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>11600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>17700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>16400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>10800</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44373</v>
+      </c>
+      <c r="E38" s="2">
         <v>44282</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44191</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44100</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44009</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43918</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43736</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43645</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43554</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43463</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43372</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43099</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2120,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,290 +2140,309 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>134200</v>
+      </c>
+      <c r="E41" s="3">
         <v>126500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>136700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>101600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>129400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>101300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>130700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>51000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>94000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>95200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>111000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>96100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>86200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>65900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>34900</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>276600</v>
+      </c>
+      <c r="E42" s="3">
         <v>266500</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>237000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>238800</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>182700</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>190600</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>189600</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>93100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>50900</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>52900</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>40800</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>76800</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>62500</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>58000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>82100</v>
       </c>
     </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>174700</v>
+      </c>
+      <c r="E43" s="3">
         <v>141900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>149300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>131400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>137500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>149200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>123700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>57000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>51600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>45300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>50900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>50300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>54600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>59000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>62500</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>207000</v>
+      </c>
+      <c r="E44" s="3">
         <v>200900</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>191200</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>185000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>171800</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>160500</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>176100</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>69800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>67600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>63800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>62100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>60700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>56100</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>54600</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>54400</v>
       </c>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>19100</v>
+      </c>
+      <c r="E45" s="3">
         <v>19200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>17500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>19900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>23500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>26800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>21600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>7400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>8000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>7200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>6100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>7100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>9900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>6900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>6200</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>811600</v>
+      </c>
+      <c r="E46" s="3">
         <v>754800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>731700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>676700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>644900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>628500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>641700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>278300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>272200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>264400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>270900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>291100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>269300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>244400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>240100</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2383,102 +2488,111 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>108500</v>
+      </c>
+      <c r="E48" s="3">
         <v>109600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>107600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>112800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>116800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>119400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>122000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>62400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>63500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>62100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>47900</v>
-      </c>
-      <c r="N48" s="3">
-        <v>43100</v>
       </c>
       <c r="O48" s="3">
         <v>43100</v>
       </c>
       <c r="P48" s="3">
+        <v>43100</v>
+      </c>
+      <c r="Q48" s="3">
         <v>43800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>44800</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>619800</v>
+      </c>
+      <c r="E49" s="3">
         <v>632100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>625000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>638500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>652200</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>665800</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>679100</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>51400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>52100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>52900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>53700</v>
-      </c>
-      <c r="N49" s="3">
-        <v>14700</v>
       </c>
       <c r="O49" s="3">
         <v>14700</v>
       </c>
       <c r="P49" s="3">
+        <v>14700</v>
+      </c>
+      <c r="Q49" s="3">
         <v>13800</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>12400</v>
       </c>
     </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2638,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,55 +2688,61 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E52" s="3">
         <v>7200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>3900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>2700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>2800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>2700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>5800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>4100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>3300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>2900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>3200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>7500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>7700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>10000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>12300</v>
       </c>
     </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,55 +2788,61 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1546500</v>
+      </c>
+      <c r="E54" s="3">
         <v>1503700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1468200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1430700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1416800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1416400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1448600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>396200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>391100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>382300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>375600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>356500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>334800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>312000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>309700</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +2860,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,55 +2880,59 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>46700</v>
+      </c>
+      <c r="E57" s="3">
         <v>45600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>40200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>37500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>34300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>32200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>27700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>17500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>19500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>18900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>16500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>20900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>19000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>18500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>13900</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2844,102 +2978,111 @@
       <c r="Q58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>86500</v>
+      </c>
+      <c r="E59" s="3">
         <v>80800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>79900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>59700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>64400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>62100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>58000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>32300</v>
-      </c>
-      <c r="K59" s="3">
-        <v>31500</v>
       </c>
       <c r="L59" s="3">
         <v>31500</v>
       </c>
       <c r="M59" s="3">
+        <v>31500</v>
+      </c>
+      <c r="N59" s="3">
         <v>43200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>38200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>34100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>29400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>30200</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>133200</v>
+      </c>
+      <c r="E60" s="3">
         <v>126400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>120100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>97200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>98700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>94300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>85700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>49800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>51000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>50400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>59800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>59100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>53000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>47900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>44100</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2985,55 +3128,61 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>83800</v>
+      </c>
+      <c r="E62" s="3">
         <v>85000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>83300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>95800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>96800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>96300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>98800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>10600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>11200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>11500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>3000</v>
-      </c>
-      <c r="N62" s="3">
-        <v>3300</v>
       </c>
       <c r="O62" s="3">
         <v>3300</v>
       </c>
       <c r="P62" s="3">
+        <v>3300</v>
+      </c>
+      <c r="Q62" s="3">
         <v>3400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3228,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3126,8 +3278,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,55 +3328,61 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>216900</v>
+      </c>
+      <c r="E66" s="3">
         <v>211400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>203400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>193000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>195600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>190600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>184600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>60500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>62100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>61900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>62800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>62400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>56300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>51300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>47300</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3400,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3448,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,8 +3498,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3380,8 +3548,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,55 +3598,61 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>85300</v>
+      </c>
+      <c r="E72" s="3">
         <v>50300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>26200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>6200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-1800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-9300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-4900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>78500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>74300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>70400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>67400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>55400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>43800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>26100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>9100</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +3698,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +3748,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,55 +3798,61 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1329600</v>
+      </c>
+      <c r="E76" s="3">
         <v>1292300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1264700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1237700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1221200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1225800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1264000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>335800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>329000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>320400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>312900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>294100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>278500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>260700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>262400</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,107 +3898,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44373</v>
+      </c>
+      <c r="E80" s="2">
         <v>44282</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44191</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44100</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44009</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43918</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43736</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43645</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43554</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43463</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43372</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43099</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>35100</v>
+      </c>
+      <c r="E81" s="3">
         <v>24100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>19900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>8100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>7400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-4400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-9200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>4200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>3900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>3000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>12000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>11600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>17700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>16400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>10800</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,55 +4025,59 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>16200</v>
+      </c>
+      <c r="E83" s="3">
         <v>16000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>16700</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>17200</v>
-      </c>
-      <c r="G83" s="3">
-        <v>16800</v>
       </c>
       <c r="H83" s="3">
         <v>16800</v>
       </c>
       <c r="I83" s="3">
+        <v>16800</v>
+      </c>
+      <c r="J83" s="3">
         <v>8700</v>
-      </c>
-      <c r="J83" s="3">
-        <v>2700</v>
       </c>
       <c r="K83" s="3">
         <v>2700</v>
       </c>
       <c r="L83" s="3">
+        <v>2700</v>
+      </c>
+      <c r="M83" s="3">
         <v>2400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>1900</v>
-      </c>
-      <c r="N83" s="3">
-        <v>1600</v>
       </c>
       <c r="O83" s="3">
         <v>1600</v>
       </c>
       <c r="P83" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="Q83" s="3">
         <v>1700</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4123,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4173,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4223,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4273,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,55 +4323,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>25400</v>
+      </c>
+      <c r="E89" s="3">
         <v>51000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>33100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>26000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>38000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>8900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>19300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-1400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>19900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>24400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>26300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>32700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,55 +4395,59 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="E91" s="3">
         <v>-3900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-800</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>3100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-1600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-4200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-4100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-4500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-1200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-2900</v>
       </c>
     </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4493,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,55 +4543,61 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-16000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-60300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>1100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-57100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>9900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-2600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>65000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-43700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-16000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-4700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-15300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-5800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>21600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>11100</v>
       </c>
     </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,8 +4615,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4429,8 +4663,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +4713,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +4763,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,145 +4813,157 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="E100" s="3">
         <v>600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>2400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-20500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-35000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-6200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-22900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-25400</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E101" s="3">
         <v>-1500</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>1400</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>900</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>700</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-600</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>200</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-300</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
       <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
         <v>300</v>
-      </c>
-      <c r="M101" s="3">
-        <v>100</v>
       </c>
       <c r="N101" s="3">
         <v>100</v>
       </c>
       <c r="O101" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
         <v>-400</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>7800</v>
+      </c>
+      <c r="E102" s="3">
         <v>-10300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>35100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-27800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>28100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-29400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>78200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-43000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-15700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>14800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>9900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>20300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>31000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-9100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ONTO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ONTO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
   <si>
     <t>ONTO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,232 +665,245 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44464</v>
+      </c>
+      <c r="E7" s="2">
         <v>44373</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44282</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44191</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44100</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44009</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43918</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43736</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43645</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43554</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43463</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43372</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43099</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>200600</v>
+      </c>
+      <c r="E8" s="3">
         <v>193400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>169300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>155100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>126500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>134900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>139900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>98100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>73100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>67600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>67100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>77000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>76600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>88600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>82300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>78200</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>91200</v>
+      </c>
+      <c r="E9" s="3">
         <v>87900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>78800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>79800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>57600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>63400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>77300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>70700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>34400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>32400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>33300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>35000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>33000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>37700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>34800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>34200</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>109400</v>
+      </c>
+      <c r="E10" s="3">
         <v>105500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>90500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>75300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>68900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>71500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>62600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>27400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>38700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>35200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>33800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>42000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>43600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>50900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>47500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>44000</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -909,58 +922,62 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>23800</v>
+      </c>
+      <c r="E12" s="3">
         <v>25500</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>22000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>21800</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>9800</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>10300</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>9700</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>7500</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>13800</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>14100</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>13000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>12800</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>12700</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>12500</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>10200</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>10100</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1009,8 +1026,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1023,35 +1043,35 @@
       <c r="F14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H14" s="3">
         <v>24300</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>27200</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>29800</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>-3300</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>2400</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>900</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3" t="s">
+      <c r="O14" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>10</v>
@@ -1059,34 +1079,37 @@
       <c r="R14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>13000</v>
+      </c>
+      <c r="E15" s="3">
         <v>12300</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>12400</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>12700</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>13600</v>
-      </c>
-      <c r="H15" s="3">
-        <v>13700</v>
       </c>
       <c r="I15" s="3">
         <v>13700</v>
       </c>
       <c r="J15" s="3">
+        <v>13700</v>
+      </c>
+      <c r="K15" s="3">
         <v>9600</v>
-      </c>
-      <c r="K15" s="3">
-        <v>300</v>
       </c>
       <c r="L15" s="3">
         <v>300</v>
@@ -1095,22 +1118,25 @@
         <v>300</v>
       </c>
       <c r="N15" s="3">
+        <v>300</v>
+      </c>
+      <c r="O15" s="3">
         <v>100</v>
       </c>
-      <c r="O15" s="3">
-        <v>0</v>
-      </c>
-      <c r="P15" s="3" t="s">
-        <v>10</v>
+      <c r="P15" s="3">
+        <v>0</v>
       </c>
       <c r="Q15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R15" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1126,108 +1152,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>157500</v>
+      </c>
+      <c r="E17" s="3">
         <v>157400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>141800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>140400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>117200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>127000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>145200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>116100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>67200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>63900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>63800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>66100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>62300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>67800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>61700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>59000</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>43100</v>
+      </c>
+      <c r="E18" s="3">
         <v>36000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>27500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>14700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>9300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>7900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-5300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-18000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>5900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>3700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>3300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>10900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>14300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>20800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>20600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>19200</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1246,108 +1279,115 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>-900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>1300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>3200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>59600</v>
+      </c>
+      <c r="E21" s="3">
         <v>52100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>42600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>31200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>26200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>24300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>12800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-6100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>8800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>7200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>6000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>13600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>16200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>22200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>22600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>21100</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1372,14 +1412,14 @@
       <c r="J22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
+      <c r="K22" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="L22" s="3">
         <v>0</v>
       </c>
       <c r="M22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N22" s="3">
         <v>100</v>
@@ -1388,116 +1428,125 @@
         <v>100</v>
       </c>
       <c r="P22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
         <v>100</v>
       </c>
-      <c r="R22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>43100</v>
+      </c>
+      <c r="E23" s="3">
         <v>36000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>26600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>14500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>8900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>7400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-4000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-14800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>6200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>4600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>3500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>11600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>14500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>20600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>20800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>19400</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E24" s="3">
         <v>900</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>2500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-5400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>800</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
       <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
         <v>400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-5600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-400</v>
-      </c>
-      <c r="O24" s="3">
-        <v>2900</v>
       </c>
       <c r="P24" s="3">
         <v>2900</v>
       </c>
       <c r="Q24" s="3">
+        <v>2900</v>
+      </c>
+      <c r="R24" s="3">
         <v>4400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>5700</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1546,108 +1595,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>36400</v>
+      </c>
+      <c r="E26" s="3">
         <v>35100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>24100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>19900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>8100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>7400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-4400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-9200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>4200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>3900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>3000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>12000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>11600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>17700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>16400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>13700</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>36400</v>
+      </c>
+      <c r="E27" s="3">
         <v>35100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>24100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>19900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>8100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>7400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-4400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-9200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>4200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>3900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>3000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>12000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>11600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>17700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>16400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>13700</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1696,8 +1754,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1725,8 +1786,8 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>10</v>
+      <c r="L29" s="3">
+        <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>10</v>
@@ -1743,11 +1804,14 @@
       <c r="Q29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R29" s="3">
+      <c r="R29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="S29" s="3">
         <v>-2900</v>
       </c>
     </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1796,8 +1860,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1846,108 +1913,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-1300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-3200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-400</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>36400</v>
+      </c>
+      <c r="E33" s="3">
         <v>35100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>24100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>19900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>8100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>7400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-4400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-9200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>4200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>3900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>3000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>12000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>11600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>17700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>16400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>10800</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1996,113 +2072,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>36400</v>
+      </c>
+      <c r="E35" s="3">
         <v>35100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>24100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>19900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>8100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>7400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-4400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-9200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>4200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>3900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>3000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>12000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>11600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>17700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>16400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>10800</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44464</v>
+      </c>
+      <c r="E38" s="2">
         <v>44373</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44282</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44191</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44100</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44009</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43918</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43736</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43645</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43554</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43463</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43372</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43099</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2121,8 +2206,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2141,308 +2227,327 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>152200</v>
+      </c>
+      <c r="E41" s="3">
         <v>134200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>126500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>136700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>101600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>129400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>101300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>130700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>51000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>94000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>95200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>111000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>96100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>86200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>65900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>34900</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>309300</v>
+      </c>
+      <c r="E42" s="3">
         <v>276600</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>266500</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>237000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>238800</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>182700</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>190600</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>189600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>93100</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>50900</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>52900</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>40800</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>76800</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>62500</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>58000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>82100</v>
       </c>
     </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>179800</v>
+      </c>
+      <c r="E43" s="3">
         <v>174700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>141900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>149300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>131400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>137500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>149200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>123700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>57000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>51600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>45300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>50900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>50300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>54600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>59000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>62500</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>222300</v>
+      </c>
+      <c r="E44" s="3">
         <v>207000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>200900</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>191200</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>185000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>171800</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>160500</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>176100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>69800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>67600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>63800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>62100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>60700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>56100</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>54600</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>54400</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>21800</v>
+      </c>
+      <c r="E45" s="3">
         <v>19100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>19200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>17500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>19900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>23500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>26800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>21600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>7400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>8000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>7200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>6100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>7100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>9900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>6900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>6200</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>885500</v>
+      </c>
+      <c r="E46" s="3">
         <v>811600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>754800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>731700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>676700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>644900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>628500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>641700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>278300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>272200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>264400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>270900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>291100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>269300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>244400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>240100</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2491,108 +2596,117 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>104400</v>
+      </c>
+      <c r="E48" s="3">
         <v>108500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>109600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>107600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>112800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>116800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>119400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>122000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>62400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>63500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>62100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>47900</v>
-      </c>
-      <c r="O48" s="3">
-        <v>43100</v>
       </c>
       <c r="P48" s="3">
         <v>43100</v>
       </c>
       <c r="Q48" s="3">
+        <v>43100</v>
+      </c>
+      <c r="R48" s="3">
         <v>43800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>44800</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>606800</v>
+      </c>
+      <c r="E49" s="3">
         <v>619800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>632100</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>625000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>638500</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>652200</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>665800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>679100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>51400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>52100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>52900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>53700</v>
-      </c>
-      <c r="O49" s="3">
-        <v>14700</v>
       </c>
       <c r="P49" s="3">
         <v>14700</v>
       </c>
       <c r="Q49" s="3">
+        <v>14700</v>
+      </c>
+      <c r="R49" s="3">
         <v>13800</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>12400</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2641,8 +2755,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2691,8 +2808,11 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2700,49 +2820,52 @@
         <v>6600</v>
       </c>
       <c r="E52" s="3">
+        <v>6600</v>
+      </c>
+      <c r="F52" s="3">
         <v>7200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>3900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>2700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>2800</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>2700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>5800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>4100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>3300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>2900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>3200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>7500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>7700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>10000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>12300</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2791,58 +2914,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1603300</v>
+      </c>
+      <c r="E54" s="3">
         <v>1546500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1503700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1468200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1430700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1416800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1416400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1448600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>396200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>391100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>382300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>375600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>356500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>334800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>312000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>309700</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2861,8 +2990,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2881,58 +3011,62 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>50900</v>
+      </c>
+      <c r="E57" s="3">
         <v>46700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>45600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>40200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>37500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>34300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>32200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>27700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>17500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>19500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>18900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>16500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>20900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>19000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>18500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>13900</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2981,108 +3115,117 @@
       <c r="R58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>97800</v>
+      </c>
+      <c r="E59" s="3">
         <v>86500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>80800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>79900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>59700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>64400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>62100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>58000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>32300</v>
-      </c>
-      <c r="L59" s="3">
-        <v>31500</v>
       </c>
       <c r="M59" s="3">
         <v>31500</v>
       </c>
       <c r="N59" s="3">
+        <v>31500</v>
+      </c>
+      <c r="O59" s="3">
         <v>43200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>38200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>34100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>29400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>30200</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>148600</v>
+      </c>
+      <c r="E60" s="3">
         <v>133200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>126400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>120100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>97200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>98700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>94300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>85700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>49800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>51000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>50400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>59800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>59100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>53000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>47900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>44100</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3131,58 +3274,64 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>81100</v>
+      </c>
+      <c r="E62" s="3">
         <v>83800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>85000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>83300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>95800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>96800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>96300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>98800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>10600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>11200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>11500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>3000</v>
-      </c>
-      <c r="O62" s="3">
-        <v>3300</v>
       </c>
       <c r="P62" s="3">
         <v>3300</v>
       </c>
       <c r="Q62" s="3">
+        <v>3300</v>
+      </c>
+      <c r="R62" s="3">
         <v>3400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3231,8 +3380,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3281,8 +3433,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3331,58 +3486,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>229700</v>
+      </c>
+      <c r="E66" s="3">
         <v>216900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>211400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>203400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>193000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>195600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>190600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>184600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>60500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>62100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>61900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>62800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>62400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>56300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>51300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>47300</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3401,8 +3562,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3451,8 +3613,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3501,8 +3666,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3551,8 +3719,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3601,58 +3772,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>121800</v>
+      </c>
+      <c r="E72" s="3">
         <v>85300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>50300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>26200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>6200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-1800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-9300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-4900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>78500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>74300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>70400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>67400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>55400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>43800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>26100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>9100</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3701,8 +3878,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3751,8 +3931,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3801,58 +3984,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1373600</v>
+      </c>
+      <c r="E76" s="3">
         <v>1329600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1292300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1264700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1237700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1221200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1225800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1264000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>335800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>329000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>320400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>312900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>294100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>278500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>260700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>262400</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3901,113 +4090,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44464</v>
+      </c>
+      <c r="E80" s="2">
         <v>44373</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44282</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44191</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44100</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44009</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43918</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43736</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43645</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43554</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43463</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43372</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43099</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>36400</v>
+      </c>
+      <c r="E81" s="3">
         <v>35100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>24100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>19900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>8100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>7400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-4400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-9200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>4200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>3900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>3000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>12000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>11600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>17700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>16400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>10800</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4026,58 +4224,62 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>16600</v>
+      </c>
+      <c r="E83" s="3">
         <v>16200</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>16000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>16700</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>17200</v>
-      </c>
-      <c r="H83" s="3">
-        <v>16800</v>
       </c>
       <c r="I83" s="3">
         <v>16800</v>
       </c>
       <c r="J83" s="3">
+        <v>16800</v>
+      </c>
+      <c r="K83" s="3">
         <v>8700</v>
-      </c>
-      <c r="K83" s="3">
-        <v>2700</v>
       </c>
       <c r="L83" s="3">
         <v>2700</v>
       </c>
       <c r="M83" s="3">
+        <v>2700</v>
+      </c>
+      <c r="N83" s="3">
         <v>2400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>1900</v>
-      </c>
-      <c r="O83" s="3">
-        <v>1600</v>
       </c>
       <c r="P83" s="3">
         <v>1600</v>
       </c>
       <c r="Q83" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="R83" s="3">
         <v>1700</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4126,8 +4328,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4176,8 +4381,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4226,8 +4434,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4276,8 +4487,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4326,58 +4540,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>49900</v>
+      </c>
+      <c r="E89" s="3">
         <v>25400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>51000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>33100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>26000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>38000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>8900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>19300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-1400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>19900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>24400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>26300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>32700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4396,58 +4616,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E91" s="3">
         <v>-5700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-3900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-800</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1600</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-1000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>3100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-4200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-4100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-4500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-1200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-1300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-2900</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4496,8 +4720,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4546,58 +4773,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-34500</v>
+      </c>
+      <c r="E94" s="3">
         <v>-16000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-60300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>1100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-57100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>9900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-2600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>65000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-43700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-16000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-4700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-15300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-5800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>21600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>11100</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4616,8 +4849,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4666,8 +4900,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4716,8 +4953,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4766,8 +5006,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4816,154 +5059,166 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E100" s="3">
         <v>-3900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>2400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-20500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-35000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-6200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>1500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-22900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-25400</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E101" s="3">
         <v>2300</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-1500</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>1400</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>900</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>700</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-600</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-300</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
       <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
         <v>300</v>
-      </c>
-      <c r="N101" s="3">
-        <v>100</v>
       </c>
       <c r="O101" s="3">
         <v>100</v>
       </c>
       <c r="P101" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
         <v>-400</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>18000</v>
+      </c>
+      <c r="E102" s="3">
         <v>7800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-10300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>35100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-27800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>28100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-29400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>78200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-43000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-15700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>14800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>9900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>20300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>31000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-9100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ONTO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ONTO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="92">
   <si>
     <t>ONTO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,245 +665,258 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44562</v>
+      </c>
+      <c r="E7" s="2">
         <v>44464</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44373</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44282</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44191</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44009</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43918</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43736</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43645</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43554</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43463</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43372</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43099</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>225600</v>
+      </c>
+      <c r="E8" s="3">
         <v>200600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>193400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>169300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>155100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>126500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>134900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>139900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>98100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>73100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>67600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>67100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>77000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>76600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>88600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>82300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>78200</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>101800</v>
+      </c>
+      <c r="E9" s="3">
         <v>91200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>87900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>78800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>79800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>57600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>63400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>77300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>70700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>34400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>32400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>33300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>35000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>33000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>37700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>34800</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>34200</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>123800</v>
+      </c>
+      <c r="E10" s="3">
         <v>109400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>105500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>90500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>75300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>68900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>71500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>62600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>27400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>38700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>35200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>33800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>42000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>43600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>50900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>47500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>44000</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -923,61 +936,65 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>24800</v>
+      </c>
+      <c r="E12" s="3">
         <v>23800</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>25500</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>22000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>21800</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>9800</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>10300</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>9700</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>7500</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>13800</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>14100</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>13000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>12800</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>12700</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>12500</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>10200</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>10100</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1029,8 +1046,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1046,35 +1066,35 @@
       <c r="G14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I14" s="3">
         <v>24300</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>27200</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>29800</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-3300</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>2400</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>900</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="3" t="s">
+      <c r="P14" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>10</v>
@@ -1082,37 +1102,40 @@
       <c r="S14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>13700</v>
+      </c>
+      <c r="E15" s="3">
         <v>13000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>12300</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>12400</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>12700</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>13600</v>
-      </c>
-      <c r="I15" s="3">
-        <v>13700</v>
       </c>
       <c r="J15" s="3">
         <v>13700</v>
       </c>
       <c r="K15" s="3">
+        <v>13700</v>
+      </c>
+      <c r="L15" s="3">
         <v>9600</v>
-      </c>
-      <c r="L15" s="3">
-        <v>300</v>
       </c>
       <c r="M15" s="3">
         <v>300</v>
@@ -1121,22 +1144,25 @@
         <v>300</v>
       </c>
       <c r="O15" s="3">
+        <v>300</v>
+      </c>
+      <c r="P15" s="3">
         <v>100</v>
       </c>
-      <c r="P15" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="3" t="s">
-        <v>10</v>
+      <c r="Q15" s="3">
+        <v>0</v>
       </c>
       <c r="R15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="S15" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="S15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1153,114 +1179,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>175800</v>
+      </c>
+      <c r="E17" s="3">
         <v>157500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>157400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>141800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>140400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>117200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>127000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>145200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>116100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>67200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>63900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>63800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>66100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>62300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>67800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>61700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>59000</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>49800</v>
+      </c>
+      <c r="E18" s="3">
         <v>43100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>36000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>27500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>14700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>9300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>7900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-5300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-18000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>5900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>3700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>3300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>10900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>14300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>20800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>20600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>19200</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1280,114 +1313,121 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>200</v>
+      </c>
+      <c r="E20" s="3">
         <v>-100</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>-900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>1300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>3200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>400</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>67100</v>
+      </c>
+      <c r="E21" s="3">
         <v>59600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>52100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>42600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>31200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>26200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>24300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>12800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-6100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>8800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>7200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>6000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>13600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>16200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>22200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>22600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>21100</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1415,14 +1455,14 @@
       <c r="K22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
+      <c r="L22" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="M22" s="3">
         <v>0</v>
       </c>
       <c r="N22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O22" s="3">
         <v>100</v>
@@ -1431,122 +1471,131 @@
         <v>100</v>
       </c>
       <c r="Q22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3">
         <v>100</v>
       </c>
-      <c r="S22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>50100</v>
+      </c>
+      <c r="E23" s="3">
         <v>43100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>36000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>26600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>14500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>8900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>7400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-4000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-14800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>6200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>4600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>3500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>11600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>14500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>20600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>20800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>19400</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E24" s="3">
         <v>6600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>900</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>2500</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-5400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>800</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
       <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
         <v>400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-5600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-400</v>
-      </c>
-      <c r="P24" s="3">
-        <v>2900</v>
       </c>
       <c r="Q24" s="3">
         <v>2900</v>
       </c>
       <c r="R24" s="3">
+        <v>2900</v>
+      </c>
+      <c r="S24" s="3">
         <v>4400</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>5700</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1598,114 +1647,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>46700</v>
+      </c>
+      <c r="E26" s="3">
         <v>36400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>35100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>24100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>19900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>8100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>7400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-4400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-9200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>4200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>3900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>3000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>12000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>11600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>17700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>16400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>13700</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>46700</v>
+      </c>
+      <c r="E27" s="3">
         <v>36400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>35100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>24100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>19900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>8100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>7400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-4400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-9200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>4200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>3900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>3000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>12000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>11600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>17700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>16400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>13700</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1757,8 +1815,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1789,8 +1850,8 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>10</v>
+      <c r="M29" s="3">
+        <v>0</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>10</v>
@@ -1807,11 +1868,14 @@
       <c r="R29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="S29" s="3">
+      <c r="S29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T29" s="3">
         <v>-2900</v>
       </c>
     </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1863,8 +1927,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1916,114 +1983,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E32" s="3">
         <v>100</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-1300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-3200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-400</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>46700</v>
+      </c>
+      <c r="E33" s="3">
         <v>36400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>35100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>24100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>19900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>8100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>7400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-4400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-9200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>4200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>3900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>3000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>12000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>11600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>17700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>16400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>10800</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2075,119 +2151,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>46700</v>
+      </c>
+      <c r="E35" s="3">
         <v>36400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>35100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>24100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>19900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>8100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>7400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-4400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-9200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>4200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>3900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>3000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>12000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>11600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>17700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>16400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>10800</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44562</v>
+      </c>
+      <c r="E38" s="2">
         <v>44464</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44373</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44282</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44191</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44100</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44009</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43918</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43736</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43645</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43554</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43463</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43372</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43099</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2207,8 +2292,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2228,326 +2314,345 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>169600</v>
+      </c>
+      <c r="E41" s="3">
         <v>152200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>134200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>126500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>136700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>101600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>129400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>101300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>130700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>51000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>94000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>95200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>111000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>96100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>86200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>65900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>34900</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>341700</v>
+      </c>
+      <c r="E42" s="3">
         <v>309300</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>276600</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>266500</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>237000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>238800</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>182700</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>190600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>189600</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>93100</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>50900</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>52900</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>40800</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>76800</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>62500</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>58000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>82100</v>
       </c>
     </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>177200</v>
+      </c>
+      <c r="E43" s="3">
         <v>179800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>174700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>141900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>149300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>131400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>137500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>149200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>123700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>57000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>51600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>45300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>50900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>50300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>54600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>59000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>62500</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>243100</v>
+      </c>
+      <c r="E44" s="3">
         <v>222300</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>207000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>200900</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>191200</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>185000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>171800</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>160500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>176100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>69800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>67600</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>63800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>62100</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>60700</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>56100</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>54600</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>54400</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>16400</v>
+      </c>
+      <c r="E45" s="3">
         <v>21800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>19100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>19200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>17500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>19900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>23500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>26800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>21600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>7400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>8000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>7200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>6100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>7100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>9900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>6900</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>6200</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>948100</v>
+      </c>
+      <c r="E46" s="3">
         <v>885500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>811600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>754800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>731700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>676700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>644900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>628500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>641700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>278300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>272200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>264400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>270900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>291100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>269300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>244400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>240100</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2599,114 +2704,123 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>99600</v>
+      </c>
+      <c r="E48" s="3">
         <v>104400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>108500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>109600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>107600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>112800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>116800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>119400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>122000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>62400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>63500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>62100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>47900</v>
-      </c>
-      <c r="P48" s="3">
-        <v>43100</v>
       </c>
       <c r="Q48" s="3">
         <v>43100</v>
       </c>
       <c r="R48" s="3">
+        <v>43100</v>
+      </c>
+      <c r="S48" s="3">
         <v>43800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>44800</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>593100</v>
+      </c>
+      <c r="E49" s="3">
         <v>606800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>619800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>632100</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>625000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>638500</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>652200</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>665800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>679100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>51400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>52100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>52900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>53700</v>
-      </c>
-      <c r="P49" s="3">
-        <v>14700</v>
       </c>
       <c r="Q49" s="3">
         <v>14700</v>
       </c>
       <c r="R49" s="3">
+        <v>14700</v>
+      </c>
+      <c r="S49" s="3">
         <v>13800</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>12400</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2758,8 +2872,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2811,61 +2928,67 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>6600</v>
+        <v>9100</v>
       </c>
       <c r="E52" s="3">
         <v>6600</v>
       </c>
       <c r="F52" s="3">
+        <v>6600</v>
+      </c>
+      <c r="G52" s="3">
         <v>7200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>3900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>2700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>2800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>2700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>5800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>4100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>3300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>2900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>3200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>7500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>7700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>10000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>12300</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2917,61 +3040,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1649800</v>
+      </c>
+      <c r="E54" s="3">
         <v>1603300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1546500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1503700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1468200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1430700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1416800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1416400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1448600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>396200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>391100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>382300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>375600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>356500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>334800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>312000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>309700</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2991,8 +3120,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3012,61 +3142,65 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>53300</v>
+      </c>
+      <c r="E57" s="3">
         <v>50900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>46700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>45600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>40200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>37500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>34300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>32200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>27700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>17500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>19500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>18900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>16500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>20900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>19000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>18500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>13900</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3118,114 +3252,123 @@
       <c r="S58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>101200</v>
+      </c>
+      <c r="E59" s="3">
         <v>97800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>86500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>80800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>79900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>59700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>64400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>62100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>58000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>32300</v>
-      </c>
-      <c r="M59" s="3">
-        <v>31500</v>
       </c>
       <c r="N59" s="3">
         <v>31500</v>
       </c>
       <c r="O59" s="3">
+        <v>31500</v>
+      </c>
+      <c r="P59" s="3">
         <v>43200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>38200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>34100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>29400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>30200</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>154500</v>
+      </c>
+      <c r="E60" s="3">
         <v>148600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>133200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>126400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>120100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>97200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>98700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>94300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>85700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>49800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>51000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>50400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>59800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>59100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>53000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>47900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>44100</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3277,61 +3420,67 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>69200</v>
+      </c>
+      <c r="E62" s="3">
         <v>81100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>83800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>85000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>83300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>95800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>96800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>96300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>98800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>10600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>11200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>11500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>3000</v>
-      </c>
-      <c r="P62" s="3">
-        <v>3300</v>
       </c>
       <c r="Q62" s="3">
         <v>3300</v>
       </c>
       <c r="R62" s="3">
+        <v>3300</v>
+      </c>
+      <c r="S62" s="3">
         <v>3400</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3383,8 +3532,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3436,8 +3588,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3489,61 +3644,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>223800</v>
+      </c>
+      <c r="E66" s="3">
         <v>229700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>216900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>211400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>203400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>193000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>195600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>190600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>184600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>60500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>62100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>61900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>62800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>62400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>56300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>51300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>47300</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3563,8 +3724,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3616,8 +3778,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3669,8 +3834,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3722,8 +3890,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3775,61 +3946,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>168500</v>
+      </c>
+      <c r="E72" s="3">
         <v>121800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>85300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>50300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>26200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>6200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-1800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-9300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-4900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>78500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>74300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>70400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>67400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>55400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>43800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>26100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>9100</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3881,8 +4058,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3934,8 +4114,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3987,61 +4170,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1426100</v>
+      </c>
+      <c r="E76" s="3">
         <v>1373600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1329600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1292300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1264700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1237700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1221200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1225800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1264000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>335800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>329000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>320400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>312900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>294100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>278500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>260700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>262400</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4093,119 +4282,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44562</v>
+      </c>
+      <c r="E80" s="2">
         <v>44464</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44373</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44282</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44191</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44100</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44009</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43918</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43736</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43645</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43554</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43463</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43372</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43099</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>46700</v>
+      </c>
+      <c r="E81" s="3">
         <v>36400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>35100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>24100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>19900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>8100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>7400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-4400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-9200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>4200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>3900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>3000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>12000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>11600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>17700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>16400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>10800</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4225,61 +4423,65 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>17100</v>
+      </c>
+      <c r="E83" s="3">
         <v>16600</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>16200</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>16000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>16700</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>17200</v>
-      </c>
-      <c r="I83" s="3">
-        <v>16800</v>
       </c>
       <c r="J83" s="3">
         <v>16800</v>
       </c>
       <c r="K83" s="3">
+        <v>16800</v>
+      </c>
+      <c r="L83" s="3">
         <v>8700</v>
-      </c>
-      <c r="L83" s="3">
-        <v>2700</v>
       </c>
       <c r="M83" s="3">
         <v>2700</v>
       </c>
       <c r="N83" s="3">
+        <v>2700</v>
+      </c>
+      <c r="O83" s="3">
         <v>2400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>1900</v>
-      </c>
-      <c r="P83" s="3">
-        <v>1600</v>
       </c>
       <c r="Q83" s="3">
         <v>1600</v>
       </c>
       <c r="R83" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="S83" s="3">
         <v>1700</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4331,8 +4533,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4384,8 +4589,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4437,8 +4645,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4490,8 +4701,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4543,61 +4757,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>49000</v>
+      </c>
+      <c r="E89" s="3">
         <v>49900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>25400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>51000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>33100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>26000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>38000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>8900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>19300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-1400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>19900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>24400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>26300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>32700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4617,61 +4837,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-5700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-3900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-1600</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-1000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>3100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-4200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-4100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-4500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-400</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-1300</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-2900</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4723,8 +4947,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4776,61 +5003,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-30900</v>
+      </c>
+      <c r="E94" s="3">
         <v>-34500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-16000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-60300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>1100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-57100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>9900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-2600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>65000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-43700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-16000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-4700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-15300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-5800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>21600</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>11100</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4850,8 +5083,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4903,8 +5137,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4956,8 +5193,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5009,8 +5249,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5062,163 +5305,175 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E100" s="3">
         <v>2900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-3900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>2400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-20500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-35000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-6200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>1500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-22900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-25400</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="E101" s="3">
         <v>-200</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>2300</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-1500</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>1400</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>900</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>700</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-600</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-300</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
-      </c>
       <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3">
         <v>300</v>
-      </c>
-      <c r="O101" s="3">
-        <v>100</v>
       </c>
       <c r="P101" s="3">
         <v>100</v>
       </c>
       <c r="Q101" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
         <v>-400</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>17400</v>
+      </c>
+      <c r="E102" s="3">
         <v>18000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>7800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-10300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>35100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-27800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>28100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-29400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>78200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-43000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-1200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-15700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>14800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>9900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>20300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>31000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-9100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ONTO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ONTO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="92">
   <si>
     <t>ONTO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,258 +665,270 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44653</v>
+      </c>
+      <c r="E7" s="2">
         <v>44562</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44464</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44373</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44282</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44191</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44100</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44009</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43918</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43736</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43645</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43554</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43463</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43372</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43099</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>241400</v>
+      </c>
+      <c r="E8" s="3">
         <v>225600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>200600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>193400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>169300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>155100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>126500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>134900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>139900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>98100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>73100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>67600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>67100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>77000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>76600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>88600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>82300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>78200</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>110300</v>
+      </c>
+      <c r="E9" s="3">
         <v>101800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>91200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>87900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>78800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>79800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>57600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>63400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>77300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>70700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>34400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>32400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>33300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>35000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>33000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>37700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>34800</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>34200</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>131100</v>
+      </c>
+      <c r="E10" s="3">
         <v>123800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>109400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>105500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>90500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>75300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>68900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>71500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>62600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>27400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>38700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>35200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>33800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>42000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>43600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>50900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>47500</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>44000</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -937,64 +949,68 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>26300</v>
+      </c>
+      <c r="E12" s="3">
         <v>24800</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>23800</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>25500</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>22000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>21800</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>9800</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>10300</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>9700</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>7500</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>13800</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>14100</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>13000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>12800</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>12700</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>12500</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>10200</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>10100</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1049,8 +1065,11 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1069,35 +1088,35 @@
       <c r="H14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J14" s="3">
         <v>24300</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>27200</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>29800</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-3300</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>2400</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>900</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-      <c r="R14" s="3" t="s">
+      <c r="Q14" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>10</v>
@@ -1105,40 +1124,43 @@
       <c r="T14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>13800</v>
+      </c>
+      <c r="E15" s="3">
         <v>13700</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>13000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>12300</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>12400</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>12700</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>13600</v>
-      </c>
-      <c r="J15" s="3">
-        <v>13700</v>
       </c>
       <c r="K15" s="3">
         <v>13700</v>
       </c>
       <c r="L15" s="3">
+        <v>13700</v>
+      </c>
+      <c r="M15" s="3">
         <v>9600</v>
-      </c>
-      <c r="M15" s="3">
-        <v>300</v>
       </c>
       <c r="N15" s="3">
         <v>300</v>
@@ -1147,22 +1169,25 @@
         <v>300</v>
       </c>
       <c r="P15" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q15" s="3">
         <v>100</v>
       </c>
-      <c r="Q15" s="3">
-        <v>0</v>
-      </c>
-      <c r="R15" s="3" t="s">
-        <v>10</v>
+      <c r="R15" s="3">
+        <v>0</v>
       </c>
       <c r="S15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="T15" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="T15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1180,120 +1205,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>182600</v>
+      </c>
+      <c r="E17" s="3">
         <v>175800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>157500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>157400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>141800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>140400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>117200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>127000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>145200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>116100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>67200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>63900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>63800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>66100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>62300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>67800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>61700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>59000</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>58800</v>
+      </c>
+      <c r="E18" s="3">
         <v>49800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>43100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>36000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>27500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>14700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>9300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>7900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-5300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-18000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>5900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>3700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>3300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>10900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>14300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>20800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>20600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>19200</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1314,120 +1346,127 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>100</v>
+      </c>
+      <c r="E20" s="3">
         <v>200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-100</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>-900</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>3200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>400</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>75100</v>
+      </c>
+      <c r="E21" s="3">
         <v>67100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>59600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>52100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>42600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>31200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>26200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>24300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>12800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-6100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>8800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>7200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>6000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>13600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>16200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>22200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>22600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>21100</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1458,14 +1497,14 @@
       <c r="L22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
+      <c r="M22" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="N22" s="3">
         <v>0</v>
       </c>
       <c r="O22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P22" s="3">
         <v>100</v>
@@ -1474,128 +1513,137 @@
         <v>100</v>
       </c>
       <c r="R22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S22" s="3">
+        <v>0</v>
+      </c>
+      <c r="T22" s="3">
         <v>100</v>
       </c>
-      <c r="T22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>58900</v>
+      </c>
+      <c r="E23" s="3">
         <v>50100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>43100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>36000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>26600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>14500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>8900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>7400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-4000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-14800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>6200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>4600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>3500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>11600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>14500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>20600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>20800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>19400</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E24" s="3">
         <v>3300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>6600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>900</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>2500</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-5400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>800</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
       <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
         <v>400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-5600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-400</v>
-      </c>
-      <c r="Q24" s="3">
-        <v>2900</v>
       </c>
       <c r="R24" s="3">
         <v>2900</v>
       </c>
       <c r="S24" s="3">
+        <v>2900</v>
+      </c>
+      <c r="T24" s="3">
         <v>4400</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>5700</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1650,120 +1698,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>53300</v>
+      </c>
+      <c r="E26" s="3">
         <v>46700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>36400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>35100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>24100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>19900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>8100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>7400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-4400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-9200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>4200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>3900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>3000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>12000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>11600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>17700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>16400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>13700</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>53300</v>
+      </c>
+      <c r="E27" s="3">
         <v>46700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>36400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>35100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>24100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>19900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>8100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>7400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-4400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-9200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>4200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>3900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>3000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>12000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>11600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>17700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>16400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>13700</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1818,8 +1875,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1853,8 +1913,8 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>10</v>
+      <c r="N29" s="3">
+        <v>0</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>10</v>
@@ -1871,11 +1931,14 @@
       <c r="S29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="T29" s="3">
+      <c r="T29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="U29" s="3">
         <v>-2900</v>
       </c>
     </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1930,8 +1993,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1986,120 +2052,129 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E32" s="3">
         <v>-200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>100</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>900</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-3200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-400</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>53300</v>
+      </c>
+      <c r="E33" s="3">
         <v>46700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>36400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>35100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>24100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>19900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>8100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>7400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-4400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-9200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>4200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>3900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>3000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>12000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>11600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>17700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>16400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>10800</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2154,125 +2229,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>53300</v>
+      </c>
+      <c r="E35" s="3">
         <v>46700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>36400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>35100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>24100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>19900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>8100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>7400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-4400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-9200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>4200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>3900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>3000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>12000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>11600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>17700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>16400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>10800</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44653</v>
+      </c>
+      <c r="E38" s="2">
         <v>44562</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44464</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44373</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44282</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44191</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44100</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44009</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43918</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43736</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43645</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43554</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43463</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43372</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43099</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2293,8 +2377,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2315,344 +2400,363 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>172500</v>
+      </c>
+      <c r="E41" s="3">
         <v>169600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>152200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>134200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>126500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>136700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>101600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>129400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>101300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>130700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>51000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>94000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>95200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>111000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>96100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>86200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>65900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>34900</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>369400</v>
+      </c>
+      <c r="E42" s="3">
         <v>341700</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>309300</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>276600</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>266500</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>237000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>238800</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>182700</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>190600</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>189600</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>93100</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>50900</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>52900</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>40800</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>76800</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>62500</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>58000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>82100</v>
       </c>
     </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>206700</v>
+      </c>
+      <c r="E43" s="3">
         <v>177200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>179800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>174700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>141900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>149300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>131400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>137500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>149200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>123700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>57000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>51600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>45300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>50900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>50300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>54600</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>59000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>62500</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>263000</v>
+      </c>
+      <c r="E44" s="3">
         <v>243100</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>222300</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>207000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>200900</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>191200</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>185000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>171800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>160500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>176100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>69800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>67600</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>63800</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>62100</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>60700</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>56100</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>54600</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>54400</v>
       </c>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>20600</v>
+      </c>
+      <c r="E45" s="3">
         <v>16400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>21800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>19100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>19200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>17500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>19900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>23500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>26800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>21600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>7400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>8000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>7200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>6100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>7100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>9900</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>6900</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>6200</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1032200</v>
+      </c>
+      <c r="E46" s="3">
         <v>948100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>885500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>811600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>754800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>731700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>676700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>644900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>628500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>641700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>278300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>272200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>264400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>270900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>291100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>269300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>244400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>240100</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2707,120 +2811,129 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>101900</v>
+      </c>
+      <c r="E48" s="3">
         <v>99600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>104400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>108500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>109600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>107600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>112800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>116800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>119400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>122000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>62400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>63500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>62100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>47900</v>
-      </c>
-      <c r="Q48" s="3">
-        <v>43100</v>
       </c>
       <c r="R48" s="3">
         <v>43100</v>
       </c>
       <c r="S48" s="3">
+        <v>43100</v>
+      </c>
+      <c r="T48" s="3">
         <v>43800</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>44800</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>579300</v>
+      </c>
+      <c r="E49" s="3">
         <v>593100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>606800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>619800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>632100</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>625000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>638500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>652200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>665800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>679100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>51400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>52100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>52900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>53700</v>
-      </c>
-      <c r="Q49" s="3">
-        <v>14700</v>
       </c>
       <c r="R49" s="3">
         <v>14700</v>
       </c>
       <c r="S49" s="3">
+        <v>14700</v>
+      </c>
+      <c r="T49" s="3">
         <v>13800</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>12400</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2875,8 +2988,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2931,64 +3047,70 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E52" s="3">
         <v>9100</v>
-      </c>
-      <c r="E52" s="3">
-        <v>6600</v>
       </c>
       <c r="F52" s="3">
         <v>6600</v>
       </c>
       <c r="G52" s="3">
+        <v>6600</v>
+      </c>
+      <c r="H52" s="3">
         <v>7200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>3900</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>2700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>2800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>2700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>5800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>4100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>3300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>2900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>3200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>7500</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>7700</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>10000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>12300</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3043,64 +3165,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1722400</v>
+      </c>
+      <c r="E54" s="3">
         <v>1649800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1603300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1546500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1503700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1468200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1430700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1416800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1416400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1448600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>396200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>391100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>382300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>375600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>356500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>334800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>312000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>309700</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3121,8 +3249,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3143,64 +3272,68 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>70800</v>
+      </c>
+      <c r="E57" s="3">
         <v>53300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>50900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>46700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>45600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>40200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>37500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>34300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>32200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>27700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>17500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>19500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>18900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>16500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>20900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>19000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>18500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>13900</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3255,120 +3388,129 @@
       <c r="T58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>113900</v>
+      </c>
+      <c r="E59" s="3">
         <v>101200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>97800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>86500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>80800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>79900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>59700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>64400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>62100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>58000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>32300</v>
-      </c>
-      <c r="N59" s="3">
-        <v>31500</v>
       </c>
       <c r="O59" s="3">
         <v>31500</v>
       </c>
       <c r="P59" s="3">
+        <v>31500</v>
+      </c>
+      <c r="Q59" s="3">
         <v>43200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>38200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>34100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>29400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>30200</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>184700</v>
+      </c>
+      <c r="E60" s="3">
         <v>154500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>148600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>133200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>126400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>120100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>97200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>98700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>94300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>85700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>49800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>51000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>50400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>59800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>59100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>53000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>47900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>44100</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3423,64 +3565,70 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>65400</v>
+      </c>
+      <c r="E62" s="3">
         <v>69200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>81100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>83800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>85000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>83300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>95800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>96800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>96300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>98800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>10600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>11200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>11500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>3000</v>
-      </c>
-      <c r="Q62" s="3">
-        <v>3300</v>
       </c>
       <c r="R62" s="3">
         <v>3300</v>
       </c>
       <c r="S62" s="3">
+        <v>3300</v>
+      </c>
+      <c r="T62" s="3">
         <v>3400</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3535,8 +3683,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3591,8 +3742,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3647,64 +3801,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>250100</v>
+      </c>
+      <c r="E66" s="3">
         <v>223800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>229700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>216900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>211400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>203400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>193000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>195600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>190600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>184600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>60500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>62100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>61900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>62800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>62400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>56300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>51300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>47300</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3725,8 +3885,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3781,8 +3942,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3837,8 +4001,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3893,8 +4060,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3949,64 +4119,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>221800</v>
+      </c>
+      <c r="E72" s="3">
         <v>168500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>121800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>85300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>50300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>26200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>6200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-1800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-9300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-4900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>78500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>74300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>70400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>67400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>55400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>43800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>26100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>9100</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4061,8 +4237,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4117,8 +4296,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4173,64 +4355,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1472300</v>
+      </c>
+      <c r="E76" s="3">
         <v>1426100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1373600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1329600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1292300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1264700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1237700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1221200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1225800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1264000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>335800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>329000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>320400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>312900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>294100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>278500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>260700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>262400</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4285,125 +4473,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44653</v>
+      </c>
+      <c r="E80" s="2">
         <v>44562</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44464</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44373</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44282</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44191</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44100</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44009</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43918</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43736</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43645</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43554</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43463</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43372</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43099</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>53300</v>
+      </c>
+      <c r="E81" s="3">
         <v>46700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>36400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>35100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>24100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>19900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>8100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>7400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-4400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-9200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>4200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>3900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>3000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>12000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>11600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>17700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>16400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>10800</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4424,64 +4621,68 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>16200</v>
+      </c>
+      <c r="E83" s="3">
         <v>17100</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>16600</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>16200</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>16000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>16700</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>17200</v>
-      </c>
-      <c r="J83" s="3">
-        <v>16800</v>
       </c>
       <c r="K83" s="3">
         <v>16800</v>
       </c>
       <c r="L83" s="3">
+        <v>16800</v>
+      </c>
+      <c r="M83" s="3">
         <v>8700</v>
-      </c>
-      <c r="M83" s="3">
-        <v>2700</v>
       </c>
       <c r="N83" s="3">
         <v>2700</v>
       </c>
       <c r="O83" s="3">
+        <v>2700</v>
+      </c>
+      <c r="P83" s="3">
         <v>2400</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>1900</v>
-      </c>
-      <c r="Q83" s="3">
-        <v>1600</v>
       </c>
       <c r="R83" s="3">
         <v>1600</v>
       </c>
       <c r="S83" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="T83" s="3">
         <v>1700</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4536,8 +4737,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4592,8 +4796,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4648,8 +4855,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4704,8 +4914,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4760,64 +4973,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>45500</v>
+      </c>
+      <c r="E89" s="3">
         <v>49000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>49900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>25400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>51000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>33100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>26000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>38000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>8900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>19300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-1400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>19900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>24400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>26300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>32700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4838,64 +5057,68 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E91" s="3">
         <v>-900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-5700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-3900</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-1600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>3100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-4200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-4100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-4500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-1200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-400</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-1300</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-2900</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4950,8 +5173,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5006,64 +5232,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-33300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-30900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-34500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-16000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-60300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>1100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-57100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>9900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-2600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>65000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-43700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-16000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-4700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-15300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-5800</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>21600</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>11100</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5084,8 +5316,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5140,8 +5373,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5196,8 +5432,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5252,8 +5491,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5308,172 +5550,184 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-7600</v>
+      </c>
+      <c r="E100" s="3">
         <v>3000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>2900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-3900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>2400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-20500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-35000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-6200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>1500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-22900</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-25400</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E101" s="3">
         <v>-3800</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-200</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>2300</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-1500</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>1400</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>900</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>700</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-600</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-300</v>
       </c>
-      <c r="N101" s="3">
-        <v>0</v>
-      </c>
       <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
         <v>300</v>
-      </c>
-      <c r="P101" s="3">
-        <v>100</v>
       </c>
       <c r="Q101" s="3">
         <v>100</v>
       </c>
       <c r="R101" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S101" s="3">
+        <v>0</v>
+      </c>
+      <c r="T101" s="3">
         <v>-400</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E102" s="3">
         <v>17400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>18000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>7800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-10300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>35100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-27800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>28100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-29400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>78200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-43000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-1200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-15700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>14800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>9900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>20300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>31000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-9100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ONTO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ONTO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="92">
   <si>
     <t>ONTO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,270 +665,282 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="6" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44744</v>
+      </c>
+      <c r="E7" s="2">
         <v>44653</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44562</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44464</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44373</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44282</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44191</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44100</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44009</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43918</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43736</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43645</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43554</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43463</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43372</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43099</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>256300</v>
+      </c>
+      <c r="E8" s="3">
         <v>241400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>225600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>200600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>193400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>169300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>155100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>126500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>134900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>139900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>98100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>73100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>67600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>67100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>77000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>76600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>88600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>82300</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>78200</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>124200</v>
+      </c>
+      <c r="E9" s="3">
         <v>110300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>101800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>91200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>87900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>78800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>79800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>57600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>63400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>77300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>70700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>34400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>32400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>33300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>35000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>33000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>37700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>34800</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>34200</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>132100</v>
+      </c>
+      <c r="E10" s="3">
         <v>131100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>123800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>109400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>105500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>90500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>75300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>68900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>71500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>62600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>27400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>38700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>35200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>33800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>42000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>43600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>50900</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>47500</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>44000</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -950,67 +962,71 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>25600</v>
+      </c>
+      <c r="E12" s="3">
         <v>26300</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>24800</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>23800</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>25500</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>22000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>21800</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>9800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>10300</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>9700</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>7500</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>13800</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>14100</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>13000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>12800</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>12700</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>12500</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>10200</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>10100</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1068,8 +1084,11 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1091,35 +1110,35 @@
       <c r="I14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K14" s="3">
         <v>24300</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>27200</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>29800</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-3300</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>2400</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>900</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
-      <c r="S14" s="3" t="s">
+      <c r="R14" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>10</v>
@@ -1127,8 +1146,11 @@
       <c r="U14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1136,34 +1158,34 @@
         <v>13800</v>
       </c>
       <c r="E15" s="3">
+        <v>13800</v>
+      </c>
+      <c r="F15" s="3">
         <v>13700</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>13000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>12300</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>12400</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>12700</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>13600</v>
-      </c>
-      <c r="K15" s="3">
-        <v>13700</v>
       </c>
       <c r="L15" s="3">
         <v>13700</v>
       </c>
       <c r="M15" s="3">
+        <v>13700</v>
+      </c>
+      <c r="N15" s="3">
         <v>9600</v>
-      </c>
-      <c r="N15" s="3">
-        <v>300</v>
       </c>
       <c r="O15" s="3">
         <v>300</v>
@@ -1172,22 +1194,25 @@
         <v>300</v>
       </c>
       <c r="Q15" s="3">
+        <v>300</v>
+      </c>
+      <c r="R15" s="3">
         <v>100</v>
       </c>
-      <c r="R15" s="3">
-        <v>0</v>
-      </c>
-      <c r="S15" s="3" t="s">
-        <v>10</v>
+      <c r="S15" s="3">
+        <v>0</v>
       </c>
       <c r="T15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="U15" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1206,126 +1231,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>198900</v>
+      </c>
+      <c r="E17" s="3">
         <v>182600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>175800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>157500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>157400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>141800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>140400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>117200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>127000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>145200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>116100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>67200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>63900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>63800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>66100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>62300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>67800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>61700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>59000</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>57400</v>
+      </c>
+      <c r="E18" s="3">
         <v>58800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>49800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>43100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>36000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>27500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>14700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>9300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>7900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-5300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-18000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>5900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>3700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>3300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>10900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>14300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>20800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>20600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>19200</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1347,126 +1379,133 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E20" s="3">
         <v>100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-100</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>-900</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>3200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>900</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>400</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>73400</v>
+      </c>
+      <c r="E21" s="3">
         <v>75100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>67100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>59600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>52100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>42600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>31200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>26200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>24300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>12800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-6100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>8800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>7200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>6000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>13600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>16200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>22200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>22600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>21100</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1500,14 +1539,14 @@
       <c r="M22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N22" s="3">
-        <v>0</v>
+      <c r="N22" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="O22" s="3">
         <v>0</v>
       </c>
       <c r="P22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q22" s="3">
         <v>100</v>
@@ -1516,134 +1555,143 @@
         <v>100</v>
       </c>
       <c r="S22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T22" s="3">
+        <v>0</v>
+      </c>
+      <c r="U22" s="3">
         <v>100</v>
       </c>
-      <c r="U22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>57300</v>
+      </c>
+      <c r="E23" s="3">
         <v>58900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>50100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>43100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>36000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>26600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>14500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>8900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>7400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-4000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-14800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>6200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>4600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>3500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>11600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>14500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>20600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>20800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>19400</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E24" s="3">
         <v>5600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>3300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>6600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>900</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>2500</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-5400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>800</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
       <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
         <v>400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-5600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>1900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-400</v>
-      </c>
-      <c r="R24" s="3">
-        <v>2900</v>
       </c>
       <c r="S24" s="3">
         <v>2900</v>
       </c>
       <c r="T24" s="3">
+        <v>2900</v>
+      </c>
+      <c r="U24" s="3">
         <v>4400</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>5700</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1701,126 +1749,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>51600</v>
+      </c>
+      <c r="E26" s="3">
         <v>53300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>46700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>36400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>35100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>24100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>19900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>8100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>7400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-4400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-9200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>4200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>3900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>3000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>12000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>11600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>17700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>16400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>13700</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>51600</v>
+      </c>
+      <c r="E27" s="3">
         <v>53300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>46700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>36400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>35100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>24100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>19900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>8100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>7400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-4400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-9200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>4200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>3900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>3000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>12000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>11600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>17700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>16400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>13700</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1878,8 +1935,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1916,8 +1976,8 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>10</v>
+      <c r="O29" s="3">
+        <v>0</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>10</v>
@@ -1934,11 +1994,14 @@
       <c r="T29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="U29" s="3">
+      <c r="U29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="V29" s="3">
         <v>-2900</v>
       </c>
     </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1996,8 +2059,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2055,126 +2121,135 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>200</v>
+      </c>
+      <c r="E32" s="3">
         <v>-100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>100</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>900</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-3200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-900</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-400</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>51600</v>
+      </c>
+      <c r="E33" s="3">
         <v>53300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>46700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>36400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>35100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>24100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>19900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>8100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>7400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-4400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-9200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>4200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>3900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>3000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>12000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>11600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>17700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>16400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>10800</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2232,131 +2307,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>51600</v>
+      </c>
+      <c r="E35" s="3">
         <v>53300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>46700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>36400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>35100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>24100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>19900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>8100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>7400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-4400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-9200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>4200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>3900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>3000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>12000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>11600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>17700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>16400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>10800</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44744</v>
+      </c>
+      <c r="E38" s="2">
         <v>44653</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44562</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44464</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44373</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44282</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44191</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44100</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44009</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43918</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43736</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43645</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43554</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43463</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43372</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43099</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2378,8 +2462,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2401,362 +2486,381 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>180200</v>
+      </c>
+      <c r="E41" s="3">
         <v>172500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>169600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>152200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>134200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>126500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>136700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>101600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>129400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>101300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>130700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>51000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>94000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>95200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>111000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>96100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>86200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>65900</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>34900</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>364800</v>
+      </c>
+      <c r="E42" s="3">
         <v>369400</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>341700</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>309300</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>276600</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>266500</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>237000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>238800</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>182700</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>190600</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>189600</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>93100</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>50900</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>52900</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>40800</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>76800</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>62500</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>58000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>82100</v>
       </c>
     </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>234700</v>
+      </c>
+      <c r="E43" s="3">
         <v>206700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>177200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>179800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>174700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>141900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>149300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>131400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>137500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>149200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>123700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>57000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>51600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>45300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>50900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>50300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>54600</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>59000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>62500</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>280600</v>
+      </c>
+      <c r="E44" s="3">
         <v>263000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>243100</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>222300</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>207000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>200900</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>191200</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>185000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>171800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>160500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>176100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>69800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>67600</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>63800</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>62100</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>60700</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>56100</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>54600</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>54400</v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>25300</v>
+      </c>
+      <c r="E45" s="3">
         <v>20600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>16400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>21800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>19100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>19200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>17500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>19900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>23500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>26800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>21600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>7400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>8000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>7200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>6100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>7100</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>9900</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>6900</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>6200</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1085600</v>
+      </c>
+      <c r="E46" s="3">
         <v>1032200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>948100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>885500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>811600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>754800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>731700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>676700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>644900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>628500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>641700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>278300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>272200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>264400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>270900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>291100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>269300</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>244400</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>240100</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2814,126 +2918,135 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>101500</v>
+      </c>
+      <c r="E48" s="3">
         <v>101900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>99600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>104400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>108500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>109600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>107600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>112800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>116800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>119400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>122000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>62400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>63500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>62100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>47900</v>
-      </c>
-      <c r="R48" s="3">
-        <v>43100</v>
       </c>
       <c r="S48" s="3">
         <v>43100</v>
       </c>
       <c r="T48" s="3">
+        <v>43100</v>
+      </c>
+      <c r="U48" s="3">
         <v>43800</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>44800</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>565600</v>
+      </c>
+      <c r="E49" s="3">
         <v>579300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>593100</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>606800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>619800</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>632100</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>625000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>638500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>652200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>665800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>679100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>51400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>52100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>52900</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>53700</v>
-      </c>
-      <c r="R49" s="3">
-        <v>14700</v>
       </c>
       <c r="S49" s="3">
         <v>14700</v>
       </c>
       <c r="T49" s="3">
+        <v>14700</v>
+      </c>
+      <c r="U49" s="3">
         <v>13800</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>12400</v>
       </c>
     </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2991,8 +3104,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3050,67 +3166,73 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>8800</v>
+      </c>
+      <c r="E52" s="3">
         <v>9000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>9100</v>
-      </c>
-      <c r="F52" s="3">
-        <v>6600</v>
       </c>
       <c r="G52" s="3">
         <v>6600</v>
       </c>
       <c r="H52" s="3">
+        <v>6600</v>
+      </c>
+      <c r="I52" s="3">
         <v>7200</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>3900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>2700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>2800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>2700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>5800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>4100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>3300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>2900</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>3200</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>7500</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>7700</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>10000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>12300</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3168,67 +3290,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1761500</v>
+      </c>
+      <c r="E54" s="3">
         <v>1722400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1649800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1603300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1546500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1503700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1468200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1430700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1416800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1416400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1448600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>396200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>391100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>382300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>375600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>356500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>334800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>312000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>309700</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3250,8 +3378,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3273,67 +3402,71 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>72200</v>
+      </c>
+      <c r="E57" s="3">
         <v>70800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>53300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>50900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>46700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>45600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>40200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>37500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>34300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>32200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>27700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>17500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>19500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>18900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>16500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>20900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>19000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>18500</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>13900</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3391,126 +3524,135 @@
       <c r="U58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>104400</v>
+      </c>
+      <c r="E59" s="3">
         <v>113900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>101200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>97800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>86500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>80800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>79900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>59700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>64400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>62100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>58000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>32300</v>
-      </c>
-      <c r="O59" s="3">
-        <v>31500</v>
       </c>
       <c r="P59" s="3">
         <v>31500</v>
       </c>
       <c r="Q59" s="3">
+        <v>31500</v>
+      </c>
+      <c r="R59" s="3">
         <v>43200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>38200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>34100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>29400</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>30200</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>176700</v>
+      </c>
+      <c r="E60" s="3">
         <v>184700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>154500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>148600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>133200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>126400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>120100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>97200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>98700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>94300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>85700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>49800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>51000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>50400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>59800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>59100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>53000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>47900</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>44100</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3568,67 +3710,73 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>56900</v>
+      </c>
+      <c r="E62" s="3">
         <v>65400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>69200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>81100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>83800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>85000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>83300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>95800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>96800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>96300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>98800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>10600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>11200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>11500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>3000</v>
-      </c>
-      <c r="R62" s="3">
-        <v>3300</v>
       </c>
       <c r="S62" s="3">
         <v>3300</v>
       </c>
       <c r="T62" s="3">
+        <v>3300</v>
+      </c>
+      <c r="U62" s="3">
         <v>3400</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3686,8 +3834,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3745,8 +3896,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3804,67 +3958,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>233500</v>
+      </c>
+      <c r="E66" s="3">
         <v>250100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>223800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>229700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>216900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>211400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>203400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>193000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>195600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>190600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>184600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>60500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>62100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>61900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>62800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>62400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>56300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>51300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>47300</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3886,8 +4046,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3945,8 +4106,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4004,8 +4168,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4063,8 +4230,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4122,67 +4292,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>273400</v>
+      </c>
+      <c r="E72" s="3">
         <v>221800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>168500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>121800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>85300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>50300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>26200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>6200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-1800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-9300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-4900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>78500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>74300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>70400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>67400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>55400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>43800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>26100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>9100</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4240,8 +4416,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4299,8 +4478,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4358,67 +4540,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1527900</v>
+      </c>
+      <c r="E76" s="3">
         <v>1472300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1426100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1373600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1329600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1292300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1264700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1237700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1221200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1225800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1264000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>335800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>329000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>320400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>312900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>294100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>278500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>260700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>262400</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4476,131 +4664,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44744</v>
+      </c>
+      <c r="E80" s="2">
         <v>44653</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44562</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44464</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44373</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44282</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44191</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44100</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44009</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43918</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43736</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43645</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43554</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43463</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43372</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43099</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>51600</v>
+      </c>
+      <c r="E81" s="3">
         <v>53300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>46700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>36400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>35100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>24100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>19900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>8100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>7400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-4400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-9200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>4200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>3900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>3000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>12000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>11600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>17700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>16400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>10800</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4622,67 +4819,71 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>16100</v>
+      </c>
+      <c r="E83" s="3">
         <v>16200</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>17100</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>16600</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>16200</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>16000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>16700</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>17200</v>
-      </c>
-      <c r="K83" s="3">
-        <v>16800</v>
       </c>
       <c r="L83" s="3">
         <v>16800</v>
       </c>
       <c r="M83" s="3">
+        <v>16800</v>
+      </c>
+      <c r="N83" s="3">
         <v>8700</v>
-      </c>
-      <c r="N83" s="3">
-        <v>2700</v>
       </c>
       <c r="O83" s="3">
         <v>2700</v>
       </c>
       <c r="P83" s="3">
+        <v>2700</v>
+      </c>
+      <c r="Q83" s="3">
         <v>2400</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>1900</v>
-      </c>
-      <c r="R83" s="3">
-        <v>1600</v>
       </c>
       <c r="S83" s="3">
         <v>1600</v>
       </c>
       <c r="T83" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="U83" s="3">
         <v>1700</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4740,8 +4941,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4799,8 +5003,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4858,8 +5065,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4917,8 +5127,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4976,67 +5189,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>9900</v>
+      </c>
+      <c r="E89" s="3">
         <v>45500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>49000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>49900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>25400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>51000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>33100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>26000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>38000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>8900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>19300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-1400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>19900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>24400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>26300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>32700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5058,67 +5277,71 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-2500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-5700</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-3900</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>3100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-1600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-4200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-4100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-4500</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-1200</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-400</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-1300</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-2900</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5176,8 +5399,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5235,67 +5461,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-33300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-30900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-34500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-16000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-60300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>1100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-57100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>9900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-2600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>65000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-43700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-16000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-4700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-15300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-5800</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>21600</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>11100</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5317,8 +5549,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5376,8 +5609,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5435,8 +5671,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5494,8 +5733,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5553,181 +5795,193 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E100" s="3">
         <v>-7600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>3000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>2900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-3900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>2400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-20500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-35000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-6200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>1500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-22900</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-25400</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="E101" s="3">
         <v>-1700</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-3800</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-200</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>2300</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-1500</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>1400</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>900</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>700</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-600</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-300</v>
       </c>
-      <c r="O101" s="3">
-        <v>0</v>
-      </c>
       <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
         <v>300</v>
-      </c>
-      <c r="Q101" s="3">
-        <v>100</v>
       </c>
       <c r="R101" s="3">
         <v>100</v>
       </c>
       <c r="S101" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T101" s="3">
+        <v>0</v>
+      </c>
+      <c r="U101" s="3">
         <v>-400</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>7700</v>
+      </c>
+      <c r="E102" s="3">
         <v>2900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>17400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>18000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>7800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-10300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>35100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-27800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>28100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-29400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>78200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-43000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-1200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-15700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>14800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>9900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>20300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>31000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-9100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ONTO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ONTO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="92">
   <si>
     <t>ONTO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,282 +665,294 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="7" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44835</v>
+      </c>
+      <c r="E7" s="2">
         <v>44744</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44653</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44562</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44464</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44282</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44191</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44009</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43918</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43736</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43645</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43554</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43463</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43372</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43099</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>254300</v>
+      </c>
+      <c r="E8" s="3">
         <v>256300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>241400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>225600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>200600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>193400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>169300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>155100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>126500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>134900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>139900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>98100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>73100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>67600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>67100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>77000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>76600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>88600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>82300</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>78200</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>115400</v>
+      </c>
+      <c r="E9" s="3">
         <v>124200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>110300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>101800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>91200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>87900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>78800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>79800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>57600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>63400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>77300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>70700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>34400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>32400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>33300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>35000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>33000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>37700</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>34800</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>34200</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>138900</v>
+      </c>
+      <c r="E10" s="3">
         <v>132100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>131100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>123800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>109400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>105500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>90500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>75300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>68900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>71500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>62600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>27400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>38700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>35200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>33800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>42000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>43600</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>50900</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>47500</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>44000</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -963,70 +975,74 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>32200</v>
+      </c>
+      <c r="E12" s="3">
         <v>25600</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>26300</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>24800</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>23800</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>25500</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>22000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>21800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>9800</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>10300</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>9700</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>7500</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>13800</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>14100</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>13000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>12800</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>12700</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>12500</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>10200</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>10100</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1087,8 +1103,11 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1113,35 +1132,35 @@
       <c r="J14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L14" s="3">
         <v>24300</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>27200</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>29800</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>-3300</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>2400</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>900</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
-      <c r="T14" s="3" t="s">
+      <c r="S14" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="T14" s="3">
+        <v>0</v>
       </c>
       <c r="U14" s="3" t="s">
         <v>10</v>
@@ -1149,8 +1168,11 @@
       <c r="V14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1161,34 +1183,34 @@
         <v>13800</v>
       </c>
       <c r="F15" s="3">
+        <v>13800</v>
+      </c>
+      <c r="G15" s="3">
         <v>13700</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>13000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>12300</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>12400</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>12700</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>13600</v>
-      </c>
-      <c r="L15" s="3">
-        <v>13700</v>
       </c>
       <c r="M15" s="3">
         <v>13700</v>
       </c>
       <c r="N15" s="3">
+        <v>13700</v>
+      </c>
+      <c r="O15" s="3">
         <v>9600</v>
-      </c>
-      <c r="O15" s="3">
-        <v>300</v>
       </c>
       <c r="P15" s="3">
         <v>300</v>
@@ -1197,22 +1219,25 @@
         <v>300</v>
       </c>
       <c r="R15" s="3">
+        <v>300</v>
+      </c>
+      <c r="S15" s="3">
         <v>100</v>
       </c>
-      <c r="S15" s="3">
-        <v>0</v>
-      </c>
-      <c r="T15" s="3" t="s">
-        <v>10</v>
+      <c r="T15" s="3">
+        <v>0</v>
       </c>
       <c r="U15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="V15" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="V15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,132 +1257,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>194900</v>
+      </c>
+      <c r="E17" s="3">
         <v>198900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>182600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>175800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>157500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>157400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>141800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>140400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>117200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>127000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>145200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>116100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>67200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>63900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>63800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>66100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>62300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>67800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>61700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>59000</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>59400</v>
+      </c>
+      <c r="E18" s="3">
         <v>57400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>58800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>49800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>43100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>36000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>27500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>14700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>9300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>7900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-5300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-18000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>5900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>3700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>3300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>10900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>14300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>20800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>20600</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>19200</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,132 +1412,139 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>500</v>
+      </c>
+      <c r="E20" s="3">
         <v>-200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-100</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>-900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>3200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>900</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>400</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>76000</v>
+      </c>
+      <c r="E21" s="3">
         <v>73400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>75100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>67100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>59600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>52100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>42600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>31200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>26200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>24300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>12800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-6100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>8800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>7200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>6000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>13600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>16200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>22200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>22600</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>21100</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1542,14 +1581,14 @@
       <c r="N22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O22" s="3">
-        <v>0</v>
+      <c r="O22" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="P22" s="3">
         <v>0</v>
       </c>
       <c r="Q22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R22" s="3">
         <v>100</v>
@@ -1558,140 +1597,149 @@
         <v>100</v>
       </c>
       <c r="T22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U22" s="3">
+        <v>0</v>
+      </c>
+      <c r="V22" s="3">
         <v>100</v>
       </c>
-      <c r="V22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>59900</v>
+      </c>
+      <c r="E23" s="3">
         <v>57300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>58900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>50100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>43100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>36000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>26600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>14500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>8900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>7400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-4000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-14800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>6200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>4600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>3500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>11600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>14500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>20600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>20800</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>19400</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>7600</v>
+      </c>
+      <c r="E24" s="3">
         <v>5700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>5600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>3300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>6600</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>900</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>2500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-5400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>800</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
       <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
         <v>400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-5600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>1900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-400</v>
-      </c>
-      <c r="S24" s="3">
-        <v>2900</v>
       </c>
       <c r="T24" s="3">
         <v>2900</v>
       </c>
       <c r="U24" s="3">
+        <v>2900</v>
+      </c>
+      <c r="V24" s="3">
         <v>4400</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>5700</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,132 +1800,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>52200</v>
+      </c>
+      <c r="E26" s="3">
         <v>51600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>53300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>46700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>36400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>35100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>24100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>19900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>8100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>7400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-4400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-9200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>4200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>3900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>3000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>12000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>11600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>17700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>16400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>13700</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>52200</v>
+      </c>
+      <c r="E27" s="3">
         <v>51600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>53300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>46700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>36400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>35100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>24100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>19900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>8100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>7400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-4400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-9200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>4200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>3900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>3000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>12000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>11600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>17700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>16400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>13700</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,8 +1995,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1979,8 +2039,8 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>10</v>
+      <c r="P29" s="3">
+        <v>0</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>10</v>
@@ -1997,11 +2057,14 @@
       <c r="U29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="V29" s="3">
+      <c r="V29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="W29" s="3">
         <v>-2900</v>
       </c>
     </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2125,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,132 +2190,141 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E32" s="3">
         <v>200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>100</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-3200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-900</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>200</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-400</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>52200</v>
+      </c>
+      <c r="E33" s="3">
         <v>51600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>53300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>46700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>36400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>35100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>24100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>19900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>8100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>7400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-4400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-9200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>4200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>3900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>3000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>12000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>11600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>17700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>16400</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>10800</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,137 +2385,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>52200</v>
+      </c>
+      <c r="E35" s="3">
         <v>51600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>53300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>46700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>36400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>35100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>24100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>19900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>8100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>7400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-4400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-9200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>4200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>3900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>3000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>12000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>11600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>17700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>16400</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>10800</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44835</v>
+      </c>
+      <c r="E38" s="2">
         <v>44744</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44653</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44562</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44464</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44282</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44191</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44009</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43918</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43736</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43645</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43554</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43463</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43372</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43099</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2547,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,380 +2572,399 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>200400</v>
+      </c>
+      <c r="E41" s="3">
         <v>180200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>172500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>169600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>152200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>134200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>126500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>136700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>101600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>129400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>101300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>130700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>51000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>94000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>95200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>111000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>96100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>86200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>65900</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>34900</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>352300</v>
+      </c>
+      <c r="E42" s="3">
         <v>364800</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>369400</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>341700</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>309300</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>276600</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>266500</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>237000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>238800</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>182700</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>190600</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>189600</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>93100</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>50900</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>52900</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>40800</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>76800</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>62500</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>58000</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>82100</v>
       </c>
     </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>235500</v>
+      </c>
+      <c r="E43" s="3">
         <v>234700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>206700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>177200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>179800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>174700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>141900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>149300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>131400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>137500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>149200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>123700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>57000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>51600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>45300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>50900</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>50300</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>54600</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>59000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>62500</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>307900</v>
+      </c>
+      <c r="E44" s="3">
         <v>280600</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>263000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>243100</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>222300</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>207000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>200900</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>191200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>185000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>171800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>160500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>176100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>69800</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>67600</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>63800</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>62100</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>60700</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>56100</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>54600</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>54400</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>26500</v>
+      </c>
+      <c r="E45" s="3">
         <v>25300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>20600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>16400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>21800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>19100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>19200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>17500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>19900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>23500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>26800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>21600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>7400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>8000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>7200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>6100</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>7100</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>9900</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>6900</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>6200</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1122600</v>
+      </c>
+      <c r="E46" s="3">
         <v>1085600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1032200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>948100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>885500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>811600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>754800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>731700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>676700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>644900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>628500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>641700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>278300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>272200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>264400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>270900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>291100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>269300</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>244400</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>240100</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2921,132 +3025,141 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>104800</v>
+      </c>
+      <c r="E48" s="3">
         <v>101500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>101900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>99600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>104400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>108500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>109600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>107600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>112800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>116800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>119400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>122000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>62400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>63500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>62100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>47900</v>
-      </c>
-      <c r="S48" s="3">
-        <v>43100</v>
       </c>
       <c r="T48" s="3">
         <v>43100</v>
       </c>
       <c r="U48" s="3">
+        <v>43100</v>
+      </c>
+      <c r="V48" s="3">
         <v>43800</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>44800</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>551800</v>
+      </c>
+      <c r="E49" s="3">
         <v>565600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>579300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>593100</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>606800</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>619800</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>632100</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>625000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>638500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>652200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>665800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>679100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>51400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>52100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>52900</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>53700</v>
-      </c>
-      <c r="S49" s="3">
-        <v>14700</v>
       </c>
       <c r="T49" s="3">
         <v>14700</v>
       </c>
       <c r="U49" s="3">
+        <v>14700</v>
+      </c>
+      <c r="V49" s="3">
         <v>13800</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>12400</v>
       </c>
     </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3220,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,70 +3285,76 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>8600</v>
+      </c>
+      <c r="E52" s="3">
         <v>8800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>9000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>9100</v>
-      </c>
-      <c r="G52" s="3">
-        <v>6600</v>
       </c>
       <c r="H52" s="3">
         <v>6600</v>
       </c>
       <c r="I52" s="3">
+        <v>6600</v>
+      </c>
+      <c r="J52" s="3">
         <v>7200</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>3900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>2700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>2800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>2700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>5800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>4100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>3300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>2900</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>3200</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>7500</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>7700</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>10000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>12300</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,70 +3415,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1787800</v>
+      </c>
+      <c r="E54" s="3">
         <v>1761500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1722400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1649800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1603300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1546500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1503700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1468200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1430700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1416800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1416400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1448600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>396200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>391100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>382300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>375600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>356500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>334800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>312000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>309700</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3507,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,70 +3532,74 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>64000</v>
+      </c>
+      <c r="E57" s="3">
         <v>72200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>70800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>53300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>50900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>46700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>45600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>40200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>37500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>34300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>32200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>27700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>17500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>19500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>18900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>16500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>20900</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>19000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>18500</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>13900</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3527,132 +3660,141 @@
       <c r="V58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>105600</v>
+      </c>
+      <c r="E59" s="3">
         <v>104400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>113900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>101200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>97800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>86500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>80800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>79900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>59700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>64400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>62100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>58000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>32300</v>
-      </c>
-      <c r="P59" s="3">
-        <v>31500</v>
       </c>
       <c r="Q59" s="3">
         <v>31500</v>
       </c>
       <c r="R59" s="3">
+        <v>31500</v>
+      </c>
+      <c r="S59" s="3">
         <v>43200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>38200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>34100</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>29400</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>30200</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>169600</v>
+      </c>
+      <c r="E60" s="3">
         <v>176700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>184700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>154500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>148600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>133200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>126400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>120100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>97200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>98700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>94300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>85700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>49800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>51000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>50400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>59800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>59100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>53000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>47900</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>44100</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3713,70 +3855,76 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>48800</v>
+      </c>
+      <c r="E62" s="3">
         <v>56900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>65400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>69200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>81100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>83800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>85000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>83300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>95800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>96800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>96300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>98800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>10600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>11200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>11500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>3000</v>
-      </c>
-      <c r="S62" s="3">
-        <v>3300</v>
       </c>
       <c r="T62" s="3">
         <v>3300</v>
       </c>
       <c r="U62" s="3">
+        <v>3300</v>
+      </c>
+      <c r="V62" s="3">
         <v>3400</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +3985,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4050,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,70 +4115,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>218400</v>
+      </c>
+      <c r="E66" s="3">
         <v>233500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>250100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>223800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>229700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>216900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>211400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>203400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>193000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>195600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>190600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>184600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>60500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>62100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>61900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>62800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>62400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>56300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>51300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>47300</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4207,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4270,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4335,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4233,8 +4400,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,70 +4465,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>325600</v>
+      </c>
+      <c r="E72" s="3">
         <v>273400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>221800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>168500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>121800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>85300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>50300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>26200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>6200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-1800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-9300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-4900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>78500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>74300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>70400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>67400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>55400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>43800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>26100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>9100</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4595,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4660,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,70 +4725,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1569400</v>
+      </c>
+      <c r="E76" s="3">
         <v>1527900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1472300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1426100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1373600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1329600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1292300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1264700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1237700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1221200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1225800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1264000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>335800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>329000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>320400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>312900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>294100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>278500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>260700</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>262400</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,137 +4855,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44835</v>
+      </c>
+      <c r="E80" s="2">
         <v>44744</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44653</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44562</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44464</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44282</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44191</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44009</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43918</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43736</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43645</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43554</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43463</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43372</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43099</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>52200</v>
+      </c>
+      <c r="E81" s="3">
         <v>51600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>53300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>46700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>36400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>35100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>24100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>19900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>8100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>7400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-4400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-9200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>4200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>3900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>3000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>12000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>11600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>17700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>16400</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>10800</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,8 +5017,9 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4829,61 +5027,64 @@
         <v>16100</v>
       </c>
       <c r="E83" s="3">
+        <v>16100</v>
+      </c>
+      <c r="F83" s="3">
         <v>16200</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>17100</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>16600</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>16200</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>16000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>16700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>17200</v>
-      </c>
-      <c r="L83" s="3">
-        <v>16800</v>
       </c>
       <c r="M83" s="3">
         <v>16800</v>
       </c>
       <c r="N83" s="3">
+        <v>16800</v>
+      </c>
+      <c r="O83" s="3">
         <v>8700</v>
-      </c>
-      <c r="O83" s="3">
-        <v>2700</v>
       </c>
       <c r="P83" s="3">
         <v>2700</v>
       </c>
       <c r="Q83" s="3">
+        <v>2700</v>
+      </c>
+      <c r="R83" s="3">
         <v>2400</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>1900</v>
-      </c>
-      <c r="S83" s="3">
-        <v>1600</v>
       </c>
       <c r="T83" s="3">
         <v>1600</v>
       </c>
       <c r="U83" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="V83" s="3">
         <v>1700</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5145,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5210,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5275,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5340,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,70 +5405,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>31800</v>
+      </c>
+      <c r="E89" s="3">
         <v>9900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>45500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>49000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>49900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>25400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>51000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>33100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>26000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>38000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>8900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>19300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>19900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>24400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>26300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>32700</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,70 +5497,74 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E91" s="3">
         <v>-4400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-2500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-5700</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-3900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>3100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-1600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-4200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-4100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-4500</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-1200</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-400</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-1300</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-2900</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5625,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,70 +5690,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E94" s="3">
         <v>100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-33300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-30900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-34500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-16000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-60300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>1100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-57100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>9900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-2600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>65000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-43700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-16000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-4700</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-15300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-5800</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>21600</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>11100</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,8 +5782,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5612,8 +5845,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +5910,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +5975,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,70 +6040,76 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-11800</v>
+      </c>
+      <c r="E100" s="3">
         <v>1400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-7600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>3000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>2900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-3900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>2400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-20500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-35000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-6200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>1500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-22900</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-25400</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5869,119 +6117,125 @@
         <v>-3800</v>
       </c>
       <c r="E101" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="F101" s="3">
         <v>-1700</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-3800</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-200</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>2300</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-1500</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>1400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>900</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>700</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-600</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>200</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-300</v>
       </c>
-      <c r="P101" s="3">
-        <v>0</v>
-      </c>
       <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
         <v>300</v>
-      </c>
-      <c r="R101" s="3">
-        <v>100</v>
       </c>
       <c r="S101" s="3">
         <v>100</v>
       </c>
       <c r="T101" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U101" s="3">
+        <v>0</v>
+      </c>
+      <c r="V101" s="3">
         <v>-400</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>20200</v>
+      </c>
+      <c r="E102" s="3">
         <v>7700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>2900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>17400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>18000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>7800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-10300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>35100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-27800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>28100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-29400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>78200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-43000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-15700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>14800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>9900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>20300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>31000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-9100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ONTO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ONTO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
   <si>
     <t>ONTO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,294 +665,307 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44835</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44744</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44653</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44562</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44464</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44373</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44282</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44191</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44100</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44009</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43918</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43736</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43645</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43554</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43463</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43372</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43099</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>253300</v>
+      </c>
+      <c r="E8" s="3">
         <v>254300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>256300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>241400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>225600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>200600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>193400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>169300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>155100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>126500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>134900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>139900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>98100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>73100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>67600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>67100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>77000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>76600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>88600</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>82300</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>78200</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>116000</v>
+      </c>
+      <c r="E9" s="3">
         <v>115400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>124200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>110300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>101800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>91200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>87900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>78800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>79800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>57600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>63400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>77300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>70700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>34400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>32400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>33300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>35000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>33000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>37700</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>34800</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>34200</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>137300</v>
+      </c>
+      <c r="E10" s="3">
         <v>138900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>132100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>131100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>123800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>109400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>105500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>90500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>75300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>68900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>71500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>62600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>27400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>38700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>35200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>33800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>42000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>43600</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>50900</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>47500</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>44000</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -976,73 +989,77 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>27800</v>
+      </c>
+      <c r="E12" s="3">
         <v>32200</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>25600</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>26300</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>24800</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>23800</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>25500</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>22000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>21800</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>9800</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>10300</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>9700</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>7500</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>13800</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>14100</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>13000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>12800</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>12700</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>12500</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>10200</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>10100</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1106,8 +1123,11 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1135,35 +1155,35 @@
       <c r="K14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L14" s="3">
+      <c r="L14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M14" s="3">
         <v>24300</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>27200</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>29800</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>-3300</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>2400</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>900</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
-      <c r="U14" s="3" t="s">
+      <c r="T14" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="U14" s="3">
+        <v>0</v>
       </c>
       <c r="V14" s="3" t="s">
         <v>10</v>
@@ -1171,8 +1191,11 @@
       <c r="W14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1186,34 +1209,34 @@
         <v>13800</v>
       </c>
       <c r="G15" s="3">
+        <v>13800</v>
+      </c>
+      <c r="H15" s="3">
         <v>13700</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>13000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>12300</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>12400</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>12700</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>13600</v>
-      </c>
-      <c r="M15" s="3">
-        <v>13700</v>
       </c>
       <c r="N15" s="3">
         <v>13700</v>
       </c>
       <c r="O15" s="3">
+        <v>13700</v>
+      </c>
+      <c r="P15" s="3">
         <v>9600</v>
-      </c>
-      <c r="P15" s="3">
-        <v>300</v>
       </c>
       <c r="Q15" s="3">
         <v>300</v>
@@ -1222,22 +1245,25 @@
         <v>300</v>
       </c>
       <c r="S15" s="3">
+        <v>300</v>
+      </c>
+      <c r="T15" s="3">
         <v>100</v>
       </c>
-      <c r="T15" s="3">
-        <v>0</v>
-      </c>
-      <c r="U15" s="3" t="s">
-        <v>10</v>
+      <c r="U15" s="3">
+        <v>0</v>
       </c>
       <c r="V15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="W15" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="W15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1258,138 +1284,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>192100</v>
+      </c>
+      <c r="E17" s="3">
         <v>194900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>198900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>182600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>175800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>157500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>157400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>141800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>140400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>117200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>127000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>145200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>116100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>67200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>63900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>63800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>66100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>62300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>67800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>61700</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>59000</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>61200</v>
+      </c>
+      <c r="E18" s="3">
         <v>59400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>57400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>58800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>49800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>43100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>36000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>27500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>14700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>9300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>7900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-5300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-18000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>5900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>3700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>3300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>10900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>14300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>20800</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>20600</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>19200</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1413,161 +1446,168 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E20" s="3">
         <v>500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-100</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>-900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>1300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>3200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>800</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>900</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>300</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-200</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>400</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>81800</v>
+      </c>
+      <c r="E21" s="3">
         <v>76000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>73400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>75100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>67100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>59600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>52100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>42600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>31200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>26200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>24300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>12800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-6100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>8800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>7200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>6000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>13600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>16200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>22200</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>22600</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>21100</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>10</v>
+      <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
+        <v>0</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>10</v>
@@ -1584,14 +1624,14 @@
       <c r="O22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P22" s="3">
-        <v>0</v>
+      <c r="P22" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="Q22" s="3">
         <v>0</v>
       </c>
       <c r="R22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S22" s="3">
         <v>100</v>
@@ -1600,146 +1640,155 @@
         <v>100</v>
       </c>
       <c r="U22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V22" s="3">
+        <v>0</v>
+      </c>
+      <c r="W22" s="3">
         <v>100</v>
       </c>
-      <c r="W22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>65600</v>
+      </c>
+      <c r="E23" s="3">
         <v>59900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>57300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>58900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>50100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>43100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>36000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>26600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>14500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>8900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>7400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-4000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-14800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>6200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>4600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>3500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>11600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>14500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>20600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>20800</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>19400</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E24" s="3">
         <v>7600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>5700</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>5600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>3300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>6600</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>2500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-5400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>800</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
       <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
         <v>400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-5600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>1900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>500</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-400</v>
-      </c>
-      <c r="T24" s="3">
-        <v>2900</v>
       </c>
       <c r="U24" s="3">
         <v>2900</v>
       </c>
       <c r="V24" s="3">
+        <v>2900</v>
+      </c>
+      <c r="W24" s="3">
         <v>4400</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>5700</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1803,138 +1852,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>66200</v>
+      </c>
+      <c r="E26" s="3">
         <v>52200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>51600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>53300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>46700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>36400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>35100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>24100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>19900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>8100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>7400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-4400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-9200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>4200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>3900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>3000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>12000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>11600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>17700</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>16400</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>13700</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>66200</v>
+      </c>
+      <c r="E27" s="3">
         <v>52200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>51600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>53300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>46700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>36400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>35100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>24100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>19900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>8100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>7400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-4400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-9200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>4200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>3900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>3000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>12000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>11600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>17700</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>16400</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>13700</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1998,8 +2056,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2042,8 +2103,8 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-      <c r="Q29" s="3" t="s">
-        <v>10</v>
+      <c r="Q29" s="3">
+        <v>0</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>10</v>
@@ -2060,11 +2121,14 @@
       <c r="V29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="W29" s="3">
+      <c r="W29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="X29" s="3">
         <v>-2900</v>
       </c>
     </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2128,8 +2192,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2193,138 +2260,147 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="E32" s="3">
         <v>-500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>100</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-1300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-3200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-800</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-900</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-300</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>200</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-400</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>66200</v>
+      </c>
+      <c r="E33" s="3">
         <v>52200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>51600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>53300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>46700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>36400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>35100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>24100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>19900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>8100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>7400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-4400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-9200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>4200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>3900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>3000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>12000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>11600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>17700</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>16400</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>10800</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2388,143 +2464,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>66200</v>
+      </c>
+      <c r="E35" s="3">
         <v>52200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>51600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>53300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>46700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>36400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>35100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>24100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>19900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>8100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>7400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-4400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-9200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>4200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>3900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>3000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>12000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>11600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>17700</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>16400</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>10800</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44835</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44744</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44653</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44562</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44464</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44373</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44282</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44191</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44100</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44009</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43918</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43736</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43645</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43554</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43463</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43372</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43099</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2548,8 +2633,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2573,398 +2659,417 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>175900</v>
+      </c>
+      <c r="E41" s="3">
         <v>200400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>180200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>172500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>169600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>152200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>134200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>126500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>136700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>101600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>129400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>101300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>130700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>51000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>94000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>95200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>111000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>96100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>86200</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>65900</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>34900</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>371900</v>
+      </c>
+      <c r="E42" s="3">
         <v>352300</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>364800</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>369400</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>341700</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>309300</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>276600</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>266500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>237000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>238800</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>182700</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>190600</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>189600</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>93100</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>50900</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>52900</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>40800</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>76800</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>62500</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>58000</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>82100</v>
       </c>
     </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>241400</v>
+      </c>
+      <c r="E43" s="3">
         <v>235500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>234700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>206700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>177200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>179800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>174700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>141900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>149300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>131400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>137500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>149200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>123700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>57000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>51600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>45300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>50900</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>50300</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>54600</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>59000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>62500</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>324300</v>
+      </c>
+      <c r="E44" s="3">
         <v>307900</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>280600</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>263000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>243100</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>222300</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>207000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>200900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>191200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>185000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>171800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>160500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>176100</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>69800</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>67600</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>63800</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>62100</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>60700</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>56100</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>54600</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>54400</v>
       </c>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>21400</v>
+      </c>
+      <c r="E45" s="3">
         <v>26500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>25300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>20600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>16400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>21800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>19100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>19200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>17500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>19900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>23500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>26800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>21600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>7400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>8000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>7200</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>6100</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>7100</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>9900</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>6900</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>6200</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1134900</v>
+      </c>
+      <c r="E46" s="3">
         <v>1122600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1085600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1032200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>948100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>885500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>811600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>754800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>731700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>676700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>644900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>628500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>641700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>278300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>272200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>264400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>270900</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>291100</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>269300</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>244400</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>240100</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3028,138 +3133,147 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>112700</v>
+      </c>
+      <c r="E48" s="3">
         <v>104800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>101500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>101900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>99600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>104400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>108500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>109600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>107600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>112800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>116800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>119400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>122000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>62400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>63500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>62100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>47900</v>
-      </c>
-      <c r="T48" s="3">
-        <v>43100</v>
       </c>
       <c r="U48" s="3">
         <v>43100</v>
       </c>
       <c r="V48" s="3">
+        <v>43100</v>
+      </c>
+      <c r="W48" s="3">
         <v>43800</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>44800</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>538000</v>
+      </c>
+      <c r="E49" s="3">
         <v>551800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>565600</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>579300</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>593100</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>606800</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>619800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>632100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>625000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>638500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>652200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>665800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>679100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>51400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>52100</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>52900</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>53700</v>
-      </c>
-      <c r="T49" s="3">
-        <v>14700</v>
       </c>
       <c r="U49" s="3">
         <v>14700</v>
       </c>
       <c r="V49" s="3">
+        <v>14700</v>
+      </c>
+      <c r="W49" s="3">
         <v>13800</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>12400</v>
       </c>
     </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3223,8 +3337,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3288,73 +3405,79 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>9300</v>
+      </c>
+      <c r="E52" s="3">
         <v>8600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>8800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>9000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>9100</v>
-      </c>
-      <c r="H52" s="3">
-        <v>6600</v>
       </c>
       <c r="I52" s="3">
         <v>6600</v>
       </c>
       <c r="J52" s="3">
+        <v>6600</v>
+      </c>
+      <c r="K52" s="3">
         <v>7200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>3900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>2700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>2800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>2700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>5800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>4100</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>3300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>2900</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>3200</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>7500</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>7700</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>10000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>12300</v>
       </c>
     </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3418,73 +3541,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1794900</v>
+      </c>
+      <c r="E54" s="3">
         <v>1787800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1761500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1722400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1649800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1603300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1546500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1503700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1468200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1430700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1416800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1416400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1448600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>396200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>391100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>382300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>375600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>356500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>334800</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>312000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>309700</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3508,8 +3637,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3533,73 +3663,77 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>54500</v>
+      </c>
+      <c r="E57" s="3">
         <v>64000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>72200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>70800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>53300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>50900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>46700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>45600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>40200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>37500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>34300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>32200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>27700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>17500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>19500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>18900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>16500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>20900</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>19000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>18500</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>13900</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3663,138 +3797,147 @@
       <c r="W58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>106000</v>
+      </c>
+      <c r="E59" s="3">
         <v>105600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>104400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>113900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>101200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>97800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>86500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>80800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>79900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>59700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>64400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>62100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>58000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>32300</v>
-      </c>
-      <c r="Q59" s="3">
-        <v>31500</v>
       </c>
       <c r="R59" s="3">
         <v>31500</v>
       </c>
       <c r="S59" s="3">
+        <v>31500</v>
+      </c>
+      <c r="T59" s="3">
         <v>43200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>38200</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>34100</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>29400</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>30200</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>160600</v>
+      </c>
+      <c r="E60" s="3">
         <v>169600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>176700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>184700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>154500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>148600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>133200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>126400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>120100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>97200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>98700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>94300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>85700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>49800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>51000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>50400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>59800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>59100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>53000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>47900</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>44100</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3858,73 +4001,79 @@
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>37900</v>
+      </c>
+      <c r="E62" s="3">
         <v>48800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>56900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>65400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>69200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>81100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>83800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>85000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>83300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>95800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>96800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>96300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>98800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>10600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>11200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>11500</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>3000</v>
-      </c>
-      <c r="T62" s="3">
-        <v>3300</v>
       </c>
       <c r="U62" s="3">
         <v>3300</v>
       </c>
       <c r="V62" s="3">
+        <v>3300</v>
+      </c>
+      <c r="W62" s="3">
         <v>3400</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3988,8 +4137,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4053,8 +4205,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4118,73 +4273,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>198400</v>
+      </c>
+      <c r="E66" s="3">
         <v>218400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>233500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>250100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>223800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>229700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>216900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>211400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>203400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>193000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>195600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>190600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>184600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>60500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>62100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>61900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>62800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>62400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>56300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>51300</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>47300</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4208,8 +4369,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4273,8 +4435,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4338,8 +4503,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4403,8 +4571,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4468,73 +4639,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>362800</v>
+      </c>
+      <c r="E72" s="3">
         <v>325600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>273400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>221800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>168500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>121800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>85300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>50300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>26200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>6200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-1800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-9300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-4900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>78500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>74300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>70400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>67400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>55400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>43800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>26100</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>9100</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4598,8 +4775,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4663,8 +4843,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4728,73 +4911,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1596400</v>
+      </c>
+      <c r="E76" s="3">
         <v>1569400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1527900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1472300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1426100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1373600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1329600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1292300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1264700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1237700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1221200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1225800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1264000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>335800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>329000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>320400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>312900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>294100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>278500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>260700</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>262400</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4858,143 +5047,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44835</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44744</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44653</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44562</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44464</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44373</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44282</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44191</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44100</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44009</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43918</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43736</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43645</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43554</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43463</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43372</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43099</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>66200</v>
+      </c>
+      <c r="E81" s="3">
         <v>52200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>51600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>53300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>46700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>36400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>35100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>24100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>19900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>8100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>7400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-4400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-9200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>4200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>3900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>3000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>12000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>11600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>17700</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>16400</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>10800</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5018,73 +5216,77 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>16100</v>
+        <v>16200</v>
       </c>
       <c r="E83" s="3">
         <v>16100</v>
       </c>
       <c r="F83" s="3">
+        <v>16100</v>
+      </c>
+      <c r="G83" s="3">
         <v>16200</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>17100</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>16600</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>16200</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>16000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>16700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>17200</v>
-      </c>
-      <c r="M83" s="3">
-        <v>16800</v>
       </c>
       <c r="N83" s="3">
         <v>16800</v>
       </c>
       <c r="O83" s="3">
+        <v>16800</v>
+      </c>
+      <c r="P83" s="3">
         <v>8700</v>
-      </c>
-      <c r="P83" s="3">
-        <v>2700</v>
       </c>
       <c r="Q83" s="3">
         <v>2700</v>
       </c>
       <c r="R83" s="3">
+        <v>2700</v>
+      </c>
+      <c r="S83" s="3">
         <v>2400</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>1900</v>
-      </c>
-      <c r="T83" s="3">
-        <v>1600</v>
       </c>
       <c r="U83" s="3">
         <v>1600</v>
       </c>
       <c r="V83" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="W83" s="3">
         <v>1700</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5148,8 +5350,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5213,8 +5418,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5278,8 +5486,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5343,8 +5554,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5408,73 +5622,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>49500</v>
+      </c>
+      <c r="E89" s="3">
         <v>31800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>9900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>45500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>49000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>49900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>25400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>51000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>33100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>26000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>38000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>8900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>19300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-1400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>19900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>24400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>26300</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>32700</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5498,73 +5718,77 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-8600</v>
+      </c>
+      <c r="E91" s="3">
         <v>-2900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-4400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-2500</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-900</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1600</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-5700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-3900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-1000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>3100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-4200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-4100</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-4500</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-1200</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-400</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-1300</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-2900</v>
       </c>
     </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5628,8 +5852,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5693,73 +5920,79 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-26500</v>
+      </c>
+      <c r="E94" s="3">
         <v>4000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-33300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-30900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-34500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-16000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-60300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>1100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-57100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>9900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-2600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>65000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-43700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-1200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-16000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-4700</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-15300</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-5800</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>21600</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>11100</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5783,8 +6016,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5848,8 +6082,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5913,8 +6150,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5978,8 +6218,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6043,199 +6286,211 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-50500</v>
+      </c>
+      <c r="E100" s="3">
         <v>-11800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>1400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-7600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>3000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>2900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-3900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>2400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-20500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-35000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-6200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>1500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-500</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>700</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-100</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-22900</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-25400</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-3800</v>
+        <v>2900</v>
       </c>
       <c r="E101" s="3">
         <v>-3800</v>
       </c>
       <c r="F101" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="G101" s="3">
         <v>-1700</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-3800</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-200</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>2300</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-1500</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>1400</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>900</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>700</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-600</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>200</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-300</v>
       </c>
-      <c r="Q101" s="3">
-        <v>0</v>
-      </c>
       <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
         <v>300</v>
-      </c>
-      <c r="S101" s="3">
-        <v>100</v>
       </c>
       <c r="T101" s="3">
         <v>100</v>
       </c>
       <c r="U101" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V101" s="3">
+        <v>0</v>
+      </c>
+      <c r="W101" s="3">
         <v>-400</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-24500</v>
+      </c>
+      <c r="E102" s="3">
         <v>20200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>7700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>2900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>17400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>18000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>7800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-10300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>35100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-27800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>28100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-29400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>78200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-43000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-1200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-15700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>14800</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>9900</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>20300</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>31000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-9100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ONTO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ONTO_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,307 +665,320 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="8" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45017</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44835</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44744</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44653</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44562</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44464</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44282</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44191</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44009</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43918</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43736</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43645</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43554</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43463</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43372</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43099</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>199200</v>
+      </c>
+      <c r="E8" s="3">
         <v>253300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>254300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>256300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>241400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>225600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>200600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>193400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>169300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>155100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>126500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>134900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>139900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>98100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>73100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>67600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>67100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>77000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>76600</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>88600</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>82300</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>78200</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>91900</v>
+      </c>
+      <c r="E9" s="3">
         <v>116000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>115400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>124200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>110300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>101800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>91200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>87900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>78800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>79800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>57600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>63400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>77300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>70700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>34400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>32400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>33300</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>35000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>33000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>37700</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>34800</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>34200</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>107300</v>
+      </c>
+      <c r="E10" s="3">
         <v>137300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>138900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>132100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>131100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>123800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>109400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>105500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>90500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>75300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>68900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>71500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>62600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>27400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>38700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>35200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>33800</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>42000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>43600</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>50900</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>47500</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>44000</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -990,76 +1003,80 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>27200</v>
+      </c>
+      <c r="E12" s="3">
         <v>27800</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>32200</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>25600</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>26300</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>24800</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>23800</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>25500</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>22000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>21800</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>9800</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>10300</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>9700</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>7500</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>13800</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>14100</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>13000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>12800</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>12700</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>12500</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>10200</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>10100</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1126,13 +1143,16 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>10</v>
+      <c r="D14" s="3">
+        <v>2300</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>10</v>
@@ -1158,35 +1178,35 @@
       <c r="L14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M14" s="3">
+      <c r="M14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N14" s="3">
         <v>24300</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>27200</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>29800</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>-3300</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>2400</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>900</v>
-      </c>
-      <c r="S14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
-      <c r="V14" s="3" t="s">
+      <c r="U14" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="V14" s="3">
+        <v>0</v>
       </c>
       <c r="W14" s="3" t="s">
         <v>10</v>
@@ -1194,8 +1214,11 @@
       <c r="X14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1212,34 +1235,34 @@
         <v>13800</v>
       </c>
       <c r="H15" s="3">
+        <v>13800</v>
+      </c>
+      <c r="I15" s="3">
         <v>13700</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>13000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>12300</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>12400</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>12700</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>13600</v>
-      </c>
-      <c r="N15" s="3">
-        <v>13700</v>
       </c>
       <c r="O15" s="3">
         <v>13700</v>
       </c>
       <c r="P15" s="3">
+        <v>13700</v>
+      </c>
+      <c r="Q15" s="3">
         <v>9600</v>
-      </c>
-      <c r="Q15" s="3">
-        <v>300</v>
       </c>
       <c r="R15" s="3">
         <v>300</v>
@@ -1248,22 +1271,25 @@
         <v>300</v>
       </c>
       <c r="T15" s="3">
+        <v>300</v>
+      </c>
+      <c r="U15" s="3">
         <v>100</v>
       </c>
-      <c r="U15" s="3">
-        <v>0</v>
-      </c>
-      <c r="V15" s="3" t="s">
-        <v>10</v>
+      <c r="V15" s="3">
+        <v>0</v>
       </c>
       <c r="W15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="X15" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="X15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1285,144 +1311,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>170100</v>
+      </c>
+      <c r="E17" s="3">
         <v>192100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>194900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>198900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>182600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>175800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>157500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>157400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>141800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>140400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>117200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>127000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>145200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>116100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>67200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>63900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>63800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>66100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>62300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>67800</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>61700</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>59000</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>29100</v>
+      </c>
+      <c r="E18" s="3">
         <v>61200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>59400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>57400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>58800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>49800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>43100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>36000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>27500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>14700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>9300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>7900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-5300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-18000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>5900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>3700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>3300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>10900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>14300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>20800</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>20600</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>19200</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1447,144 +1480,151 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E20" s="3">
         <v>4300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-100</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>-900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>1300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>3200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>800</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>900</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>300</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-200</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>400</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>48900</v>
+      </c>
+      <c r="E21" s="3">
         <v>81800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>76000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>73400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>75100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>67100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>59600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>52100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>42600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>31200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>26200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>24300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>12800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-6100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>8800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>7200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>6000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>13600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>16200</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>22200</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>22600</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>21100</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1609,8 +1649,8 @@
       <c r="J22" s="3">
         <v>0</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>10</v>
+      <c r="K22" s="3">
+        <v>0</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>10</v>
@@ -1627,14 +1667,14 @@
       <c r="P22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q22" s="3">
-        <v>0</v>
+      <c r="Q22" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="R22" s="3">
         <v>0</v>
       </c>
       <c r="S22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T22" s="3">
         <v>100</v>
@@ -1643,152 +1683,161 @@
         <v>100</v>
       </c>
       <c r="V22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W22" s="3">
+        <v>0</v>
+      </c>
+      <c r="X22" s="3">
         <v>100</v>
       </c>
-      <c r="X22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>32200</v>
+      </c>
+      <c r="E23" s="3">
         <v>65600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>59900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>57300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>58900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>50100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>43100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>36000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>26600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>14500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>8900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>7400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-4000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-14800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>6200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>4600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>3500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>11600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>14500</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>20600</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>20800</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>19400</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E24" s="3">
         <v>-700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>7600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>5700</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>5600</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>3300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>6600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>2500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-5400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>800</v>
       </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
       <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
         <v>400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-5600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>1900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>500</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-400</v>
-      </c>
-      <c r="U24" s="3">
-        <v>2900</v>
       </c>
       <c r="V24" s="3">
         <v>2900</v>
       </c>
       <c r="W24" s="3">
+        <v>2900</v>
+      </c>
+      <c r="X24" s="3">
         <v>4400</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>5700</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1855,144 +1904,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>29100</v>
+      </c>
+      <c r="E26" s="3">
         <v>66200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>52200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>51600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>53300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>46700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>36400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>35100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>24100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>19900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>8100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>7400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-4400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-9200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>4200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>3900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>3000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>12000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>11600</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>17700</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>16400</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>13700</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>29100</v>
+      </c>
+      <c r="E27" s="3">
         <v>66200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>52200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>51600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>53300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>46700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>36400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>35100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>24100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>19900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>8100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>7400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-4400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-9200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>4200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>3900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>3000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>12000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>11600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>17700</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>16400</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>13700</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2059,8 +2117,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2106,8 +2167,8 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-      <c r="R29" s="3" t="s">
-        <v>10</v>
+      <c r="R29" s="3">
+        <v>0</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>10</v>
@@ -2124,11 +2185,14 @@
       <c r="W29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="X29" s="3">
+      <c r="X29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y29" s="3">
         <v>-2900</v>
       </c>
     </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2195,8 +2259,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2263,144 +2330,153 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="E32" s="3">
         <v>-4300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>100</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-1300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-3200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-800</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-900</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-300</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>200</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-400</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>29100</v>
+      </c>
+      <c r="E33" s="3">
         <v>66200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>52200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>51600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>53300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>46700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>36400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>35100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>24100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>19900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>8100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>7400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-4400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-9200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>4200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>3900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>3000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>12000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>11600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>17700</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>16400</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>10800</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2467,149 +2543,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>29100</v>
+      </c>
+      <c r="E35" s="3">
         <v>66200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>52200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>51600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>53300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>46700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>36400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>35100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>24100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>19900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>8100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>7400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-4400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-9200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>4200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>3900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>3000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>12000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>11600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>17700</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>16400</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>10800</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45017</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44835</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44744</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44653</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44562</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44464</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44282</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44191</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44009</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43918</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43736</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43645</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43554</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43463</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43372</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43099</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2634,8 +2719,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2660,416 +2746,435 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>230500</v>
+      </c>
+      <c r="E41" s="3">
         <v>175900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>200400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>180200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>172500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>169600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>152200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>134200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>126500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>136700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>101600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>129400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>101300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>130700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>51000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>94000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>95200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>111000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>96100</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>86200</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>65900</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>34900</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>353000</v>
+      </c>
+      <c r="E42" s="3">
         <v>371900</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>352300</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>364800</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>369400</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>341700</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>309300</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>276600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>266500</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>237000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>238800</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>182700</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>190600</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>189600</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>93100</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>50900</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>52900</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>40800</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>76800</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>62500</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>58000</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>82100</v>
       </c>
     </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>209600</v>
+      </c>
+      <c r="E43" s="3">
         <v>241400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>235500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>234700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>206700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>177200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>179800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>174700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>141900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>149300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>131400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>137500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>149200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>123700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>57000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>51600</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>45300</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>50900</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>50300</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>54600</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>59000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>62500</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>338400</v>
+      </c>
+      <c r="E44" s="3">
         <v>324300</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>307900</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>280600</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>263000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>243100</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>222300</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>207000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>200900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>191200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>185000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>171800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>160500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>176100</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>69800</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>67600</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>63800</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>62100</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>60700</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>56100</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>54600</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>54400</v>
       </c>
     </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>23600</v>
+      </c>
+      <c r="E45" s="3">
         <v>21400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>26500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>25300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>20600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>16400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>21800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>19100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>19200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>17500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>19900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>23500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>26800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>21600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>7400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>8000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>7200</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>6100</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>7100</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>9900</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>6900</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>6200</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1155100</v>
+      </c>
+      <c r="E46" s="3">
         <v>1134900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1122600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1085600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1032200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>948100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>885500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>811600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>754800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>731700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>676700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>644900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>628500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>641700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>278300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>272200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>264400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>270900</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>291100</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>269300</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>244400</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>240100</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3136,144 +3241,153 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>117300</v>
+      </c>
+      <c r="E48" s="3">
         <v>112700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>104800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>101500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>101900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>99600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>104400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>108500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>109600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>107600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>112800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>116800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>119400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>122000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>62400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>63500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>62100</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>47900</v>
-      </c>
-      <c r="U48" s="3">
-        <v>43100</v>
       </c>
       <c r="V48" s="3">
         <v>43100</v>
       </c>
       <c r="W48" s="3">
+        <v>43100</v>
+      </c>
+      <c r="X48" s="3">
         <v>43800</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>44800</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>524200</v>
+      </c>
+      <c r="E49" s="3">
         <v>538000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>551800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>565600</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>579300</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>593100</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>606800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>619800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>632100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>625000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>638500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>652200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>665800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>679100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>51400</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>52100</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>52900</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>53700</v>
-      </c>
-      <c r="U49" s="3">
-        <v>14700</v>
       </c>
       <c r="V49" s="3">
         <v>14700</v>
       </c>
       <c r="W49" s="3">
+        <v>14700</v>
+      </c>
+      <c r="X49" s="3">
         <v>13800</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>12400</v>
       </c>
     </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3340,8 +3454,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3408,76 +3525,82 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E52" s="3">
         <v>9300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>8600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>8800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>9000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>9100</v>
-      </c>
-      <c r="I52" s="3">
-        <v>6600</v>
       </c>
       <c r="J52" s="3">
         <v>6600</v>
       </c>
       <c r="K52" s="3">
+        <v>6600</v>
+      </c>
+      <c r="L52" s="3">
         <v>7200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>3900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>2700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>2800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>2700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>5800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>4100</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>3300</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>2900</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>3200</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>7500</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>7700</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>10000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>12300</v>
       </c>
     </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3544,76 +3667,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1802800</v>
+      </c>
+      <c r="E54" s="3">
         <v>1794900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1787800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1761500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1722400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1649800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1603300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1546500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1503700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1468200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1430700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1416800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1416400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1448600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>396200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>391100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>382300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>375600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>356500</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>334800</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>312000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>309700</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3638,8 +3767,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3664,76 +3794,80 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>53700</v>
+      </c>
+      <c r="E57" s="3">
         <v>54500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>64000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>72200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>70800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>53300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>50900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>46700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>45600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>40200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>37500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>34300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>32200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>27700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>17500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>19500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>18900</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>16500</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>20900</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>19000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>18500</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>13900</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3800,144 +3934,153 @@
       <c r="X58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>94700</v>
+      </c>
+      <c r="E59" s="3">
         <v>106000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>105600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>104400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>113900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>101200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>97800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>86500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>80800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>79900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>59700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>64400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>62100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>58000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>32300</v>
-      </c>
-      <c r="R59" s="3">
-        <v>31500</v>
       </c>
       <c r="S59" s="3">
         <v>31500</v>
       </c>
       <c r="T59" s="3">
+        <v>31500</v>
+      </c>
+      <c r="U59" s="3">
         <v>43200</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>38200</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>34100</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>29400</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>30200</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>148400</v>
+      </c>
+      <c r="E60" s="3">
         <v>160600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>169600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>176700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>184700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>154500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>148600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>133200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>126400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>120100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>97200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>98700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>94300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>85700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>49800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>51000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>50400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>59800</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>59100</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>53000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>47900</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>44100</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4004,76 +4147,82 @@
       <c r="X61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>29800</v>
+      </c>
+      <c r="E62" s="3">
         <v>37900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>48800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>56900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>65400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>69200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>81100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>83800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>85000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>83300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>95800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>96800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>96300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>98800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>10600</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>11200</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>11500</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>3000</v>
-      </c>
-      <c r="U62" s="3">
-        <v>3300</v>
       </c>
       <c r="V62" s="3">
         <v>3300</v>
       </c>
       <c r="W62" s="3">
+        <v>3300</v>
+      </c>
+      <c r="X62" s="3">
         <v>3400</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4140,8 +4289,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4208,8 +4360,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4276,76 +4431,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>178200</v>
+      </c>
+      <c r="E66" s="3">
         <v>198400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>218400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>233500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>250100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>223800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>229700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>216900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>211400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>203400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>193000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>195600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>190600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>184600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>60500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>62100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>61900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>62800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>62400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>56300</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>51300</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>47300</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4370,8 +4531,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4438,8 +4600,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4506,8 +4671,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4574,8 +4742,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4642,76 +4813,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>390300</v>
+      </c>
+      <c r="E72" s="3">
         <v>362800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>325600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>273400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>221800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>168500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>121800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>85300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>50300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>26200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>6200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-1800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-9300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-4900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>78500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>74300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>70400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>67400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>55400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>43800</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>26100</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>9100</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4778,8 +4955,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4846,8 +5026,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4914,76 +5097,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1624600</v>
+      </c>
+      <c r="E76" s="3">
         <v>1596400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1569400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1527900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1472300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1426100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1373600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1329600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1292300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1264700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1237700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1221200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1225800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1264000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>335800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>329000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>320400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>312900</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>294100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>278500</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>260700</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>262400</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5050,149 +5239,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45017</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44835</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44744</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44653</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44562</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44464</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44282</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44191</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44009</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43918</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43736</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43645</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43554</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43463</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43372</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43099</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>29100</v>
+      </c>
+      <c r="E81" s="3">
         <v>66200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>52200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>51600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>53300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>46700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>36400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>35100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>24100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>19900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>8100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>7400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-4400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-9200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>4200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>3900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>3000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>12000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>11600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>17700</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>16400</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>10800</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5217,76 +5415,80 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>16700</v>
+      </c>
+      <c r="E83" s="3">
         <v>16200</v>
-      </c>
-      <c r="E83" s="3">
-        <v>16100</v>
       </c>
       <c r="F83" s="3">
         <v>16100</v>
       </c>
       <c r="G83" s="3">
+        <v>16100</v>
+      </c>
+      <c r="H83" s="3">
         <v>16200</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>17100</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>16600</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>16200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>16000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>16700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>17200</v>
-      </c>
-      <c r="N83" s="3">
-        <v>16800</v>
       </c>
       <c r="O83" s="3">
         <v>16800</v>
       </c>
       <c r="P83" s="3">
+        <v>16800</v>
+      </c>
+      <c r="Q83" s="3">
         <v>8700</v>
-      </c>
-      <c r="Q83" s="3">
-        <v>2700</v>
       </c>
       <c r="R83" s="3">
         <v>2700</v>
       </c>
       <c r="S83" s="3">
+        <v>2700</v>
+      </c>
+      <c r="T83" s="3">
         <v>2400</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>1900</v>
-      </c>
-      <c r="U83" s="3">
-        <v>1600</v>
       </c>
       <c r="V83" s="3">
         <v>1600</v>
       </c>
       <c r="W83" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="X83" s="3">
         <v>1700</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5353,8 +5555,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5421,8 +5626,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5489,8 +5697,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5557,8 +5768,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5625,76 +5839,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>50100</v>
+      </c>
+      <c r="E89" s="3">
         <v>49500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>31800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>9900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>45500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>49000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>49900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>25400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>51000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>33100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>26000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>38000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>8900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>19300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-1400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>19900</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>24400</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>26300</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>32700</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5719,76 +5939,80 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-7900</v>
+      </c>
+      <c r="E91" s="3">
         <v>-8600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-2900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-4400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-2500</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-900</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-1600</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-5700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-3900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-1600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-1000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>3100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-1600</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-4200</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-4100</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-4500</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-1200</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-400</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-1300</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-2900</v>
       </c>
     </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5855,8 +6079,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5923,76 +6150,82 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>13200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-26500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>4000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-33300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-30900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-34500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-16000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-60300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>1100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-57100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>9900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-2600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>65000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-43700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-1200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-16000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-4700</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-15300</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-5800</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>21600</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>11100</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6017,8 +6250,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6085,8 +6319,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6153,8 +6390,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6221,8 +6461,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6289,208 +6532,220 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-9500</v>
+      </c>
+      <c r="E100" s="3">
         <v>-50500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-11800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>1400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-7600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>3000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>2900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-3900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>2400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-20500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-35000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-6200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>1500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-500</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>700</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-100</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-22900</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-25400</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>800</v>
+      </c>
+      <c r="E101" s="3">
         <v>2900</v>
-      </c>
-      <c r="E101" s="3">
-        <v>-3800</v>
       </c>
       <c r="F101" s="3">
         <v>-3800</v>
       </c>
       <c r="G101" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="H101" s="3">
         <v>-1700</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-3800</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-200</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>2300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-1500</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>1400</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>900</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>700</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-600</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>200</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-300</v>
       </c>
-      <c r="R101" s="3">
-        <v>0</v>
-      </c>
       <c r="S101" s="3">
+        <v>0</v>
+      </c>
+      <c r="T101" s="3">
         <v>300</v>
-      </c>
-      <c r="T101" s="3">
-        <v>100</v>
       </c>
       <c r="U101" s="3">
         <v>100</v>
       </c>
       <c r="V101" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W101" s="3">
+        <v>0</v>
+      </c>
+      <c r="X101" s="3">
         <v>-400</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>54600</v>
+      </c>
+      <c r="E102" s="3">
         <v>-24500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>20200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>7700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>2900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>17400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>18000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>7800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-10300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>35100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-27800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>28100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-29400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>78200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-43000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-1200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-15700</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>14800</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>9900</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>20300</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>31000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-9100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ONTO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ONTO_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,320 +665,332 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="9" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45108</v>
+      </c>
+      <c r="E7" s="2">
         <v>45017</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44835</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44744</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44653</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44562</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44464</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44282</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44191</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44009</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43918</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43736</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43645</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43554</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43463</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43372</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43099</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>190700</v>
+      </c>
+      <c r="E8" s="3">
         <v>199200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>253300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>254300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>256300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>241400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>225600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>200600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>193400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>169300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>155100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>126500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>134900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>139900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>98100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>73100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>67600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>67100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>77000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>76600</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>88600</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>82300</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>78200</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>90200</v>
+      </c>
+      <c r="E9" s="3">
         <v>91900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>116000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>115400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>124200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>110300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>101800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>91200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>87900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>78800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>79800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>57600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>63400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>77300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>70700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>34400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>32400</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>33300</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>35000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>33000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>37700</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>34800</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>34200</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>100500</v>
+      </c>
+      <c r="E10" s="3">
         <v>107300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>137300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>138900</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>132100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>131100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>123800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>109400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>105500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>90500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>75300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>68900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>71500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>62600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>27400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>38700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>35200</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>33800</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>42000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>43600</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>50900</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>47500</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>44000</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1004,79 +1016,83 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>27000</v>
+      </c>
+      <c r="E12" s="3">
         <v>27200</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>27800</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>32200</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>25600</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>26300</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>24800</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>23800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>25500</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>22000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>21800</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>9800</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>10300</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>9700</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>7500</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>13800</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>14100</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>13000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>12800</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>12700</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>12500</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>10200</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>10100</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1146,16 +1162,19 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>2300</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>10</v>
@@ -1181,35 +1200,35 @@
       <c r="M14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N14" s="3">
+      <c r="N14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O14" s="3">
         <v>24300</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>27200</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>29800</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>-3300</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>2400</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>900</v>
-      </c>
-      <c r="T14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="U14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
-      </c>
-      <c r="W14" s="3" t="s">
+      <c r="V14" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="W14" s="3">
+        <v>0</v>
       </c>
       <c r="X14" s="3" t="s">
         <v>10</v>
@@ -1217,8 +1236,11 @@
       <c r="Y14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1238,34 +1260,34 @@
         <v>13800</v>
       </c>
       <c r="I15" s="3">
+        <v>13800</v>
+      </c>
+      <c r="J15" s="3">
         <v>13700</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>13000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>12300</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>12400</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>12700</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>13600</v>
-      </c>
-      <c r="O15" s="3">
-        <v>13700</v>
       </c>
       <c r="P15" s="3">
         <v>13700</v>
       </c>
       <c r="Q15" s="3">
+        <v>13700</v>
+      </c>
+      <c r="R15" s="3">
         <v>9600</v>
-      </c>
-      <c r="R15" s="3">
-        <v>300</v>
       </c>
       <c r="S15" s="3">
         <v>300</v>
@@ -1274,22 +1296,25 @@
         <v>300</v>
       </c>
       <c r="U15" s="3">
+        <v>300</v>
+      </c>
+      <c r="V15" s="3">
         <v>100</v>
       </c>
-      <c r="V15" s="3">
-        <v>0</v>
-      </c>
-      <c r="W15" s="3" t="s">
-        <v>10</v>
+      <c r="W15" s="3">
+        <v>0</v>
       </c>
       <c r="X15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Y15" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1312,150 +1337,157 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>165900</v>
+      </c>
+      <c r="E17" s="3">
         <v>170100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>192100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>194900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>198900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>182600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>175800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>157500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>157400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>141800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>140400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>117200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>127000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>145200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>116100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>67200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>63900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>63800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>66100</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>62300</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>67800</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>61700</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>59000</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>24800</v>
+      </c>
+      <c r="E18" s="3">
         <v>29100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>61200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>59400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>57400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>58800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>49800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>43100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>36000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>27500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>14700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>9300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>7900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-5300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-18000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>5900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>3700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>3300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>10900</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>14300</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>20800</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>20600</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>19200</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1481,150 +1513,157 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E20" s="3">
         <v>3100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>4300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-100</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>-900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>1300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>3200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>800</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>300</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>900</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>300</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-200</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>400</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>44600</v>
+      </c>
+      <c r="E21" s="3">
         <v>48900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>81800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>76000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>73400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>75100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>67100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>59600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>52100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>42600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>31200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>26200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>24300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>12800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-6100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>8800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>7200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>6000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>13600</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>16200</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>22200</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>22600</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>21100</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1652,8 +1691,8 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>10</v>
+      <c r="L22" s="3">
+        <v>0</v>
       </c>
       <c r="M22" s="3" t="s">
         <v>10</v>
@@ -1670,14 +1709,14 @@
       <c r="Q22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R22" s="3">
-        <v>0</v>
+      <c r="R22" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="S22" s="3">
         <v>0</v>
       </c>
       <c r="T22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U22" s="3">
         <v>100</v>
@@ -1686,158 +1725,167 @@
         <v>100</v>
       </c>
       <c r="W22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="3">
         <v>100</v>
       </c>
-      <c r="Y22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>27900</v>
+      </c>
+      <c r="E23" s="3">
         <v>32200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>65600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>59900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>57300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>58900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>50100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>43100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>36000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>26600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>14500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>8900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>7400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-4000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-14800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>6200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>4600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>3500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>11600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>14500</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>20600</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>20800</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>19400</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E24" s="3">
         <v>3100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-700</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>7600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>5700</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>5600</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>3300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>6600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>2500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-5400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>800</v>
       </c>
-      <c r="O24" s="3">
-        <v>0</v>
-      </c>
       <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
         <v>400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-5600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>1900</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>600</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>500</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-400</v>
-      </c>
-      <c r="V24" s="3">
-        <v>2900</v>
       </c>
       <c r="W24" s="3">
         <v>2900</v>
       </c>
       <c r="X24" s="3">
+        <v>2900</v>
+      </c>
+      <c r="Y24" s="3">
         <v>4400</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>5700</v>
       </c>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1907,150 +1955,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>25900</v>
+      </c>
+      <c r="E26" s="3">
         <v>29100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>66200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>52200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>51600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>53300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>46700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>36400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>35100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>24100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>19900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>8100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>7400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-4400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-9200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>4200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>3900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>3000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>12000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>11600</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>17700</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>16400</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>13700</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>25900</v>
+      </c>
+      <c r="E27" s="3">
         <v>29100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>66200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>52200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>51600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>53300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>46700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>36400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>35100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>24100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>19900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>8100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>7400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-4400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-9200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>4200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>3900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>3000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>12000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>11600</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>17700</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>16400</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>13700</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2120,8 +2177,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2170,8 +2230,8 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-      <c r="S29" s="3" t="s">
-        <v>10</v>
+      <c r="S29" s="3">
+        <v>0</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>10</v>
@@ -2188,11 +2248,14 @@
       <c r="X29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Y29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z29" s="3">
         <v>-2900</v>
       </c>
     </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2262,8 +2325,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2333,150 +2399,159 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-3100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-4300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>100</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-3200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-800</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-300</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-900</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-300</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>200</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-400</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>25900</v>
+      </c>
+      <c r="E33" s="3">
         <v>29100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>66200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>52200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>51600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>53300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>46700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>36400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>35100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>24100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>19900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>8100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>7400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-4400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-9200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>4200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>3900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>3000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>12000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>11600</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>17700</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>16400</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>10800</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2546,155 +2621,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>25900</v>
+      </c>
+      <c r="E35" s="3">
         <v>29100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>66200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>52200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>51600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>53300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>46700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>36400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>35100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>24100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>19900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>8100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>7400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-4400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-9200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>4200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>3900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>3000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>12000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>11600</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>17700</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>16400</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>10800</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45108</v>
+      </c>
+      <c r="E38" s="2">
         <v>45017</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44835</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44744</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44653</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44562</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44464</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44282</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44191</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44009</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43918</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43736</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43645</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43554</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43463</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43372</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43099</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2720,8 +2804,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2747,434 +2832,453 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>224300</v>
+      </c>
+      <c r="E41" s="3">
         <v>230500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>175900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>200400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>180200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>172500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>169600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>152200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>134200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>126500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>136700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>101600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>129400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>101300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>130700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>51000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>94000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>95200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>111000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>96100</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>86200</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>65900</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>34900</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>385300</v>
+      </c>
+      <c r="E42" s="3">
         <v>353000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>371900</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>352300</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>364800</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>369400</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>341700</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>309300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>276600</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>266500</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>237000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>238800</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>182700</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>190600</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>189600</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>93100</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>50900</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>52900</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>40800</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>76800</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>62500</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>58000</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>82100</v>
       </c>
     </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>187900</v>
+      </c>
+      <c r="E43" s="3">
         <v>209600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>241400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>235500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>234700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>206700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>177200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>179800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>174700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>141900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>149300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>131400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>137500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>149200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>123700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>57000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>51600</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>45300</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>50900</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>50300</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>54600</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>59000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>62500</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>352100</v>
+      </c>
+      <c r="E44" s="3">
         <v>338400</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>324300</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>307900</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>280600</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>263000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>243100</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>222300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>207000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>200900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>191200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>185000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>171800</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>160500</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>176100</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>69800</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>67600</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>63800</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>62100</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>60700</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>56100</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>54600</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>54400</v>
       </c>
     </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>33500</v>
+      </c>
+      <c r="E45" s="3">
         <v>23600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>21400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>26500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>25300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>20600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>16400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>21800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>19100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>19200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>17500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>19900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>23500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>26800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>21600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>7400</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>8000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>7200</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>6100</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>7100</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>9900</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>6900</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>6200</v>
       </c>
     </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1183000</v>
+      </c>
+      <c r="E46" s="3">
         <v>1155100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1134900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1122600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1085600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1032200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>948100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>885500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>811600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>754800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>731700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>676700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>644900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>628500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>641700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>278300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>272200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>264400</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>270900</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>291100</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>269300</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>244400</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>240100</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3244,150 +3348,159 @@
       <c r="Y47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>117700</v>
+      </c>
+      <c r="E48" s="3">
         <v>117300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>112700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>104800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>101500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>101900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>99600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>104400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>108500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>109600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>107600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>112800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>116800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>119400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>122000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>62400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>63500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>62100</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>47900</v>
-      </c>
-      <c r="V48" s="3">
-        <v>43100</v>
       </c>
       <c r="W48" s="3">
         <v>43100</v>
       </c>
       <c r="X48" s="3">
+        <v>43100</v>
+      </c>
+      <c r="Y48" s="3">
         <v>43800</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>44800</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>510400</v>
+      </c>
+      <c r="E49" s="3">
         <v>524200</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>538000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>551800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>565600</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>579300</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>593100</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>606800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>619800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>632100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>625000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>638500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>652200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>665800</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>679100</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>51400</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>52100</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>52900</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>53700</v>
-      </c>
-      <c r="V49" s="3">
-        <v>14700</v>
       </c>
       <c r="W49" s="3">
         <v>14700</v>
       </c>
       <c r="X49" s="3">
+        <v>14700</v>
+      </c>
+      <c r="Y49" s="3">
         <v>13800</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>12400</v>
       </c>
     </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3457,8 +3570,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3528,79 +3644,85 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>9800</v>
+      </c>
+      <c r="E52" s="3">
         <v>6200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>9300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>8600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>8800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>9000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>9100</v>
-      </c>
-      <c r="J52" s="3">
-        <v>6600</v>
       </c>
       <c r="K52" s="3">
         <v>6600</v>
       </c>
       <c r="L52" s="3">
+        <v>6600</v>
+      </c>
+      <c r="M52" s="3">
         <v>7200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>3900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>2700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>2800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>2700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>5800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>4100</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>3300</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>2900</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>3200</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>7500</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>7700</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>10000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>12300</v>
       </c>
     </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3670,79 +3792,85 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1820900</v>
+      </c>
+      <c r="E54" s="3">
         <v>1802800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1794900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1787800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1761500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1722400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1649800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1603300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1546500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1503700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1468200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1430700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1416800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1416400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1448600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>396200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>391100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>382300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>375600</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>356500</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>334800</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>312000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>309700</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3768,8 +3896,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3795,79 +3924,83 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>49600</v>
+      </c>
+      <c r="E57" s="3">
         <v>53700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>54500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>64000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>72200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>70800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>53300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>50900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>46700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>45600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>40200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>37500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>34300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>32200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>27700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>17500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>19500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>18900</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>16500</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>20900</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>19000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>18500</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>13900</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3937,150 +4070,159 @@
       <c r="Y58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>87300</v>
+      </c>
+      <c r="E59" s="3">
         <v>94700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>106000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>105600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>104400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>113900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>101200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>97800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>86500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>80800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>79900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>59700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>64400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>62100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>58000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>32300</v>
-      </c>
-      <c r="S59" s="3">
-        <v>31500</v>
       </c>
       <c r="T59" s="3">
         <v>31500</v>
       </c>
       <c r="U59" s="3">
+        <v>31500</v>
+      </c>
+      <c r="V59" s="3">
         <v>43200</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>38200</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>34100</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>29400</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>30200</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>136900</v>
+      </c>
+      <c r="E60" s="3">
         <v>148400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>160600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>169600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>176700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>184700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>154500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>148600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>133200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>126400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>120100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>97200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>98700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>94300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>85700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>49800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>51000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>50400</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>59800</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>59100</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>53000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>47900</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>44100</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4150,79 +4292,85 @@
       <c r="Y61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>27200</v>
+      </c>
+      <c r="E62" s="3">
         <v>29800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>37900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>48800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>56900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>65400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>69200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>81100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>83800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>85000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>83300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>95800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>96800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>96300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>98800</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>10600</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>11200</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>11500</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>3000</v>
-      </c>
-      <c r="V62" s="3">
-        <v>3300</v>
       </c>
       <c r="W62" s="3">
         <v>3300</v>
       </c>
       <c r="X62" s="3">
+        <v>3300</v>
+      </c>
+      <c r="Y62" s="3">
         <v>3400</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4292,8 +4440,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4363,8 +4514,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4434,79 +4588,85 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>164100</v>
+      </c>
+      <c r="E66" s="3">
         <v>178200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>198400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>218400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>233500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>250100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>223800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>229700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>216900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>211400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>203400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>193000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>195600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>190600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>184600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>60500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>62100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>61900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>62800</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>62400</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>56300</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>51300</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>47300</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4532,8 +4692,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4603,8 +4764,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4674,8 +4838,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4745,8 +4912,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4816,79 +4986,85 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>416200</v>
+      </c>
+      <c r="E72" s="3">
         <v>390300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>362800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>325600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>273400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>221800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>168500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>121800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>85300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>50300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>26200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>6200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-1800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-9300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-4900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>78500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>74300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>70400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>67400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>55400</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>43800</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>26100</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>9100</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4958,8 +5134,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5029,8 +5208,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5100,79 +5282,85 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1656700</v>
+      </c>
+      <c r="E76" s="3">
         <v>1624600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1596400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1569400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1527900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1472300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1426100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1373600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1329600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1292300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1264700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1237700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1221200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1225800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1264000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>335800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>329000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>320400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>312900</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>294100</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>278500</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>260700</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>262400</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5242,155 +5430,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45108</v>
+      </c>
+      <c r="E80" s="2">
         <v>45017</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44835</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44744</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44653</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44562</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44464</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44282</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44191</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44009</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43918</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43736</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43645</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43554</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43463</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43372</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43099</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>25900</v>
+      </c>
+      <c r="E81" s="3">
         <v>29100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>66200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>52200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>51600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>53300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>46700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>36400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>35100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>24100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>19900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>8100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>7400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-4400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-9200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>4200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>3900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>3000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>12000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>11600</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>17700</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>16400</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>10800</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5416,8 +5613,9 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5425,70 +5623,73 @@
         <v>16700</v>
       </c>
       <c r="E83" s="3">
+        <v>16700</v>
+      </c>
+      <c r="F83" s="3">
         <v>16200</v>
-      </c>
-      <c r="F83" s="3">
-        <v>16100</v>
       </c>
       <c r="G83" s="3">
         <v>16100</v>
       </c>
       <c r="H83" s="3">
+        <v>16100</v>
+      </c>
+      <c r="I83" s="3">
         <v>16200</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>17100</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>16600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>16200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>16000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>16700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>17200</v>
-      </c>
-      <c r="O83" s="3">
-        <v>16800</v>
       </c>
       <c r="P83" s="3">
         <v>16800</v>
       </c>
       <c r="Q83" s="3">
+        <v>16800</v>
+      </c>
+      <c r="R83" s="3">
         <v>8700</v>
-      </c>
-      <c r="R83" s="3">
-        <v>2700</v>
       </c>
       <c r="S83" s="3">
         <v>2700</v>
       </c>
       <c r="T83" s="3">
+        <v>2700</v>
+      </c>
+      <c r="U83" s="3">
         <v>2400</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>1900</v>
-      </c>
-      <c r="V83" s="3">
-        <v>1600</v>
       </c>
       <c r="W83" s="3">
         <v>1600</v>
       </c>
       <c r="X83" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="Y83" s="3">
         <v>1700</v>
       </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z83" s="3">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5558,8 +5759,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5629,8 +5833,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5700,8 +5907,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5771,8 +5981,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5842,79 +6055,85 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>31700</v>
+      </c>
+      <c r="E89" s="3">
         <v>50100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>49500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>31800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>9900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>45500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>49000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>49900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>25400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>51000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>33100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>26000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>38000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>8900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>19300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-1400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-900</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>19900</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>24400</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>26300</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>32700</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5940,79 +6159,83 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="E91" s="3">
         <v>-7900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-8600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-2900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-4400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-2500</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-1600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-5700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-3900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-1600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>3100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-1600</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-4200</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-4100</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-4500</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-1200</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-400</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-1300</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-2900</v>
       </c>
     </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6082,8 +6305,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6153,79 +6379,85 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-36100</v>
+      </c>
+      <c r="E94" s="3">
         <v>13200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-26500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>4000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-33300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-30900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-34500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-16000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-60300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>1100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-57100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>9900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-2600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>65000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-43700</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-1200</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-16000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-4700</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-15300</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-5800</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>21600</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>11100</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6251,8 +6483,9 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6322,8 +6555,11 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6393,8 +6629,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6464,8 +6703,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6535,217 +6777,229 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E100" s="3">
         <v>-9500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-50500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-11800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>1400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-7600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>3000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>2900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-3900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>2400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-20500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-35000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-6200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>1500</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>700</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-500</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>700</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-100</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-22900</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-25400</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="E101" s="3">
         <v>800</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>2900</v>
-      </c>
-      <c r="F101" s="3">
-        <v>-3800</v>
       </c>
       <c r="G101" s="3">
         <v>-3800</v>
       </c>
       <c r="H101" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="I101" s="3">
         <v>-1700</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-3800</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>2300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-1500</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>1400</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>900</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>700</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-600</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>200</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-300</v>
       </c>
-      <c r="S101" s="3">
-        <v>0</v>
-      </c>
       <c r="T101" s="3">
+        <v>0</v>
+      </c>
+      <c r="U101" s="3">
         <v>300</v>
-      </c>
-      <c r="U101" s="3">
-        <v>100</v>
       </c>
       <c r="V101" s="3">
         <v>100</v>
       </c>
       <c r="W101" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y101" s="3">
         <v>-400</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="E102" s="3">
         <v>54600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-24500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>20200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>7700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>2900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>17400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>18000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>7800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-10300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>35100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-27800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>28100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-29400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>78200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-43000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-1200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-15700</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>14800</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>9900</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>20300</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>31000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-9100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ONTO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ONTO_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,332 +665,345 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="10" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45108</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45017</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44835</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44744</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44653</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44562</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44464</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44282</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44191</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44009</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43918</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43736</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43645</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43554</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43463</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43372</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43281</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43190</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43099</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>207200</v>
+      </c>
+      <c r="E8" s="3">
         <v>190700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>199200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>253300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>254300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>256300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>241400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>225600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>200600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>193400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>169300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>155100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>126500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>134900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>139900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>98100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>73100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>67600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>67100</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>77000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>76600</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>88600</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>82300</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>78200</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>100300</v>
+      </c>
+      <c r="E9" s="3">
         <v>90200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>91900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>116000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>115400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>124200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>110300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>101800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>91200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>87900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>78800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>79800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>57600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>63400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>77300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>70700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>34400</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>32400</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>33300</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>35000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>33000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>37700</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>34800</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>34200</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>106900</v>
+      </c>
+      <c r="E10" s="3">
         <v>100500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>107300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>137300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>138900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>132100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>131100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>123800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>109400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>105500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>90500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>75300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>68900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>71500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>62600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>27400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>38700</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>35200</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>33800</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>42000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>43600</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>50900</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>47500</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>44000</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1017,82 +1030,86 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>26100</v>
+      </c>
+      <c r="E12" s="3">
         <v>27000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>27200</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>27800</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>32200</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>25600</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>26300</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>24800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>23800</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>25500</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>22000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>21800</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>9800</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>10300</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>9700</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>7500</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>13800</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>14100</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>13000</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>12800</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>12700</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>12500</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>10200</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>10100</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1165,8 +1182,11 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1174,10 +1194,10 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>2300</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>10</v>
@@ -1203,35 +1223,35 @@
       <c r="N14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O14" s="3">
+      <c r="O14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P14" s="3">
         <v>24300</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>27200</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>29800</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>-3300</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>2400</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>900</v>
-      </c>
-      <c r="U14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="V14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="W14" s="3">
-        <v>0</v>
-      </c>
-      <c r="X14" s="3" t="s">
+      <c r="W14" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="X14" s="3">
+        <v>0</v>
       </c>
       <c r="Y14" s="3" t="s">
         <v>10</v>
@@ -1239,8 +1259,11 @@
       <c r="Z14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1263,34 +1286,34 @@
         <v>13800</v>
       </c>
       <c r="J15" s="3">
+        <v>13800</v>
+      </c>
+      <c r="K15" s="3">
         <v>13700</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>13000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>12300</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>12400</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>12700</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>13600</v>
-      </c>
-      <c r="P15" s="3">
-        <v>13700</v>
       </c>
       <c r="Q15" s="3">
         <v>13700</v>
       </c>
       <c r="R15" s="3">
+        <v>13700</v>
+      </c>
+      <c r="S15" s="3">
         <v>9600</v>
-      </c>
-      <c r="S15" s="3">
-        <v>300</v>
       </c>
       <c r="T15" s="3">
         <v>300</v>
@@ -1299,22 +1322,25 @@
         <v>300</v>
       </c>
       <c r="V15" s="3">
+        <v>300</v>
+      </c>
+      <c r="W15" s="3">
         <v>100</v>
       </c>
-      <c r="W15" s="3">
-        <v>0</v>
-      </c>
-      <c r="X15" s="3" t="s">
-        <v>10</v>
+      <c r="X15" s="3">
+        <v>0</v>
       </c>
       <c r="Y15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Z15" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1338,156 +1364,163 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>173200</v>
+      </c>
+      <c r="E17" s="3">
         <v>165900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>170100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>192100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>194900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>198900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>182600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>175800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>157500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>157400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>141800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>140400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>117200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>127000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>145200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>116100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>67200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>63900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>63800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>66100</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>62300</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>67800</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>61700</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>59000</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>34000</v>
+      </c>
+      <c r="E18" s="3">
         <v>24800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>29100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>61200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>59400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>57400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>58800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>49800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>43100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>36000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>27500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>14700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>9300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>7900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-5300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-18000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>5900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>3700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>3300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>10900</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>14300</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>20800</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>20600</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>19200</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1514,156 +1547,163 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E20" s="3">
         <v>3000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>3100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>4300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-100</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>-900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>1300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>3200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>800</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>300</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>900</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>300</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-200</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>400</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>55700</v>
+      </c>
+      <c r="E21" s="3">
         <v>44600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>48900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>81800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>76000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>73400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>75100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>67100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>59600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>52100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>42600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>31200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>26200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>24300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>12800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-6100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>8800</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>7200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>6000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>13600</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>16200</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>22200</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>22600</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>21100</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1694,8 +1734,8 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>10</v>
+      <c r="M22" s="3">
+        <v>0</v>
       </c>
       <c r="N22" s="3" t="s">
         <v>10</v>
@@ -1712,14 +1752,14 @@
       <c r="R22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="S22" s="3">
-        <v>0</v>
+      <c r="S22" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="T22" s="3">
         <v>0</v>
       </c>
       <c r="U22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V22" s="3">
         <v>100</v>
@@ -1728,164 +1768,173 @@
         <v>100</v>
       </c>
       <c r="X22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="3">
         <v>100</v>
       </c>
-      <c r="Z22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>38700</v>
+      </c>
+      <c r="E23" s="3">
         <v>27900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>32200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>65600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>59900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>57300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>58900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>50100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>43100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>36000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>26600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>14500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>8900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>7400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-4000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-14800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>6200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>4600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>3500</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>11600</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>14500</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>20600</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>20800</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>19400</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E24" s="3">
         <v>2000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>3100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-700</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>7600</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>5700</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>5600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>3300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>6600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>2500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-5400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>800</v>
       </c>
-      <c r="P24" s="3">
-        <v>0</v>
-      </c>
       <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
         <v>400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-5600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>1900</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>600</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>500</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-400</v>
-      </c>
-      <c r="W24" s="3">
-        <v>2900</v>
       </c>
       <c r="X24" s="3">
         <v>2900</v>
       </c>
       <c r="Y24" s="3">
+        <v>2900</v>
+      </c>
+      <c r="Z24" s="3">
         <v>4400</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>5700</v>
       </c>
     </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1958,156 +2007,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>35900</v>
+      </c>
+      <c r="E26" s="3">
         <v>25900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>29100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>66200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>52200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>51600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>53300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>46700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>36400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>35100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>24100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>19900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>8100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>7400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-4400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-9200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>4200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>3900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>3000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>12000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>11600</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>17700</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>16400</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>13700</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>35900</v>
+      </c>
+      <c r="E27" s="3">
         <v>25900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>29100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>66200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>52200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>51600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>53300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>46700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>36400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>35100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>24100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>19900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>8100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>7400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-4400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-9200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>4200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>3900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>3000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>12000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>11600</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>17700</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>16400</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>13700</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2180,8 +2238,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2233,8 +2294,8 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-      <c r="T29" s="3" t="s">
-        <v>10</v>
+      <c r="T29" s="3">
+        <v>0</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>10</v>
@@ -2251,11 +2312,14 @@
       <c r="Y29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Z29" s="3">
+      <c r="Z29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA29" s="3">
         <v>-2900</v>
       </c>
     </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2328,8 +2392,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2402,156 +2469,165 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="E32" s="3">
         <v>-3000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-3100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-4300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>100</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-1300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-3200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-800</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-300</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-900</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-300</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>200</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-400</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>35900</v>
+      </c>
+      <c r="E33" s="3">
         <v>25900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>29100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>66200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>52200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>51600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>53300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>46700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>36400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>35100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>24100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>19900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>8100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>7400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-4400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-9200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>4200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>3900</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>3000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>12000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>11600</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>17700</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>16400</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>10800</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2624,161 +2700,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>35900</v>
+      </c>
+      <c r="E35" s="3">
         <v>25900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>29100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>66200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>52200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>51600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>53300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>46700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>36400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>35100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>24100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>19900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>8100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>7400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-4400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-9200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>4200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>3900</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>3000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>12000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>11600</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>17700</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>16400</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>10800</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45108</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45017</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44835</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44744</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44653</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44562</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44464</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44282</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44191</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44009</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43918</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43736</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43645</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43554</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43463</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43372</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43281</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43190</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43099</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2805,8 +2890,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2833,452 +2919,471 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>206600</v>
+      </c>
+      <c r="E41" s="3">
         <v>224300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>230500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>175900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>200400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>180200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>172500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>169600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>152200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>134200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>126500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>136700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>101600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>129400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>101300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>130700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>51000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>94000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>95200</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>111000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>96100</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>86200</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>65900</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>34900</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>423100</v>
+      </c>
+      <c r="E42" s="3">
         <v>385300</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>353000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>371900</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>352300</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>364800</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>369400</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>341700</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>309300</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>276600</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>266500</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>237000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>238800</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>182700</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>190600</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>189600</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>93100</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>50900</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>52900</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>40800</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>76800</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>62500</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>58000</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>82100</v>
       </c>
     </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>209500</v>
+      </c>
+      <c r="E43" s="3">
         <v>187900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>209600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>241400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>235500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>234700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>206700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>177200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>179800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>174700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>141900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>149300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>131400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>137500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>149200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>123700</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>57000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>51600</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>45300</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>50900</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>50300</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>54600</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>59000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>62500</v>
       </c>
     </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>346100</v>
+      </c>
+      <c r="E44" s="3">
         <v>352100</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>338400</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>324300</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>307900</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>280600</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>263000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>243100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>222300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>207000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>200900</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>191200</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>185000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>171800</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>160500</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>176100</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>69800</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>67600</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>63800</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>62100</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>60700</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>56100</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>54600</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>54400</v>
       </c>
     </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>36000</v>
+      </c>
+      <c r="E45" s="3">
         <v>33500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>23600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>21400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>26500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>25300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>20600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>16400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>21800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>19100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>19200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>17500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>19900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>23500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>26800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>21600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>7400</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>8000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>7200</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>6100</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>7100</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>9900</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>6900</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>6200</v>
       </c>
     </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1221200</v>
+      </c>
+      <c r="E46" s="3">
         <v>1183000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1155100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1134900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1122600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1085600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1032200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>948100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>885500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>811600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>754800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>731700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>676700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>644900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>628500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>641700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>278300</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>272200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>264400</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>270900</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>291100</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>269300</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>244400</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>240100</v>
       </c>
     </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3351,156 +3456,165 @@
       <c r="Z47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>123300</v>
+      </c>
+      <c r="E48" s="3">
         <v>117700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>117300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>112700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>104800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>101500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>101900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>99600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>104400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>108500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>109600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>107600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>112800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>116800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>119400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>122000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>62400</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>63500</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>62100</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>47900</v>
-      </c>
-      <c r="W48" s="3">
-        <v>43100</v>
       </c>
       <c r="X48" s="3">
         <v>43100</v>
       </c>
       <c r="Y48" s="3">
+        <v>43100</v>
+      </c>
+      <c r="Z48" s="3">
         <v>43800</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>44800</v>
       </c>
     </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>496500</v>
+      </c>
+      <c r="E49" s="3">
         <v>510400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>524200</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>538000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>551800</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>565600</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>579300</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>593100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>606800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>619800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>632100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>625000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>638500</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>652200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>665800</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>679100</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>51400</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>52100</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>52900</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>53700</v>
-      </c>
-      <c r="W49" s="3">
-        <v>14700</v>
       </c>
       <c r="X49" s="3">
         <v>14700</v>
       </c>
       <c r="Y49" s="3">
+        <v>14700</v>
+      </c>
+      <c r="Z49" s="3">
         <v>13800</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>12400</v>
       </c>
     </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3573,8 +3687,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3647,82 +3764,88 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>21100</v>
+      </c>
+      <c r="E52" s="3">
         <v>9800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>6200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>9300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>8600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>8800</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>9000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>9100</v>
-      </c>
-      <c r="K52" s="3">
-        <v>6600</v>
       </c>
       <c r="L52" s="3">
         <v>6600</v>
       </c>
       <c r="M52" s="3">
+        <v>6600</v>
+      </c>
+      <c r="N52" s="3">
         <v>7200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>3900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>2700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>2800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>2700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>5800</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>4100</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>3300</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>2900</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>3200</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>7500</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>7700</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>10000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>12300</v>
       </c>
     </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3795,82 +3918,88 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1862200</v>
+      </c>
+      <c r="E54" s="3">
         <v>1820900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1802800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1794900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1787800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1761500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1722400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1649800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1603300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1546500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1503700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1468200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1430700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1416800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1416400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1448600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>396200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>391100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>382300</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>375600</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>356500</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>334800</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>312000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>309700</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3897,8 +4026,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3925,82 +4055,86 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>44500</v>
+      </c>
+      <c r="E57" s="3">
         <v>49600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>53700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>54500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>64000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>72200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>70800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>53300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>50900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>46700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>45600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>40200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>37500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>34300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>32200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>27700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>17500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>19500</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>18900</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>16500</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>20900</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>19000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>18500</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>13900</v>
       </c>
     </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4073,156 +4207,165 @@
       <c r="Z58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>91300</v>
+      </c>
+      <c r="E59" s="3">
         <v>87300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>94700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>106000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>105600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>104400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>113900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>101200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>97800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>86500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>80800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>79900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>59700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>64400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>62100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>58000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>32300</v>
-      </c>
-      <c r="T59" s="3">
-        <v>31500</v>
       </c>
       <c r="U59" s="3">
         <v>31500</v>
       </c>
       <c r="V59" s="3">
+        <v>31500</v>
+      </c>
+      <c r="W59" s="3">
         <v>43200</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>38200</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>34100</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>29400</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>30200</v>
       </c>
     </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>135800</v>
+      </c>
+      <c r="E60" s="3">
         <v>136900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>148400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>160600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>169600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>176700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>184700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>154500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>148600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>133200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>126400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>120100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>97200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>98700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>94300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>85700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>49800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>51000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>50400</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>59800</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>59100</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>53000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>47900</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>44100</v>
       </c>
     </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4295,82 +4438,88 @@
       <c r="Z61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>30300</v>
+      </c>
+      <c r="E62" s="3">
         <v>27200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>29800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>37900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>48800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>56900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>65400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>69200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>81100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>83800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>85000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>83300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>95800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>96800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>96300</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>98800</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>10600</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>11200</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>11500</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>3000</v>
-      </c>
-      <c r="W62" s="3">
-        <v>3300</v>
       </c>
       <c r="X62" s="3">
         <v>3300</v>
       </c>
       <c r="Y62" s="3">
+        <v>3300</v>
+      </c>
+      <c r="Z62" s="3">
         <v>3400</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4443,8 +4592,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4517,8 +4669,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4591,82 +4746,88 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>166000</v>
+      </c>
+      <c r="E66" s="3">
         <v>164100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>178200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>198400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>218400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>233500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>250100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>223800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>229700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>216900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>211400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>203400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>193000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>195600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>190600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>184600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>60500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>62100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>61900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>62800</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>62400</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>56300</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>51300</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>47300</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4693,8 +4854,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4767,8 +4929,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4841,8 +5006,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4915,8 +5083,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4989,82 +5160,88 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>452000</v>
+      </c>
+      <c r="E72" s="3">
         <v>416200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>390300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>362800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>325600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>273400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>221800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>168500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>121800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>85300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>50300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>26200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>6200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-9300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-4900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>78500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>74300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>70400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>67400</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>55400</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>43800</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>26100</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>9100</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5137,8 +5314,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5211,8 +5391,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5285,82 +5468,88 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1696100</v>
+      </c>
+      <c r="E76" s="3">
         <v>1656700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1624600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1596400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1569400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1527900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1472300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1426100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1373600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1329600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1292300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1264700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1237700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1221200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1225800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1264000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>335800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>329000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>320400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>312900</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>294100</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>278500</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>260700</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>262400</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5433,161 +5622,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45108</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45017</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44835</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44744</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44653</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44562</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44464</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44282</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44191</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44009</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43918</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43736</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43645</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43554</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43463</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43372</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43281</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43190</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43099</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>35900</v>
+      </c>
+      <c r="E81" s="3">
         <v>25900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>29100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>66200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>52200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>51600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>53300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>46700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>36400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>35100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>24100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>19900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>8100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>7400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-4400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-9200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>4200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>3900</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>3000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>12000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>11600</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>17700</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>16400</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>10800</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5614,82 +5812,86 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>16700</v>
+        <v>17000</v>
       </c>
       <c r="E83" s="3">
         <v>16700</v>
       </c>
       <c r="F83" s="3">
+        <v>16700</v>
+      </c>
+      <c r="G83" s="3">
         <v>16200</v>
-      </c>
-      <c r="G83" s="3">
-        <v>16100</v>
       </c>
       <c r="H83" s="3">
         <v>16100</v>
       </c>
       <c r="I83" s="3">
+        <v>16100</v>
+      </c>
+      <c r="J83" s="3">
         <v>16200</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>17100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>16600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>16200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>16000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>16700</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>17200</v>
-      </c>
-      <c r="P83" s="3">
-        <v>16800</v>
       </c>
       <c r="Q83" s="3">
         <v>16800</v>
       </c>
       <c r="R83" s="3">
+        <v>16800</v>
+      </c>
+      <c r="S83" s="3">
         <v>8700</v>
-      </c>
-      <c r="S83" s="3">
-        <v>2700</v>
       </c>
       <c r="T83" s="3">
         <v>2700</v>
       </c>
       <c r="U83" s="3">
+        <v>2700</v>
+      </c>
+      <c r="V83" s="3">
         <v>2400</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>1900</v>
-      </c>
-      <c r="W83" s="3">
-        <v>1600</v>
       </c>
       <c r="X83" s="3">
         <v>1600</v>
       </c>
       <c r="Y83" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="Z83" s="3">
         <v>1700</v>
       </c>
-    </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA83" s="3">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5762,8 +5964,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5836,8 +6041,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5910,8 +6118,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5984,8 +6195,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6058,82 +6272,88 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>28600</v>
+      </c>
+      <c r="E89" s="3">
         <v>31700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>50100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>49500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>31800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>9900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>45500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>49000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>49900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>25400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>51000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>33100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>26000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>38000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>8900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>19300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-1400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-900</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>19900</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>24400</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>26300</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>32700</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6160,82 +6380,86 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-7600</v>
+      </c>
+      <c r="E91" s="3">
         <v>-4600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-7900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-8600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-2900</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-4400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-2500</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-5700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-3900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-1000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>3100</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-1600</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-4200</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-4100</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-4500</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-1200</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-400</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-1300</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-2900</v>
       </c>
     </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6308,8 +6532,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6382,82 +6609,88 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-43400</v>
+      </c>
+      <c r="E94" s="3">
         <v>-36100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>13200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-26500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>4000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-33300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-30900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-34500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-16000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-60300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>1100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-57100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>9900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-2600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>65000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-43700</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-1200</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-16000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-4700</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-15300</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-5800</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>21600</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>11100</v>
       </c>
     </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6484,8 +6717,9 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6558,8 +6792,11 @@
       <c r="Z96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6632,8 +6869,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6706,8 +6946,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6780,226 +7023,238 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E100" s="3">
         <v>1300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-9500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-50500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-11800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>1400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-7600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>3000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>2900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-3900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>2400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-20500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-35000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-6200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>1500</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>700</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-500</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>700</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-100</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-22900</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-25400</v>
       </c>
     </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-3100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>800</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>2900</v>
-      </c>
-      <c r="G101" s="3">
-        <v>-3800</v>
       </c>
       <c r="H101" s="3">
         <v>-3800</v>
       </c>
       <c r="I101" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="J101" s="3">
         <v>-1700</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-3800</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>2300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-1500</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>1400</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>900</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>700</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-600</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>200</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-300</v>
       </c>
-      <c r="T101" s="3">
-        <v>0</v>
-      </c>
       <c r="U101" s="3">
+        <v>0</v>
+      </c>
+      <c r="V101" s="3">
         <v>300</v>
-      </c>
-      <c r="V101" s="3">
-        <v>100</v>
       </c>
       <c r="W101" s="3">
         <v>100</v>
       </c>
       <c r="X101" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z101" s="3">
         <v>-400</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-17700</v>
+      </c>
+      <c r="E102" s="3">
         <v>-6200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>54600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-24500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>20200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>7700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>2900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>17400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>18000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>7800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-10300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>35100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-27800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>28100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-29400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>78200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-43000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-1200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-15700</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>14800</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>9900</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>20300</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>31000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-9100</v>
       </c>
     </row>
